--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>650</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L12" t="n">
         <v>60530</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>750</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>60515</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1150</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>18.18181818181818</v>
+      </c>
       <c r="L14" t="n">
         <v>60540</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1300</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>52.38095238095239</v>
+      </c>
       <c r="L15" t="n">
         <v>60575</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1300</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>52.38095238095239</v>
+      </c>
       <c r="L16" t="n">
         <v>60630</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1350</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>54.54545454545454</v>
+      </c>
       <c r="L17" t="n">
         <v>60690</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1600</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>69.23076923076923</v>
+      </c>
       <c r="L18" t="n">
         <v>60775</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2050</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>82.35294117647058</v>
+      </c>
       <c r="L19" t="n">
         <v>60910</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2200</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>64.70588235294117</v>
+      </c>
       <c r="L20" t="n">
         <v>61035</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2450</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>83.33333333333334</v>
+      </c>
       <c r="L21" t="n">
         <v>61170</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2500</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>82.85714285714286</v>
+      </c>
       <c r="L22" t="n">
         <v>61325</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2550</v>
       </c>
       <c r="K23" t="n">
-        <v>49.01960784313725</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L23" t="n">
         <v>61465</v>
@@ -1466,7 +1488,7 @@
         <v>2650</v>
       </c>
       <c r="K24" t="n">
-        <v>50.9433962264151</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L24" t="n">
         <v>61575</v>
@@ -1515,7 +1537,7 @@
         <v>2750</v>
       </c>
       <c r="K25" t="n">
-        <v>51.85185185185185</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="L25" t="n">
         <v>61680</v>
@@ -1564,7 +1586,7 @@
         <v>3150</v>
       </c>
       <c r="K26" t="n">
-        <v>68.96551724137932</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L26" t="n">
         <v>61825</v>
@@ -1613,7 +1635,7 @@
         <v>3150</v>
       </c>
       <c r="K27" t="n">
-        <v>68.96551724137932</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L27" t="n">
         <v>61965</v>
@@ -1662,7 +1684,7 @@
         <v>3250</v>
       </c>
       <c r="K28" t="n">
-        <v>63.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L28" t="n">
         <v>62070</v>
@@ -1711,7 +1733,7 @@
         <v>3350</v>
       </c>
       <c r="K29" t="n">
-        <v>60.65573770491803</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L29" t="n">
         <v>62120</v>
@@ -1760,7 +1782,7 @@
         <v>3350</v>
       </c>
       <c r="K30" t="n">
-        <v>63.33333333333333</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L30" t="n">
         <v>62185</v>
@@ -1809,7 +1831,7 @@
         <v>3400</v>
       </c>
       <c r="K31" t="n">
-        <v>58.62068965517241</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>62220</v>
@@ -1860,7 +1882,7 @@
         <v>3650</v>
       </c>
       <c r="K32" t="n">
-        <v>70</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L32" t="n">
         <v>62275</v>
@@ -1911,7 +1933,7 @@
         <v>3700</v>
       </c>
       <c r="K33" t="n">
-        <v>66.10169491525424</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>62330</v>
@@ -1962,7 +1984,7 @@
         <v>3700</v>
       </c>
       <c r="K34" t="n">
-        <v>60.78431372549019</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L34" t="n">
         <v>62375</v>
@@ -2013,7 +2035,7 @@
         <v>3750</v>
       </c>
       <c r="K35" t="n">
-        <v>55.10204081632652</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>62405</v>
@@ -2064,7 +2086,7 @@
         <v>3750</v>
       </c>
       <c r="K36" t="n">
-        <v>55.10204081632652</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>62395</v>
@@ -2115,7 +2137,7 @@
         <v>3750</v>
       </c>
       <c r="K37" t="n">
-        <v>54.16666666666666</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>62385</v>
@@ -2166,7 +2188,7 @@
         <v>4150</v>
       </c>
       <c r="K38" t="n">
-        <v>25.49019607843137</v>
+        <v>-37.5</v>
       </c>
       <c r="L38" t="n">
         <v>62345</v>
@@ -2217,7 +2239,7 @@
         <v>4350</v>
       </c>
       <c r="K39" t="n">
-        <v>17.39130434782609</v>
+        <v>-10</v>
       </c>
       <c r="L39" t="n">
         <v>62335</v>
@@ -2268,7 +2290,7 @@
         <v>4450</v>
       </c>
       <c r="K40" t="n">
-        <v>28.88888888888889</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L40" t="n">
         <v>62335</v>
@@ -2319,7 +2341,7 @@
         <v>4450</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L41" t="n">
         <v>62340</v>
@@ -2370,7 +2392,7 @@
         <v>4450</v>
       </c>
       <c r="K42" t="n">
-        <v>17.94871794871795</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>62320</v>
@@ -2421,7 +2443,7 @@
         <v>4450</v>
       </c>
       <c r="K43" t="n">
-        <v>21.05263157894737</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>62305</v>
@@ -2472,7 +2494,7 @@
         <v>4450</v>
       </c>
       <c r="K44" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>62290</v>
@@ -2523,7 +2545,7 @@
         <v>4850</v>
       </c>
       <c r="K45" t="n">
-        <v>28.57142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L45" t="n">
         <v>62320</v>
@@ -2574,7 +2596,7 @@
         <v>4850</v>
       </c>
       <c r="K46" t="n">
-        <v>11.76470588235294</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L46" t="n">
         <v>62350</v>
@@ -2625,7 +2647,7 @@
         <v>4950</v>
       </c>
       <c r="K47" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>62390</v>
@@ -2676,7 +2698,7 @@
         <v>5400</v>
       </c>
       <c r="K48" t="n">
-        <v>-2.325581395348837</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>62425</v>
@@ -2727,7 +2749,7 @@
         <v>5750</v>
       </c>
       <c r="K49" t="n">
-        <v>16.66666666666666</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L49" t="n">
         <v>62475</v>
@@ -2778,7 +2800,7 @@
         <v>6050</v>
       </c>
       <c r="K50" t="n">
-        <v>3.703703703703703</v>
+        <v>6.25</v>
       </c>
       <c r="L50" t="n">
         <v>62485</v>
@@ -2829,7 +2851,7 @@
         <v>6100</v>
       </c>
       <c r="K51" t="n">
-        <v>3.703703703703703</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L51" t="n">
         <v>62490</v>
@@ -2880,7 +2902,7 @@
         <v>6100</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.122448979591836</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L52" t="n">
         <v>62495</v>
@@ -2931,7 +2953,7 @@
         <v>7000</v>
       </c>
       <c r="K53" t="n">
-        <v>-30.3030303030303</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>62410</v>
@@ -2982,7 +3004,7 @@
         <v>7650</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.860759493670885</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>62390</v>
@@ -3033,7 +3055,7 @@
         <v>7750</v>
       </c>
       <c r="K55" t="n">
-        <v>-10</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L55" t="n">
         <v>62320</v>
@@ -3084,7 +3106,7 @@
         <v>8000</v>
       </c>
       <c r="K56" t="n">
-        <v>-15.29411764705882</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L56" t="n">
         <v>62225</v>
@@ -3135,7 +3157,7 @@
         <v>8050</v>
       </c>
       <c r="K57" t="n">
-        <v>-13.95348837209302</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L57" t="n">
         <v>62125</v>
@@ -3186,7 +3208,7 @@
         <v>8350</v>
       </c>
       <c r="K58" t="n">
-        <v>2.380952380952381</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L58" t="n">
         <v>62100</v>
@@ -3237,7 +3259,7 @@
         <v>8550</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L59" t="n">
         <v>62020</v>
@@ -3288,7 +3310,7 @@
         <v>8750</v>
       </c>
       <c r="K60" t="n">
-        <v>-13.95348837209302</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L60" t="n">
         <v>61950</v>
@@ -3339,7 +3361,7 @@
         <v>9050</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.521739130434782</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L61" t="n">
         <v>61915</v>
@@ -3390,7 +3412,7 @@
         <v>9250</v>
       </c>
       <c r="K62" t="n">
-        <v>-10.41666666666667</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L62" t="n">
         <v>61860</v>
@@ -3441,7 +3463,7 @@
         <v>9550</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.92156862745098</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>61925</v>
@@ -3492,7 +3514,7 @@
         <v>9550</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.92156862745098</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L64" t="n">
         <v>61925</v>
@@ -3543,7 +3565,7 @@
         <v>9700</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.278350515463918</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L65" t="n">
         <v>61950</v>
@@ -3594,7 +3616,7 @@
         <v>9800</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.07070707070707</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L66" t="n">
         <v>62010</v>
@@ -3645,7 +3667,7 @@
         <v>9800</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.278350515463918</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L67" t="n">
         <v>62065</v>
@@ -3696,7 +3718,7 @@
         <v>9800</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L68" t="n">
         <v>62090</v>
@@ -3747,7 +3769,7 @@
         <v>9850</v>
       </c>
       <c r="K69" t="n">
-        <v>-9.75609756097561</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L69" t="n">
         <v>62130</v>
@@ -3798,7 +3820,7 @@
         <v>9850</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.631578947368421</v>
+        <v>37.5</v>
       </c>
       <c r="L70" t="n">
         <v>62190</v>
@@ -3849,7 +3871,7 @@
         <v>9850</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.333333333333333</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L71" t="n">
         <v>62220</v>
@@ -3900,7 +3922,7 @@
         <v>9850</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.333333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>62270</v>
@@ -3951,7 +3973,7 @@
         <v>9850</v>
       </c>
       <c r="K73" t="n">
-        <v>29.82456140350877</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L73" t="n">
         <v>62290</v>
@@ -4002,7 +4024,7 @@
         <v>9950</v>
       </c>
       <c r="K74" t="n">
-        <v>13.04347826086956</v>
+        <v>60</v>
       </c>
       <c r="L74" t="n">
         <v>62320</v>
@@ -4053,7 +4075,7 @@
         <v>10500</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.454545454545454</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L75" t="n">
         <v>62280</v>
@@ -4104,7 +4126,7 @@
         <v>10550</v>
       </c>
       <c r="K76" t="n">
-        <v>1.96078431372549</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>62225</v>
@@ -4155,7 +4177,7 @@
         <v>10850</v>
       </c>
       <c r="K77" t="n">
-        <v>10.71428571428571</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L77" t="n">
         <v>62200</v>
@@ -4206,7 +4228,7 @@
         <v>10950</v>
       </c>
       <c r="K78" t="n">
-        <v>3.846153846153846</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L78" t="n">
         <v>62185</v>
@@ -4257,7 +4279,7 @@
         <v>11100</v>
       </c>
       <c r="K79" t="n">
-        <v>17.64705882352941</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
         <v>62190</v>
@@ -4308,7 +4330,7 @@
         <v>11150</v>
       </c>
       <c r="K80" t="n">
-        <v>29.16666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L80" t="n">
         <v>62200</v>
@@ -4359,7 +4381,7 @@
         <v>11450</v>
       </c>
       <c r="K81" t="n">
-        <v>29.16666666666667</v>
+        <v>25</v>
       </c>
       <c r="L81" t="n">
         <v>62240</v>
@@ -4410,7 +4432,7 @@
         <v>11500</v>
       </c>
       <c r="K82" t="n">
-        <v>42.22222222222222</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L82" t="n">
         <v>62285</v>
@@ -4461,7 +4483,7 @@
         <v>11700</v>
       </c>
       <c r="K83" t="n">
-        <v>20.93023255813954</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L83" t="n">
         <v>62310</v>
@@ -4512,7 +4534,7 @@
         <v>12150</v>
       </c>
       <c r="K84" t="n">
-        <v>34.61538461538461</v>
+        <v>69.6969696969697</v>
       </c>
       <c r="L84" t="n">
         <v>62370</v>
@@ -4563,7 +4585,7 @@
         <v>12150</v>
       </c>
       <c r="K85" t="n">
-        <v>30.61224489795918</v>
+        <v>75</v>
       </c>
       <c r="L85" t="n">
         <v>62485</v>
@@ -4614,7 +4636,7 @@
         <v>12550</v>
       </c>
       <c r="K86" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L86" t="n">
         <v>62565</v>
@@ -4665,7 +4687,7 @@
         <v>12850</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.639344262295082</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L87" t="n">
         <v>62585</v>
@@ -4716,7 +4738,7 @@
         <v>12950</v>
       </c>
       <c r="K88" t="n">
-        <v>1.587301587301587</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L88" t="n">
         <v>62605</v>
@@ -4767,7 +4789,7 @@
         <v>12950</v>
       </c>
       <c r="K89" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>62610</v>
@@ -4818,7 +4840,7 @@
         <v>13100</v>
       </c>
       <c r="K90" t="n">
-        <v>7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L90" t="n">
         <v>62625</v>
@@ -4869,7 +4891,7 @@
         <v>13150</v>
       </c>
       <c r="K91" t="n">
-        <v>6.060606060606061</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L91" t="n">
         <v>62605</v>
@@ -4920,7 +4942,7 @@
         <v>13200</v>
       </c>
       <c r="K92" t="n">
-        <v>4.477611940298507</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L92" t="n">
         <v>62575</v>
@@ -4971,7 +4993,7 @@
         <v>13800</v>
       </c>
       <c r="K93" t="n">
-        <v>18.9873417721519</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L93" t="n">
         <v>62625</v>
@@ -5022,7 +5044,7 @@
         <v>14400</v>
       </c>
       <c r="K94" t="n">
-        <v>1.123595505617978</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L94" t="n">
         <v>62570</v>
@@ -5073,7 +5095,7 @@
         <v>14900</v>
       </c>
       <c r="K95" t="n">
-        <v>25</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L95" t="n">
         <v>62565</v>
@@ -5124,7 +5146,7 @@
         <v>15400</v>
       </c>
       <c r="K96" t="n">
-        <v>13.4020618556701</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L96" t="n">
         <v>62550</v>
@@ -5175,7 +5197,7 @@
         <v>15450</v>
       </c>
       <c r="K97" t="n">
-        <v>6.521739130434782</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>62560</v>
@@ -5226,7 +5248,7 @@
         <v>15600</v>
       </c>
       <c r="K98" t="n">
-        <v>7.526881720430108</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L98" t="n">
         <v>62575</v>
@@ -5277,7 +5299,7 @@
         <v>15700</v>
       </c>
       <c r="K99" t="n">
-        <v>2.173913043478261</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L99" t="n">
         <v>62580</v>
@@ -5328,7 +5350,7 @@
         <v>15700</v>
       </c>
       <c r="K100" t="n">
-        <v>1.098901098901099</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L100" t="n">
         <v>62570</v>
@@ -5379,7 +5401,7 @@
         <v>15700</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>62565</v>
@@ -5430,7 +5452,7 @@
         <v>15700</v>
       </c>
       <c r="K102" t="n">
-        <v>-7.142857142857142</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L102" t="n">
         <v>62565</v>
@@ -5481,7 +5503,7 @@
         <v>16200</v>
       </c>
       <c r="K103" t="n">
-        <v>8.888888888888889</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L103" t="n">
         <v>62555</v>
@@ -5532,7 +5554,7 @@
         <v>16200</v>
       </c>
       <c r="K104" t="n">
-        <v>-1.234567901234568</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>62605</v>
@@ -5583,7 +5605,7 @@
         <v>16200</v>
       </c>
       <c r="K105" t="n">
-        <v>-1.234567901234568</v>
+        <v>62.5</v>
       </c>
       <c r="L105" t="n">
         <v>62605</v>
@@ -5634,7 +5656,7 @@
         <v>16200</v>
       </c>
       <c r="K106" t="n">
-        <v>9.58904109589041</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>62655</v>
@@ -5685,7 +5707,7 @@
         <v>16200</v>
       </c>
       <c r="K107" t="n">
-        <v>19.40298507462687</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>62710</v>
@@ -5736,7 +5758,7 @@
         <v>16200</v>
       </c>
       <c r="K108" t="n">
-        <v>16.92307692307692</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
         <v>62750</v>
@@ -5787,7 +5809,7 @@
         <v>16200</v>
       </c>
       <c r="K109" t="n">
-        <v>16.92307692307692</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
         <v>62800</v>
@@ -5838,7 +5860,7 @@
         <v>16850</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.666666666666667</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L110" t="n">
         <v>62785</v>
@@ -5889,7 +5911,7 @@
         <v>16850</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.405405405405405</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L111" t="n">
         <v>62770</v>
@@ -5940,7 +5962,7 @@
         <v>16850</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.10958904109589</v>
+        <v>-100</v>
       </c>
       <c r="L112" t="n">
         <v>62755</v>
@@ -5991,7 +6013,7 @@
         <v>16850</v>
       </c>
       <c r="K113" t="n">
-        <v>-24.59016393442623</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>62690</v>
@@ -6042,7 +6064,7 @@
         <v>16850</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.122448979591836</v>
+        <v>-100</v>
       </c>
       <c r="L114" t="n">
         <v>62625</v>
@@ -6093,7 +6115,7 @@
         <v>17050</v>
       </c>
       <c r="K115" t="n">
-        <v>-20.93023255813954</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L115" t="n">
         <v>62580</v>
@@ -6144,7 +6166,7 @@
         <v>17050</v>
       </c>
       <c r="K116" t="n">
-        <v>3.03030303030303</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L116" t="n">
         <v>62535</v>
@@ -6195,7 +6217,7 @@
         <v>17150</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L117" t="n">
         <v>62480</v>
@@ -6246,7 +6268,7 @@
         <v>17150</v>
       </c>
       <c r="K118" t="n">
-        <v>-9.67741935483871</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L118" t="n">
         <v>62425</v>
@@ -6297,7 +6319,7 @@
         <v>17150</v>
       </c>
       <c r="K119" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>62370</v>
@@ -6348,7 +6370,7 @@
         <v>17150</v>
       </c>
       <c r="K120" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>62380</v>
@@ -6399,7 +6421,7 @@
         <v>17150</v>
       </c>
       <c r="K121" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>62390</v>
@@ -6450,7 +6472,7 @@
         <v>17150</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.448275862068965</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>62400</v>
@@ -6501,7 +6523,7 @@
         <v>17250</v>
       </c>
       <c r="K123" t="n">
-        <v>-61.90476190476191</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>62400</v>
@@ -6552,7 +6574,7 @@
         <v>17350</v>
       </c>
       <c r="K124" t="n">
-        <v>-65.21739130434783</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>62390</v>
@@ -6603,7 +6625,7 @@
         <v>17350</v>
       </c>
       <c r="K125" t="n">
-        <v>-65.21739130434783</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>62360</v>
@@ -6654,7 +6676,7 @@
         <v>17400</v>
       </c>
       <c r="K126" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>62325</v>
@@ -6705,7 +6727,7 @@
         <v>17750</v>
       </c>
       <c r="K127" t="n">
-        <v>-74.19354838709677</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>62265</v>
@@ -6756,7 +6778,7 @@
         <v>17950</v>
       </c>
       <c r="K128" t="n">
-        <v>-54.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>62225</v>
@@ -6807,7 +6829,7 @@
         <v>17950</v>
       </c>
       <c r="K129" t="n">
-        <v>-54.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>62185</v>
@@ -6858,7 +6880,7 @@
         <v>17950</v>
       </c>
       <c r="K130" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L130" t="n">
         <v>62145</v>
@@ -6909,7 +6931,7 @@
         <v>18000</v>
       </c>
       <c r="K131" t="n">
-        <v>-30.43478260869566</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L131" t="n">
         <v>62100</v>
@@ -6960,7 +6982,7 @@
         <v>18250</v>
       </c>
       <c r="K132" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L132" t="n">
         <v>62030</v>
@@ -7011,7 +7033,7 @@
         <v>18300</v>
       </c>
       <c r="K133" t="n">
-        <v>-44.82758620689656</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L133" t="n">
         <v>61965</v>
@@ -7062,7 +7084,7 @@
         <v>18350</v>
       </c>
       <c r="K134" t="n">
-        <v>-46.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L134" t="n">
         <v>61905</v>
@@ -7113,7 +7135,7 @@
         <v>18400</v>
       </c>
       <c r="K135" t="n">
-        <v>-62.96296296296296</v>
+        <v>-50</v>
       </c>
       <c r="L135" t="n">
         <v>61850</v>
@@ -7164,7 +7186,7 @@
         <v>18450</v>
       </c>
       <c r="K136" t="n">
-        <v>-57.14285714285714</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>61805</v>
@@ -7215,7 +7237,7 @@
         <v>18450</v>
       </c>
       <c r="K137" t="n">
-        <v>-53.84615384615385</v>
+        <v>-60</v>
       </c>
       <c r="L137" t="n">
         <v>61795</v>
@@ -7266,7 +7288,7 @@
         <v>18700</v>
       </c>
       <c r="K138" t="n">
-        <v>-29.03225806451613</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L138" t="n">
         <v>61790</v>
@@ -7317,7 +7339,7 @@
         <v>18750</v>
       </c>
       <c r="K139" t="n">
-        <v>-31.25</v>
+        <v>-12.5</v>
       </c>
       <c r="L139" t="n">
         <v>61780</v>
@@ -7368,7 +7390,7 @@
         <v>18800</v>
       </c>
       <c r="K140" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>61775</v>
@@ -7419,7 +7441,7 @@
         <v>19000</v>
       </c>
       <c r="K141" t="n">
-        <v>-13.51351351351351</v>
+        <v>60</v>
       </c>
       <c r="L141" t="n">
         <v>61795</v>
@@ -7470,7 +7492,7 @@
         <v>19050</v>
       </c>
       <c r="K142" t="n">
-        <v>-10.52631578947368</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>61845</v>
@@ -7521,7 +7543,7 @@
         <v>19050</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.555555555555555</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L143" t="n">
         <v>61900</v>
@@ -7572,7 +7594,7 @@
         <v>19050</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L144" t="n">
         <v>61960</v>
@@ -7623,7 +7645,7 @@
         <v>19300</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.82051282051282</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L145" t="n">
         <v>61990</v>
@@ -7674,7 +7696,7 @@
         <v>19750</v>
       </c>
       <c r="K146" t="n">
-        <v>10.63829787234043</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L146" t="n">
         <v>62060</v>
@@ -7725,7 +7747,7 @@
         <v>19850</v>
       </c>
       <c r="K147" t="n">
-        <v>33.33333333333333</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L147" t="n">
         <v>62140</v>
@@ -7776,7 +7798,7 @@
         <v>20150</v>
       </c>
       <c r="K148" t="n">
-        <v>36.36363636363637</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L148" t="n">
         <v>62225</v>
@@ -7827,7 +7849,7 @@
         <v>20200</v>
       </c>
       <c r="K149" t="n">
-        <v>37.77777777777778</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L149" t="n">
         <v>62320</v>
@@ -7878,7 +7900,7 @@
         <v>20300</v>
       </c>
       <c r="K150" t="n">
-        <v>40.42553191489361</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L150" t="n">
         <v>62420</v>
@@ -7929,7 +7951,7 @@
         <v>20300</v>
       </c>
       <c r="K151" t="n">
-        <v>43.47826086956522</v>
+        <v>60</v>
       </c>
       <c r="L151" t="n">
         <v>62500</v>
@@ -7980,7 +8002,7 @@
         <v>20450</v>
       </c>
       <c r="K152" t="n">
-        <v>63.63636363636363</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L152" t="n">
         <v>62590</v>
@@ -8031,7 +8053,7 @@
         <v>20650</v>
       </c>
       <c r="K153" t="n">
-        <v>70.21276595744681</v>
+        <v>68.75</v>
       </c>
       <c r="L153" t="n">
         <v>62700</v>
@@ -8082,7 +8104,7 @@
         <v>20650</v>
       </c>
       <c r="K154" t="n">
-        <v>73.91304347826086</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>62810</v>
@@ -8133,7 +8155,7 @@
         <v>20750</v>
       </c>
       <c r="K155" t="n">
-        <v>74.46808510638297</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>62955</v>
@@ -8184,7 +8206,7 @@
         <v>20750</v>
       </c>
       <c r="K156" t="n">
-        <v>73.91304347826086</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>63055</v>
@@ -8235,7 +8257,7 @@
         <v>20750</v>
       </c>
       <c r="K157" t="n">
-        <v>73.91304347826086</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>63145</v>
@@ -8286,7 +8308,7 @@
         <v>20750</v>
       </c>
       <c r="K158" t="n">
-        <v>70.73170731707317</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>63205</v>
@@ -8337,7 +8359,7 @@
         <v>20850</v>
       </c>
       <c r="K159" t="n">
-        <v>66.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L159" t="n">
         <v>63250</v>
@@ -8388,7 +8410,7 @@
         <v>20850</v>
       </c>
       <c r="K160" t="n">
-        <v>65.85365853658537</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L160" t="n">
         <v>63285</v>
@@ -8439,7 +8461,7 @@
         <v>20850</v>
       </c>
       <c r="K161" t="n">
-        <v>62.16216216216216</v>
+        <v>50</v>
       </c>
       <c r="L161" t="n">
         <v>63320</v>
@@ -8490,7 +8512,7 @@
         <v>20850</v>
       </c>
       <c r="K162" t="n">
-        <v>61.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>63340</v>
@@ -8541,7 +8563,7 @@
         <v>20850</v>
       </c>
       <c r="K163" t="n">
-        <v>61.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>63340</v>
@@ -8592,7 +8614,7 @@
         <v>21000</v>
       </c>
       <c r="K164" t="n">
-        <v>64.1025641025641</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>63355</v>
@@ -8643,7 +8665,7 @@
         <v>21050</v>
       </c>
       <c r="K165" t="n">
-        <v>82.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>63355</v>
@@ -8694,7 +8716,7 @@
         <v>21150</v>
       </c>
       <c r="K166" t="n">
-        <v>64.28571428571429</v>
+        <v>-25</v>
       </c>
       <c r="L166" t="n">
         <v>63345</v>
@@ -8745,7 +8767,7 @@
         <v>21150</v>
       </c>
       <c r="K167" t="n">
-        <v>61.53846153846154</v>
+        <v>-25</v>
       </c>
       <c r="L167" t="n">
         <v>63335</v>
@@ -8796,7 +8818,7 @@
         <v>21250</v>
       </c>
       <c r="K168" t="n">
-        <v>54.54545454545454</v>
+        <v>25</v>
       </c>
       <c r="L168" t="n">
         <v>63335</v>
@@ -8847,7 +8869,7 @@
         <v>21250</v>
       </c>
       <c r="K169" t="n">
-        <v>52.38095238095239</v>
+        <v>25</v>
       </c>
       <c r="L169" t="n">
         <v>63345</v>
@@ -8898,7 +8920,7 @@
         <v>21250</v>
       </c>
       <c r="K170" t="n">
-        <v>47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L170" t="n">
         <v>63355</v>
@@ -8949,7 +8971,7 @@
         <v>21350</v>
       </c>
       <c r="K171" t="n">
-        <v>52.38095238095239</v>
+        <v>40</v>
       </c>
       <c r="L171" t="n">
         <v>63375</v>
@@ -9000,7 +9022,7 @@
         <v>21400</v>
       </c>
       <c r="K172" t="n">
-        <v>36.84210526315789</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L172" t="n">
         <v>63390</v>
@@ -9051,7 +9073,7 @@
         <v>21800</v>
       </c>
       <c r="K173" t="n">
-        <v>-21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L173" t="n">
         <v>63365</v>
@@ -9102,7 +9124,7 @@
         <v>21950</v>
       </c>
       <c r="K174" t="n">
-        <v>-30.76923076923077</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L174" t="n">
         <v>63310</v>
@@ -9153,7 +9175,7 @@
         <v>22050</v>
       </c>
       <c r="K175" t="n">
-        <v>-30.76923076923077</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>63270</v>
@@ -9204,7 +9226,7 @@
         <v>22700</v>
       </c>
       <c r="K176" t="n">
-        <v>-53.84615384615385</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L176" t="n">
         <v>63175</v>
@@ -9255,7 +9277,7 @@
         <v>22950</v>
       </c>
       <c r="K177" t="n">
-        <v>-36.36363636363637</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L177" t="n">
         <v>63105</v>
@@ -9306,7 +9328,7 @@
         <v>23000</v>
       </c>
       <c r="K178" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L178" t="n">
         <v>63030</v>
@@ -9357,7 +9379,7 @@
         <v>23450</v>
       </c>
       <c r="K179" t="n">
-        <v>-42.30769230769231</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L179" t="n">
         <v>62910</v>
@@ -9408,7 +9430,7 @@
         <v>23650</v>
       </c>
       <c r="K180" t="n">
-        <v>-46.42857142857143</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L180" t="n">
         <v>62770</v>
@@ -9459,7 +9481,7 @@
         <v>23650</v>
       </c>
       <c r="K181" t="n">
-        <v>-46.42857142857143</v>
+        <v>-64.44444444444444</v>
       </c>
       <c r="L181" t="n">
         <v>62620</v>
@@ -9510,7 +9532,7 @@
         <v>23700</v>
       </c>
       <c r="K182" t="n">
-        <v>-47.36842105263158</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L182" t="n">
         <v>62470</v>
@@ -9561,7 +9583,7 @@
         <v>23950</v>
       </c>
       <c r="K183" t="n">
-        <v>-51.61290322580645</v>
+        <v>-60</v>
       </c>
       <c r="L183" t="n">
         <v>62335</v>
@@ -9612,7 +9634,7 @@
         <v>24050</v>
       </c>
       <c r="K184" t="n">
-        <v>-54.09836065573771</v>
+        <v>-60</v>
       </c>
       <c r="L184" t="n">
         <v>62225</v>
@@ -9663,7 +9685,7 @@
         <v>24250</v>
       </c>
       <c r="K185" t="n">
-        <v>-56.25</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L185" t="n">
         <v>62085</v>
@@ -9714,7 +9736,7 @@
         <v>24500</v>
       </c>
       <c r="K186" t="n">
-        <v>-58.2089552238806</v>
+        <v>-80.64516129032258</v>
       </c>
       <c r="L186" t="n">
         <v>61985</v>
@@ -9765,7 +9787,7 @@
         <v>24650</v>
       </c>
       <c r="K187" t="n">
-        <v>-60</v>
+        <v>-87.87878787878788</v>
       </c>
       <c r="L187" t="n">
         <v>61845</v>
@@ -9816,7 +9838,7 @@
         <v>24700</v>
       </c>
       <c r="K188" t="n">
-        <v>-65.21739130434783</v>
+        <v>-84</v>
       </c>
       <c r="L188" t="n">
         <v>61695</v>
@@ -9867,7 +9889,7 @@
         <v>24800</v>
       </c>
       <c r="K189" t="n">
-        <v>-60.56338028169014</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L189" t="n">
         <v>61600</v>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S189"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>60640</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60650</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>60644.16666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>60648.33333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,23 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K5" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +619,23 @@
         <v>60655</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>60700</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +662,23 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>60500</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +705,23 @@
         <v>60651.66666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>60500</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +748,23 @@
         <v>60650.83333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>60600</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +791,23 @@
         <v>60650.83333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>60550</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +837,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J11" t="n">
-        <v>500</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>60555</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +875,23 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>650</v>
+        <v>60400</v>
       </c>
       <c r="K12" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L12" t="n">
-        <v>60530</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +918,23 @@
         <v>60651.66666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>750</v>
+        <v>60500</v>
       </c>
       <c r="K13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L13" t="n">
-        <v>60515</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +961,23 @@
         <v>60654.16666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1150</v>
+        <v>60900</v>
       </c>
       <c r="K14" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L14" t="n">
-        <v>60540</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +1004,23 @@
         <v>60660</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1300</v>
+        <v>61050</v>
       </c>
       <c r="K15" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="L15" t="n">
-        <v>60575</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1047,23 @@
         <v>60665.83333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1300</v>
+        <v>61050</v>
       </c>
       <c r="K16" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="L16" t="n">
-        <v>60630</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1090,23 @@
         <v>60672.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1350</v>
+        <v>61100</v>
       </c>
       <c r="K17" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L17" t="n">
-        <v>60690</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1133,23 @@
         <v>60683.33333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1600</v>
+        <v>60600</v>
       </c>
       <c r="K18" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L18" t="n">
-        <v>60775</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1179,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>82.35294117647058</v>
-      </c>
-      <c r="L19" t="n">
-        <v>60910</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1220,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="L20" t="n">
-        <v>61035</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1261,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1250</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L21" t="n">
-        <v>61170</v>
+        <v>60650</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>60862.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1302,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>82.85714285714286</v>
-      </c>
-      <c r="L22" t="n">
-        <v>61325</v>
+        <v>60650</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>60927.5</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1343,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1250</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L23" t="n">
-        <v>61465</v>
+        <v>60650</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>60990</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1384,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>70.37037037037037</v>
-      </c>
-      <c r="L24" t="n">
-        <v>61575</v>
+        <v>60650</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>61057.5</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1425,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>72.41379310344827</v>
-      </c>
-      <c r="L25" t="n">
-        <v>61680</v>
+        <v>60650</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>61127.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1466,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L26" t="n">
-        <v>61825</v>
+        <v>60650</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>61227.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1507,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>74.19354838709677</v>
-      </c>
-      <c r="L27" t="n">
-        <v>61965</v>
+        <v>60650</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>61327.5</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1548,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>50</v>
-      </c>
-      <c r="L28" t="n">
-        <v>62070</v>
+        <v>60650</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>61422.5</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1589,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>56.52173913043478</v>
-      </c>
-      <c r="L29" t="n">
-        <v>62120</v>
+        <v>60650</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>61515</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1630,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L30" t="n">
-        <v>62185</v>
+        <v>60650</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>61610</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1671,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>62220</v>
+        <v>60650</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>61695</v>
-      </c>
-      <c r="N31" t="n">
-        <v>61315</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1712,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L32" t="n">
-        <v>62275</v>
+        <v>60650</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>61800</v>
-      </c>
-      <c r="N32" t="n">
-        <v>61376.66666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1753,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L33" t="n">
-        <v>62330</v>
+        <v>60650</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>61897.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>61436.66666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1794,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L34" t="n">
-        <v>62375</v>
+        <v>60650</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>61975</v>
-      </c>
-      <c r="N34" t="n">
-        <v>61496.66666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1835,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L35" t="n">
-        <v>62405</v>
+        <v>60650</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>62042.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>61553.33333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1876,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L36" t="n">
-        <v>62395</v>
+        <v>60650</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>62110</v>
-      </c>
-      <c r="N36" t="n">
-        <v>61616.66666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1917,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>62385</v>
+        <v>60650</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>62175</v>
-      </c>
-      <c r="N37" t="n">
-        <v>61680</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1958,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>62345</v>
+        <v>60650</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>62207.5</v>
-      </c>
-      <c r="N38" t="n">
-        <v>61730</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1999,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L39" t="n">
-        <v>62335</v>
+        <v>60650</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>62227.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>61788.33333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2040,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L40" t="n">
-        <v>62335</v>
+        <v>60650</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>62260</v>
-      </c>
-      <c r="N40" t="n">
-        <v>61851.66666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2081,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L41" t="n">
-        <v>62340</v>
+        <v>60650</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>62280</v>
-      </c>
-      <c r="N41" t="n">
-        <v>61910</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2122,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L42" t="n">
-        <v>62320</v>
+        <v>60650</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>62297.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>61973.33333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2163,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L43" t="n">
-        <v>62305</v>
+        <v>60650</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>62317.5</v>
-      </c>
-      <c r="N43" t="n">
-        <v>62033.33333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2204,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>62290</v>
+        <v>60650</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>62332.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>62080</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2245,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L45" t="n">
-        <v>62320</v>
+        <v>60650</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>62362.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>62135</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2286,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L46" t="n">
-        <v>62350</v>
+        <v>60650</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>62372.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>62190</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2327,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2150</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>62390</v>
+        <v>60650</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>62387.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>62246.66666666666</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2368,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>62425</v>
+        <v>60650</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>62385</v>
-      </c>
-      <c r="N48" t="n">
-        <v>62280</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2409,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L49" t="n">
-        <v>62475</v>
+        <v>60650</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>62405</v>
-      </c>
-      <c r="N49" t="n">
-        <v>62310</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,29 +2450,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L50" t="n">
-        <v>62485</v>
+        <v>60650</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>62410</v>
-      </c>
-      <c r="N50" t="n">
-        <v>62335</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
+        <v>1.023854080791426</v>
       </c>
     </row>
     <row r="51">
@@ -2845,28 +2491,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L51" t="n">
-        <v>62490</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>62415</v>
-      </c>
-      <c r="N51" t="n">
-        <v>62350</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2526,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L52" t="n">
-        <v>62495</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>62407.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>62363.33333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2561,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>800</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>62410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>62357.5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>62348.33333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2596,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7650</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-21.42857142857143</v>
-      </c>
-      <c r="L54" t="n">
-        <v>62390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>62340</v>
-      </c>
-      <c r="N54" t="n">
-        <v>62351.66666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2631,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J55" t="n">
-        <v>7750</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L55" t="n">
-        <v>62320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>62320</v>
-      </c>
-      <c r="N55" t="n">
-        <v>62348.33333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2666,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1100</v>
-      </c>
-      <c r="J56" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-34.42622950819672</v>
-      </c>
-      <c r="L56" t="n">
-        <v>62225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>62287.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>62323.33333333334</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2701,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J57" t="n">
-        <v>8050</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-20.75471698113208</v>
-      </c>
-      <c r="L57" t="n">
-        <v>62125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>62257.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>62300</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2736,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J58" t="n">
-        <v>8350</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L58" t="n">
-        <v>62100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>62262.5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>62290</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2771,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1250</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8550</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L59" t="n">
-        <v>62020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>62247.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>62276.66666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2806,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8750</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-24.52830188679245</v>
-      </c>
-      <c r="L60" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>62217.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>62256.66666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2841,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9050</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-11.86440677966102</v>
-      </c>
-      <c r="L61" t="n">
-        <v>61915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>62202.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>62248.33333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2876,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9250</v>
-      </c>
-      <c r="K62" t="n">
-        <v>15.55555555555556</v>
-      </c>
-      <c r="L62" t="n">
-        <v>61860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>62177.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>62225</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2911,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>61925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>62167.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>62213.33333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2946,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L64" t="n">
-        <v>61925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>62157.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>62201.66666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2981,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J65" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K65" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L65" t="n">
-        <v>61950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>62135</v>
-      </c>
-      <c r="N65" t="n">
-        <v>62196.66666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3016,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K66" t="n">
-        <v>31.42857142857143</v>
-      </c>
-      <c r="L66" t="n">
-        <v>62010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>62117.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>62195</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3051,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J67" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K67" t="n">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="L67" t="n">
-        <v>62065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>62095</v>
-      </c>
-      <c r="N67" t="n">
-        <v>62193.33333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3086,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9800</v>
-      </c>
-      <c r="K68" t="n">
-        <v>36</v>
-      </c>
-      <c r="L68" t="n">
-        <v>62090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>62095</v>
-      </c>
-      <c r="N68" t="n">
-        <v>62205</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3121,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J69" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K69" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L69" t="n">
-        <v>62130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>62075</v>
-      </c>
-      <c r="N69" t="n">
-        <v>62208.33333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3156,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K70" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>62190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>62070</v>
-      </c>
-      <c r="N70" t="n">
-        <v>62208.33333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3191,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K71" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L71" t="n">
-        <v>62220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>62067.5</v>
-      </c>
-      <c r="N71" t="n">
-        <v>62208.33333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3226,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K72" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L72" t="n">
-        <v>62270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>62065</v>
-      </c>
-      <c r="N72" t="n">
-        <v>62208.33333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3261,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9850</v>
-      </c>
-      <c r="K73" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L73" t="n">
-        <v>62290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>62107.5</v>
-      </c>
-      <c r="N73" t="n">
-        <v>62208.33333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3296,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J74" t="n">
-        <v>9950</v>
-      </c>
-      <c r="K74" t="n">
-        <v>60</v>
-      </c>
-      <c r="L74" t="n">
-        <v>62320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>62122.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>62211.66666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3331,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J75" t="n">
-        <v>10500</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L75" t="n">
-        <v>62280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>62115</v>
-      </c>
-      <c r="N75" t="n">
-        <v>62183.33333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3366,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J76" t="n">
-        <v>10550</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-73.33333333333333</v>
-      </c>
-      <c r="L76" t="n">
-        <v>62225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>62117.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>62153.33333333334</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3401,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J77" t="n">
-        <v>10850</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L77" t="n">
-        <v>62200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>62132.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>62130</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3436,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J78" t="n">
-        <v>10950</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L78" t="n">
-        <v>62185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>62137.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>62125</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3471,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11100</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" t="n">
-        <v>62190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>62160</v>
-      </c>
-      <c r="N79" t="n">
-        <v>62113.33333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3506,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11150</v>
-      </c>
-      <c r="K80" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L80" t="n">
-        <v>62200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>62195</v>
-      </c>
-      <c r="N80" t="n">
-        <v>62113.33333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3541,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11450</v>
-      </c>
-      <c r="K81" t="n">
-        <v>25</v>
-      </c>
-      <c r="L81" t="n">
-        <v>62240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>62230</v>
-      </c>
-      <c r="N81" t="n">
-        <v>62125</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3576,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2100</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11500</v>
-      </c>
-      <c r="K82" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L82" t="n">
-        <v>62285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>62277.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>62138.33333333334</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3611,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11700</v>
-      </c>
-      <c r="K83" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L83" t="n">
-        <v>62310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>62300</v>
-      </c>
-      <c r="N83" t="n">
-        <v>62175</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3646,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>2350</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12150</v>
-      </c>
-      <c r="K84" t="n">
-        <v>69.6969696969697</v>
-      </c>
-      <c r="L84" t="n">
-        <v>62370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>62345</v>
-      </c>
-      <c r="N84" t="n">
-        <v>62205</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3681,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2350</v>
-      </c>
-      <c r="J85" t="n">
-        <v>12150</v>
-      </c>
-      <c r="K85" t="n">
-        <v>75</v>
-      </c>
-      <c r="L85" t="n">
-        <v>62485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>62382.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>62238.33333333334</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3716,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1950</v>
-      </c>
-      <c r="J86" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K86" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L86" t="n">
-        <v>62565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>62395</v>
-      </c>
-      <c r="N86" t="n">
-        <v>62266.66666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3751,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12850</v>
-      </c>
-      <c r="K87" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L87" t="n">
-        <v>62585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>62392.5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>62283.33333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3786,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J88" t="n">
-        <v>12950</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L88" t="n">
-        <v>62605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>62395</v>
-      </c>
-      <c r="N88" t="n">
-        <v>62293.33333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3821,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12950</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>62610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>62400</v>
-      </c>
-      <c r="N89" t="n">
-        <v>62310</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3856,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J90" t="n">
-        <v>13100</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L90" t="n">
-        <v>62625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>62412.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>62338.33333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3891,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J91" t="n">
-        <v>13150</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-15.15151515151515</v>
-      </c>
-      <c r="L91" t="n">
-        <v>62605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>62422.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>62355</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3926,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J92" t="n">
-        <v>13200</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L92" t="n">
-        <v>62575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>62430</v>
-      </c>
-      <c r="N92" t="n">
-        <v>62376.66666666666</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3961,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>2400</v>
-      </c>
-      <c r="J93" t="n">
-        <v>13800</v>
-      </c>
-      <c r="K93" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L93" t="n">
-        <v>62625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>62467.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>62408.33333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3996,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J94" t="n">
-        <v>14400</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-24.44444444444444</v>
-      </c>
-      <c r="L94" t="n">
-        <v>62570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>62470</v>
-      </c>
-      <c r="N94" t="n">
-        <v>62420</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4031,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J95" t="n">
-        <v>14900</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.8936170212766</v>
-      </c>
-      <c r="L95" t="n">
-        <v>62565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>62525</v>
-      </c>
-      <c r="N95" t="n">
-        <v>62443.33333333334</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4066,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J96" t="n">
-        <v>15400</v>
-      </c>
-      <c r="K96" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L96" t="n">
-        <v>62550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>62557.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>62446.66666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4101,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J97" t="n">
-        <v>15450</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>62560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>62572.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>62448.33333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4136,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15600</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5.660377358490567</v>
-      </c>
-      <c r="L98" t="n">
-        <v>62575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>62590</v>
-      </c>
-      <c r="N98" t="n">
-        <v>62455</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4171,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J99" t="n">
-        <v>15700</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-3.846153846153846</v>
-      </c>
-      <c r="L99" t="n">
-        <v>62580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>62595</v>
-      </c>
-      <c r="N99" t="n">
-        <v>62460</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4206,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J100" t="n">
-        <v>15700</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-1.96078431372549</v>
-      </c>
-      <c r="L100" t="n">
-        <v>62570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>62597.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>62465</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4241,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J101" t="n">
-        <v>15700</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>62565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>62585</v>
-      </c>
-      <c r="N101" t="n">
-        <v>62470</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4276,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J102" t="n">
-        <v>15700</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-31.57894736842105</v>
-      </c>
-      <c r="L102" t="n">
-        <v>62565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>62570</v>
-      </c>
-      <c r="N102" t="n">
-        <v>62475</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4311,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J103" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K103" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="L103" t="n">
-        <v>62555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>62590</v>
-      </c>
-      <c r="N103" t="n">
-        <v>62496.66666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4346,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J104" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>62605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>62587.5</v>
-      </c>
-      <c r="N104" t="n">
-        <v>62515</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4381,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J105" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K105" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L105" t="n">
-        <v>62605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>62585</v>
-      </c>
-      <c r="N105" t="n">
-        <v>62551.66666666666</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4416,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J106" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K106" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L106" t="n">
-        <v>62655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>62602.5</v>
-      </c>
-      <c r="N106" t="n">
-        <v>62590</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4451,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J107" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K107" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L107" t="n">
-        <v>62710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>62635</v>
-      </c>
-      <c r="N107" t="n">
-        <v>62618.33333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4486,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J108" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K108" t="n">
-        <v>100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>62662.5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>62643.33333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4521,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J109" t="n">
-        <v>16200</v>
-      </c>
-      <c r="K109" t="n">
-        <v>100</v>
-      </c>
-      <c r="L109" t="n">
-        <v>62800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>62690</v>
-      </c>
-      <c r="N109" t="n">
-        <v>62663.33333333334</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4556,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J110" t="n">
-        <v>16850</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L110" t="n">
-        <v>62785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>62677.5</v>
-      </c>
-      <c r="N110" t="n">
-        <v>62660</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4591,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J111" t="n">
-        <v>16850</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L111" t="n">
-        <v>62770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>62667.5</v>
-      </c>
-      <c r="N111" t="n">
-        <v>62646.66666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4626,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J112" t="n">
-        <v>16850</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L112" t="n">
-        <v>62755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>62660</v>
-      </c>
-      <c r="N112" t="n">
-        <v>62631.66666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4661,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J113" t="n">
-        <v>16850</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>62690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>62622.5</v>
-      </c>
-      <c r="N113" t="n">
-        <v>62623.33333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4696,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J114" t="n">
-        <v>16850</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L114" t="n">
-        <v>62625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>62615</v>
-      </c>
-      <c r="N114" t="n">
-        <v>62600</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4731,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J115" t="n">
-        <v>17050</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L115" t="n">
-        <v>62580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>62592.5</v>
-      </c>
-      <c r="N115" t="n">
-        <v>62583.33333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4766,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J116" t="n">
-        <v>17050</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L116" t="n">
-        <v>62535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>62595</v>
-      </c>
-      <c r="N116" t="n">
-        <v>62580</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4801,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J117" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L117" t="n">
-        <v>62480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>62595</v>
-      </c>
-      <c r="N117" t="n">
-        <v>62583.33333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4836,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J118" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L118" t="n">
-        <v>62425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>62587.5</v>
-      </c>
-      <c r="N118" t="n">
-        <v>62583.33333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4871,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J119" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K119" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>62370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>62585</v>
-      </c>
-      <c r="N119" t="n">
-        <v>62583.33333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4906,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J120" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K120" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L120" t="n">
-        <v>62380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>62582.5</v>
-      </c>
-      <c r="N120" t="n">
-        <v>62578.33333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4941,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J121" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K121" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L121" t="n">
-        <v>62390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>62580</v>
-      </c>
-      <c r="N121" t="n">
-        <v>62575</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4976,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J122" t="n">
-        <v>17150</v>
-      </c>
-      <c r="K122" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L122" t="n">
-        <v>62400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>62577.5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>62573.33333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5011,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1650</v>
-      </c>
-      <c r="J123" t="n">
-        <v>17250</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>62400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>62545</v>
-      </c>
-      <c r="N123" t="n">
-        <v>62548.33333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5046,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J124" t="n">
-        <v>17350</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L124" t="n">
-        <v>62390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>62507.5</v>
-      </c>
-      <c r="N124" t="n">
-        <v>62540</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5081,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J125" t="n">
-        <v>17350</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>62360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>62470</v>
-      </c>
-      <c r="N125" t="n">
-        <v>62515</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5116,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J126" t="n">
-        <v>17400</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>62325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>62430</v>
-      </c>
-      <c r="N126" t="n">
-        <v>62505</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5151,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J127" t="n">
-        <v>17750</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L127" t="n">
-        <v>62265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>62372.5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>62485</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5186,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J128" t="n">
-        <v>17950</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L128" t="n">
-        <v>62225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>62325</v>
-      </c>
-      <c r="N128" t="n">
-        <v>62466.66666666666</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5221,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J129" t="n">
-        <v>17950</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L129" t="n">
-        <v>62185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>62277.5</v>
-      </c>
-      <c r="N129" t="n">
-        <v>62451.66666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5256,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J130" t="n">
-        <v>17950</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L130" t="n">
-        <v>62145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>62262.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>62436.66666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5291,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J131" t="n">
-        <v>18000</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L131" t="n">
-        <v>62100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>62245</v>
-      </c>
-      <c r="N131" t="n">
-        <v>62420</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5326,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J132" t="n">
-        <v>18250</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L132" t="n">
-        <v>62030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>62215</v>
-      </c>
-      <c r="N132" t="n">
-        <v>62395</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5361,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J133" t="n">
-        <v>18300</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L133" t="n">
-        <v>61965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>62182.5</v>
-      </c>
-      <c r="N133" t="n">
-        <v>62351.66666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5396,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>950</v>
-      </c>
-      <c r="J134" t="n">
-        <v>18350</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L134" t="n">
-        <v>61905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>62147.5</v>
-      </c>
-      <c r="N134" t="n">
-        <v>62306.66666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5431,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J135" t="n">
-        <v>18400</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L135" t="n">
-        <v>61850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>62105</v>
-      </c>
-      <c r="N135" t="n">
-        <v>62263.33333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5466,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J136" t="n">
-        <v>18450</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L136" t="n">
-        <v>61805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>62065</v>
-      </c>
-      <c r="N136" t="n">
-        <v>62221.66666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5501,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J137" t="n">
-        <v>18450</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L137" t="n">
-        <v>61795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>62030</v>
-      </c>
-      <c r="N137" t="n">
-        <v>62180</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5536,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J138" t="n">
-        <v>18700</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L138" t="n">
-        <v>61790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>62007.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>62146.66666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5571,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1250</v>
-      </c>
-      <c r="J139" t="n">
-        <v>18750</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L139" t="n">
-        <v>61780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>61982.5</v>
-      </c>
-      <c r="N139" t="n">
-        <v>62111.66666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5606,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J140" t="n">
-        <v>18800</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>61775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>61960</v>
-      </c>
-      <c r="N140" t="n">
-        <v>62100</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5641,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J141" t="n">
-        <v>19000</v>
-      </c>
-      <c r="K141" t="n">
-        <v>60</v>
-      </c>
-      <c r="L141" t="n">
-        <v>61795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>61947.5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>62095</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5676,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J142" t="n">
-        <v>19050</v>
-      </c>
-      <c r="K142" t="n">
-        <v>73.33333333333333</v>
-      </c>
-      <c r="L142" t="n">
-        <v>61845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>61937.5</v>
-      </c>
-      <c r="N142" t="n">
-        <v>62091.66666666666</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5711,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J143" t="n">
-        <v>19050</v>
-      </c>
-      <c r="K143" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="L143" t="n">
-        <v>61900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>61932.5</v>
-      </c>
-      <c r="N143" t="n">
-        <v>62088.33333333334</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5746,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J144" t="n">
-        <v>19050</v>
-      </c>
-      <c r="K144" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="L144" t="n">
-        <v>61960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>61932.5</v>
-      </c>
-      <c r="N144" t="n">
-        <v>62085</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5781,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J145" t="n">
-        <v>19300</v>
-      </c>
-      <c r="K145" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L145" t="n">
-        <v>61990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>61920</v>
-      </c>
-      <c r="N145" t="n">
-        <v>62066.66666666666</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5816,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J146" t="n">
-        <v>19750</v>
-      </c>
-      <c r="K146" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L146" t="n">
-        <v>62060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>61932.5</v>
-      </c>
-      <c r="N146" t="n">
-        <v>62063.33333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5851,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1850</v>
-      </c>
-      <c r="J147" t="n">
-        <v>19850</v>
-      </c>
-      <c r="K147" t="n">
-        <v>47.82608695652174</v>
-      </c>
-      <c r="L147" t="n">
-        <v>62140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>61967.5</v>
-      </c>
-      <c r="N147" t="n">
-        <v>62066.66666666666</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5886,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2150</v>
-      </c>
-      <c r="J148" t="n">
-        <v>20150</v>
-      </c>
-      <c r="K148" t="n">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="L148" t="n">
-        <v>62225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>62007.5</v>
-      </c>
-      <c r="N148" t="n">
-        <v>62080</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5921,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2200</v>
-      </c>
-      <c r="J149" t="n">
-        <v>20200</v>
-      </c>
-      <c r="K149" t="n">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="L149" t="n">
-        <v>62320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>62050</v>
-      </c>
-      <c r="N149" t="n">
-        <v>62095</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5956,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J150" t="n">
-        <v>20300</v>
-      </c>
-      <c r="K150" t="n">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="L150" t="n">
-        <v>62420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>62097.5</v>
-      </c>
-      <c r="N150" t="n">
-        <v>62113.33333333334</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5991,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>2300</v>
-      </c>
-      <c r="J151" t="n">
-        <v>20300</v>
-      </c>
-      <c r="K151" t="n">
-        <v>60</v>
-      </c>
-      <c r="L151" t="n">
-        <v>62500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>62147.5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>62131.66666666666</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6026,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J152" t="n">
-        <v>20450</v>
-      </c>
-      <c r="K152" t="n">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="L152" t="n">
-        <v>62590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>62217.5</v>
-      </c>
-      <c r="N152" t="n">
-        <v>62155</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6061,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J153" t="n">
-        <v>20650</v>
-      </c>
-      <c r="K153" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="L153" t="n">
-        <v>62700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>62300</v>
-      </c>
-      <c r="N153" t="n">
-        <v>62188.33333333334</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6096,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J154" t="n">
-        <v>20650</v>
-      </c>
-      <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>62810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>62385</v>
-      </c>
-      <c r="N154" t="n">
-        <v>62225</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6131,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J155" t="n">
-        <v>20750</v>
-      </c>
-      <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>62955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>62472.5</v>
-      </c>
-      <c r="N155" t="n">
-        <v>62265</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6166,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J156" t="n">
-        <v>20750</v>
-      </c>
-      <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>63055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>62557.5</v>
-      </c>
-      <c r="N156" t="n">
-        <v>62306.66666666666</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6201,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J157" t="n">
-        <v>20750</v>
-      </c>
-      <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>63145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>62642.5</v>
-      </c>
-      <c r="N157" t="n">
-        <v>62360</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6236,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J158" t="n">
-        <v>20750</v>
-      </c>
-      <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>63205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>62715</v>
-      </c>
-      <c r="N158" t="n">
-        <v>62406.66666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6271,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J159" t="n">
-        <v>20850</v>
-      </c>
-      <c r="K159" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L159" t="n">
-        <v>63250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>62785</v>
-      </c>
-      <c r="N159" t="n">
-        <v>62450</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6306,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J160" t="n">
-        <v>20850</v>
-      </c>
-      <c r="K160" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L160" t="n">
-        <v>63285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>62852.5</v>
-      </c>
-      <c r="N160" t="n">
-        <v>62493.33333333334</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6341,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J161" t="n">
-        <v>20850</v>
-      </c>
-      <c r="K161" t="n">
-        <v>50</v>
-      </c>
-      <c r="L161" t="n">
-        <v>63320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>62910</v>
-      </c>
-      <c r="N161" t="n">
-        <v>62538.33333333334</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6376,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J162" t="n">
-        <v>20850</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>63340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>62965</v>
-      </c>
-      <c r="N162" t="n">
-        <v>62591.66666666666</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6411,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J163" t="n">
-        <v>20850</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>63340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>63020</v>
-      </c>
-      <c r="N163" t="n">
-        <v>62646.66666666666</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6446,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>2800</v>
-      </c>
-      <c r="J164" t="n">
-        <v>21000</v>
-      </c>
-      <c r="K164" t="n">
-        <v>20</v>
-      </c>
-      <c r="L164" t="n">
-        <v>63355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>63082.5</v>
-      </c>
-      <c r="N164" t="n">
-        <v>62708.33333333334</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6481,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J165" t="n">
-        <v>21050</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>63355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>63155</v>
-      </c>
-      <c r="N165" t="n">
-        <v>62766.66666666666</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6516,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J166" t="n">
-        <v>21150</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L166" t="n">
-        <v>63345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>63200</v>
-      </c>
-      <c r="N166" t="n">
-        <v>62820</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6551,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J167" t="n">
-        <v>21150</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L167" t="n">
-        <v>63335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>63240</v>
-      </c>
-      <c r="N167" t="n">
-        <v>62873.33333333334</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,1099 +6586,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J168" t="n">
-        <v>21250</v>
-      </c>
-      <c r="K168" t="n">
-        <v>25</v>
-      </c>
-      <c r="L168" t="n">
-        <v>63335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>63270</v>
-      </c>
-      <c r="N168" t="n">
-        <v>62921.66666666666</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C169" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D169" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E169" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.1516</v>
-      </c>
-      <c r="G169" t="n">
-        <v>62541.66666666666</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J169" t="n">
-        <v>21250</v>
-      </c>
-      <c r="K169" t="n">
-        <v>25</v>
-      </c>
-      <c r="L169" t="n">
-        <v>63345</v>
-      </c>
-      <c r="M169" t="n">
-        <v>63297.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>62971.66666666666</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C170" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D170" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E170" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.1025</v>
-      </c>
-      <c r="G170" t="n">
-        <v>62560</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2750</v>
-      </c>
-      <c r="J170" t="n">
-        <v>21250</v>
-      </c>
-      <c r="K170" t="n">
-        <v>25</v>
-      </c>
-      <c r="L170" t="n">
-        <v>63355</v>
-      </c>
-      <c r="M170" t="n">
-        <v>63320</v>
-      </c>
-      <c r="N170" t="n">
-        <v>63020</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C171" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D171" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E171" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F171" t="n">
-        <v>100</v>
-      </c>
-      <c r="G171" t="n">
-        <v>62580</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2850</v>
-      </c>
-      <c r="J171" t="n">
-        <v>21350</v>
-      </c>
-      <c r="K171" t="n">
-        <v>40</v>
-      </c>
-      <c r="L171" t="n">
-        <v>63375</v>
-      </c>
-      <c r="M171" t="n">
-        <v>63347.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>63065</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="D172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E172" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F172" t="n">
-        <v>11.212</v>
-      </c>
-      <c r="G172" t="n">
-        <v>62599.16666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2800</v>
-      </c>
-      <c r="J172" t="n">
-        <v>21400</v>
-      </c>
-      <c r="K172" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L172" t="n">
-        <v>63390</v>
-      </c>
-      <c r="M172" t="n">
-        <v>63365</v>
-      </c>
-      <c r="N172" t="n">
-        <v>63106.66666666666</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C173" t="n">
-        <v>63050</v>
-      </c>
-      <c r="D173" t="n">
-        <v>63100</v>
-      </c>
-      <c r="E173" t="n">
-        <v>63050</v>
-      </c>
-      <c r="F173" t="n">
-        <v>89.836</v>
-      </c>
-      <c r="G173" t="n">
-        <v>62611.66666666666</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2400</v>
-      </c>
-      <c r="J173" t="n">
-        <v>21800</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L173" t="n">
-        <v>63365</v>
-      </c>
-      <c r="M173" t="n">
-        <v>63352.5</v>
-      </c>
-      <c r="N173" t="n">
-        <v>63135</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E174" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.1837</v>
-      </c>
-      <c r="G174" t="n">
-        <v>62621.66666666666</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2250</v>
-      </c>
-      <c r="J174" t="n">
-        <v>21950</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L174" t="n">
-        <v>63310</v>
-      </c>
-      <c r="M174" t="n">
-        <v>63332.5</v>
-      </c>
-      <c r="N174" t="n">
-        <v>63158.33333333334</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C175" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E175" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F175" t="n">
-        <v>14.0943</v>
-      </c>
-      <c r="G175" t="n">
-        <v>62630</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2350</v>
-      </c>
-      <c r="J175" t="n">
-        <v>22050</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L175" t="n">
-        <v>63270</v>
-      </c>
-      <c r="M175" t="n">
-        <v>63312.5</v>
-      </c>
-      <c r="N175" t="n">
-        <v>63193.33333333334</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="C176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="D176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="E176" t="n">
-        <v>62350</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2.3363</v>
-      </c>
-      <c r="G176" t="n">
-        <v>62627.5</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J176" t="n">
-        <v>22700</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-61.29032258064516</v>
-      </c>
-      <c r="L176" t="n">
-        <v>63175</v>
-      </c>
-      <c r="M176" t="n">
-        <v>63260</v>
-      </c>
-      <c r="N176" t="n">
-        <v>63191.66666666666</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="D177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="E177" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3.5577</v>
-      </c>
-      <c r="G177" t="n">
-        <v>62630.83333333334</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1950</v>
-      </c>
-      <c r="J177" t="n">
-        <v>22950</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-47.05882352941176</v>
-      </c>
-      <c r="L177" t="n">
-        <v>63105</v>
-      </c>
-      <c r="M177" t="n">
-        <v>63220</v>
-      </c>
-      <c r="N177" t="n">
-        <v>63195</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C178" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D178" t="n">
-        <v>62650</v>
-      </c>
-      <c r="E178" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4.5111</v>
-      </c>
-      <c r="G178" t="n">
-        <v>62635</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J178" t="n">
-        <v>23000</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L178" t="n">
-        <v>63030</v>
-      </c>
-      <c r="M178" t="n">
-        <v>63182.5</v>
-      </c>
-      <c r="N178" t="n">
-        <v>63190</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E179" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G179" t="n">
-        <v>62631.66666666666</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1550</v>
-      </c>
-      <c r="J179" t="n">
-        <v>23450</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L179" t="n">
-        <v>62910</v>
-      </c>
-      <c r="M179" t="n">
-        <v>63127.5</v>
-      </c>
-      <c r="N179" t="n">
-        <v>63168.33333333334</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E180" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F180" t="n">
-        <v>20</v>
-      </c>
-      <c r="G180" t="n">
-        <v>62625</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J180" t="n">
-        <v>23650</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-65.21739130434783</v>
-      </c>
-      <c r="L180" t="n">
-        <v>62770</v>
-      </c>
-      <c r="M180" t="n">
-        <v>63062.5</v>
-      </c>
-      <c r="N180" t="n">
-        <v>63136.66666666666</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E181" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F181" t="n">
-        <v>7.4985</v>
-      </c>
-      <c r="G181" t="n">
-        <v>62618.33333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J181" t="n">
-        <v>23650</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-64.44444444444444</v>
-      </c>
-      <c r="L181" t="n">
-        <v>62620</v>
-      </c>
-      <c r="M181" t="n">
-        <v>62997.5</v>
-      </c>
-      <c r="N181" t="n">
-        <v>63105</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="C182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E182" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>62610.83333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J182" t="n">
-        <v>23700</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L182" t="n">
-        <v>62470</v>
-      </c>
-      <c r="M182" t="n">
-        <v>62930</v>
-      </c>
-      <c r="N182" t="n">
-        <v>63066.66666666666</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>61750</v>
-      </c>
-      <c r="C183" t="n">
-        <v>61700</v>
-      </c>
-      <c r="D183" t="n">
-        <v>61750</v>
-      </c>
-      <c r="E183" t="n">
-        <v>61700</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12.9572</v>
-      </c>
-      <c r="G183" t="n">
-        <v>62600.83333333334</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1050</v>
-      </c>
-      <c r="J183" t="n">
-        <v>23950</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L183" t="n">
-        <v>62335</v>
-      </c>
-      <c r="M183" t="n">
-        <v>62850</v>
-      </c>
-      <c r="N183" t="n">
-        <v>63013.33333333334</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="C184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="D184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="E184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F184" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="G184" t="n">
-        <v>62594.16666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1150</v>
-      </c>
-      <c r="J184" t="n">
-        <v>24050</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L184" t="n">
-        <v>62225</v>
-      </c>
-      <c r="M184" t="n">
-        <v>62767.5</v>
-      </c>
-      <c r="N184" t="n">
-        <v>62963.33333333334</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="C185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="D185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="E185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G185" t="n">
-        <v>62584.16666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>950</v>
-      </c>
-      <c r="J185" t="n">
-        <v>24250</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-48.38709677419355</v>
-      </c>
-      <c r="L185" t="n">
-        <v>62085</v>
-      </c>
-      <c r="M185" t="n">
-        <v>62677.5</v>
-      </c>
-      <c r="N185" t="n">
-        <v>62903.33333333334</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="C186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="D186" t="n">
-        <v>61350</v>
-      </c>
-      <c r="E186" t="n">
-        <v>61300</v>
-      </c>
-      <c r="F186" t="n">
-        <v>13.7022</v>
-      </c>
-      <c r="G186" t="n">
-        <v>62570.83333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>700</v>
-      </c>
-      <c r="J186" t="n">
-        <v>24500</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-80.64516129032258</v>
-      </c>
-      <c r="L186" t="n">
-        <v>61985</v>
-      </c>
-      <c r="M186" t="n">
-        <v>62580</v>
-      </c>
-      <c r="N186" t="n">
-        <v>62835</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>61300</v>
-      </c>
-      <c r="C187" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D187" t="n">
-        <v>61300</v>
-      </c>
-      <c r="E187" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F187" t="n">
-        <v>5.3902</v>
-      </c>
-      <c r="G187" t="n">
-        <v>62560.83333333334</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>550</v>
-      </c>
-      <c r="J187" t="n">
-        <v>24650</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-87.87878787878788</v>
-      </c>
-      <c r="L187" t="n">
-        <v>61845</v>
-      </c>
-      <c r="M187" t="n">
-        <v>62475</v>
-      </c>
-      <c r="N187" t="n">
-        <v>62761.66666666666</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G188" t="n">
-        <v>62546.66666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>500</v>
-      </c>
-      <c r="J188" t="n">
-        <v>24700</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-84</v>
-      </c>
-      <c r="L188" t="n">
-        <v>61695</v>
-      </c>
-      <c r="M188" t="n">
-        <v>62362.5</v>
-      </c>
-      <c r="N188" t="n">
-        <v>62686.66666666666</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C189" t="n">
-        <v>61250</v>
-      </c>
-      <c r="D189" t="n">
-        <v>61250</v>
-      </c>
-      <c r="E189" t="n">
-        <v>61050</v>
-      </c>
-      <c r="F189" t="n">
-        <v>44.529</v>
-      </c>
-      <c r="G189" t="n">
-        <v>62534.16666666666</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>600</v>
-      </c>
-      <c r="J189" t="n">
-        <v>24800</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-65.21739130434783</v>
-      </c>
-      <c r="L189" t="n">
-        <v>61600</v>
-      </c>
-      <c r="M189" t="n">
-        <v>62255</v>
-      </c>
-      <c r="N189" t="n">
-        <v>62618.33333333334</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -451,17 +451,13 @@
         <v>60640</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60650</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>60644.16666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>60648.33333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K5" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>60655</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>60700</v>
-      </c>
-      <c r="K6" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K7" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>60651.66666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K8" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>60650.83333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>60600</v>
-      </c>
-      <c r="K9" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>60650.83333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>60550</v>
-      </c>
-      <c r="K10" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -840,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -875,22 +801,14 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>60400</v>
-      </c>
-      <c r="K12" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,22 +836,14 @@
         <v>60651.66666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K13" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -961,22 +871,14 @@
         <v>60654.16666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>60900</v>
-      </c>
-      <c r="K14" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1004,22 +906,14 @@
         <v>60660</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>61050</v>
-      </c>
-      <c r="K15" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1047,22 +941,14 @@
         <v>60665.83333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>61050</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1090,22 +976,14 @@
         <v>60672.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>61100</v>
-      </c>
-      <c r="K17" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1011,14 @@
         <v>60683.33333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>60600</v>
-      </c>
-      <c r="K18" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1182,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1223,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1305,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1384,17 +1224,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1469,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1510,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1551,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1592,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1633,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1715,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1756,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1797,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1838,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1879,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1920,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2002,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2207,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2248,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2327,17 +2029,11 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2368,17 +2064,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2409,17 +2099,11 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2453,16 +2137,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>60650</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1.023854080791426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2491,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2526,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -3398,13 +3076,17 @@
         <v>62188.33333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K77" t="n">
+        <v>61800</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3433,14 +3115,22 @@
         <v>62202.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>62100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>61800</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3468,14 +3158,22 @@
         <v>62211.66666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>62200</v>
+      </c>
+      <c r="K79" t="n">
+        <v>61800</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -4031,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -5533,13 +5231,17 @@
         <v>62395</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>61700</v>
+      </c>
+      <c r="K138" t="n">
+        <v>61700</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
@@ -5568,14 +5270,22 @@
         <v>62387.5</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>61950</v>
+      </c>
+      <c r="K139" t="n">
+        <v>61700</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +5313,22 @@
         <v>62380</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>61900</v>
+      </c>
+      <c r="K140" t="n">
+        <v>61700</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5638,13 +5356,17 @@
         <v>62370.83333333334</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>61950</v>
+      </c>
+      <c r="K141" t="n">
+        <v>61950</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
@@ -5673,14 +5395,22 @@
         <v>62361.66666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>62150</v>
+      </c>
+      <c r="K142" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5438,22 @@
         <v>62355.83333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>62200</v>
+      </c>
+      <c r="K143" t="n">
+        <v>61950</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5743,13 +5481,17 @@
         <v>62342.5</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>62200</v>
+      </c>
+      <c r="K144" t="n">
+        <v>62200</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5784,8 +5526,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5813,14 +5561,22 @@
         <v>62321.66666666666</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>61950</v>
+      </c>
+      <c r="K146" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5604,22 @@
         <v>62325</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K147" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5647,22 @@
         <v>62331.66666666666</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>62500</v>
+      </c>
+      <c r="K148" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5918,14 +5690,22 @@
         <v>62339.16666666666</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>62800</v>
+      </c>
+      <c r="K149" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +5739,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5994,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6029,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +5941,17 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6166,11 +5982,17 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6201,13 +6023,19 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>62200</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M157" t="n">
-        <v>1</v>
+        <v>1.014292604501608</v>
       </c>
     </row>
     <row r="158">
@@ -6236,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6271,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6306,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6341,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6446,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6481,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6516,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6551,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,10 @@
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>60640</v>
+        <v>60637.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>60644.16666666666</v>
+        <v>60640</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>60648.33333333334</v>
+        <v>60644.16666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,10 +541,10 @@
         <v>60650</v>
       </c>
       <c r="C5" t="n">
-        <v>60700</v>
+        <v>60650</v>
       </c>
       <c r="D5" t="n">
-        <v>60700</v>
+        <v>60650</v>
       </c>
       <c r="E5" t="n">
         <v>60650</v>
@@ -553,7 +553,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>60653.33333333334</v>
+        <v>60648.33333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>60650</v>
+      </c>
+      <c r="C6" t="n">
         <v>60700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60500</v>
       </c>
       <c r="D6" t="n">
         <v>60700</v>
       </c>
       <c r="E6" t="n">
-        <v>60400</v>
+        <v>60650</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>60655</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="C7" t="n">
         <v>60500</v>
       </c>
       <c r="D7" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="E7" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="F7" t="n">
-        <v>41.8262</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>60653.33333333334</v>
+        <v>60655</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>60500</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>41.8262</v>
       </c>
       <c r="G8" t="n">
-        <v>60651.66666666666</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="C9" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="D9" t="n">
-        <v>61400</v>
+        <v>60500</v>
       </c>
       <c r="E9" t="n">
-        <v>60400</v>
+        <v>60500</v>
       </c>
       <c r="F9" t="n">
-        <v>34103.92198485342</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>60650.83333333334</v>
+        <v>60651.66666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,32 +713,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>60550</v>
+        <v>60600</v>
       </c>
       <c r="C10" t="n">
-        <v>60400</v>
+        <v>60450</v>
       </c>
       <c r="D10" t="n">
-        <v>60550</v>
+        <v>61400</v>
       </c>
       <c r="E10" t="n">
         <v>60400</v>
       </c>
       <c r="F10" t="n">
-        <v>903.058</v>
+        <v>34103.92198485342</v>
       </c>
       <c r="G10" t="n">
         <v>60650.83333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>60500</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -751,19 +757,19 @@
         <v>60550</v>
       </c>
       <c r="C11" t="n">
-        <v>60550</v>
+        <v>60400</v>
       </c>
       <c r="D11" t="n">
         <v>60550</v>
       </c>
       <c r="E11" t="n">
-        <v>60550</v>
+        <v>60400</v>
       </c>
       <c r="F11" t="n">
-        <v>0.966</v>
+        <v>903.058</v>
       </c>
       <c r="G11" t="n">
-        <v>60653.33333333334</v>
+        <v>60650.83333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +779,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,19 +793,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="C12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="D12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="E12" t="n">
-        <v>60400</v>
+        <v>60550</v>
       </c>
       <c r="F12" t="n">
-        <v>12.2482</v>
+        <v>0.966</v>
       </c>
       <c r="G12" t="n">
         <v>60653.33333333334</v>
@@ -804,11 +814,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +832,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="C13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="D13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="E13" t="n">
-        <v>60500</v>
+        <v>60400</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>12.2482</v>
       </c>
       <c r="G13" t="n">
-        <v>60651.66666666666</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="C14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="D14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="E14" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>60654.16666666666</v>
+        <v>60651.66666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +896,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +910,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="C15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="D15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="E15" t="n">
-        <v>61050</v>
+        <v>60900</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4095</v>
+        <v>0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>60660</v>
+        <v>60654.16666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +935,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -935,10 +961,10 @@
         <v>61050</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6001</v>
+        <v>0.4095</v>
       </c>
       <c r="G16" t="n">
-        <v>60665.83333333334</v>
+        <v>60660</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +974,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +988,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61100</v>
+        <v>61050</v>
       </c>
       <c r="C17" t="n">
-        <v>61100</v>
+        <v>61050</v>
       </c>
       <c r="D17" t="n">
-        <v>61550</v>
+        <v>61050</v>
       </c>
       <c r="E17" t="n">
         <v>61050</v>
       </c>
       <c r="F17" t="n">
-        <v>114.7688</v>
+        <v>0.6001</v>
       </c>
       <c r="G17" t="n">
-        <v>60672.5</v>
+        <v>60665.83333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1013,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1027,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="C18" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="D18" t="n">
-        <v>61400</v>
+        <v>61550</v>
       </c>
       <c r="E18" t="n">
-        <v>60600</v>
+        <v>61050</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>114.7688</v>
       </c>
       <c r="G18" t="n">
-        <v>60683.33333333334</v>
+        <v>60672.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1052,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>61550</v>
+        <v>60600</v>
       </c>
       <c r="C19" t="n">
-        <v>61800</v>
+        <v>61350</v>
       </c>
       <c r="D19" t="n">
-        <v>61800</v>
+        <v>61400</v>
       </c>
       <c r="E19" t="n">
-        <v>61550</v>
+        <v>60600</v>
       </c>
       <c r="F19" t="n">
-        <v>138.28704158576</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>60701.66666666666</v>
+        <v>60683.33333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1091,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1105,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="C20" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="D20" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="E20" t="n">
-        <v>61650</v>
+        <v>61550</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8080000000000001</v>
+        <v>138.28704158576</v>
       </c>
       <c r="G20" t="n">
-        <v>60717.5</v>
+        <v>60701.66666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1130,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1144,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="C21" t="n">
-        <v>61900</v>
+        <v>61650</v>
       </c>
       <c r="D21" t="n">
-        <v>61900</v>
+        <v>61650</v>
       </c>
       <c r="E21" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="F21" t="n">
-        <v>122.4285</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>60737.5</v>
+        <v>60717.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1169,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1183,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>61700</v>
+      </c>
+      <c r="C22" t="n">
         <v>61900</v>
       </c>
-      <c r="C22" t="n">
-        <v>61950</v>
-      </c>
       <c r="D22" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="E22" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="F22" t="n">
-        <v>91.858704681194</v>
+        <v>122.4285</v>
       </c>
       <c r="G22" t="n">
-        <v>60758.33333333334</v>
+        <v>60737.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1208,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1171,19 +1225,19 @@
         <v>61900</v>
       </c>
       <c r="C23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E23" t="n">
         <v>61900</v>
       </c>
       <c r="F23" t="n">
-        <v>1.752</v>
+        <v>91.858704681194</v>
       </c>
       <c r="G23" t="n">
-        <v>60779.16666666666</v>
+        <v>60758.33333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1247,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,32 +1261,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="C24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="D24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="E24" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="F24" t="n">
-        <v>0.016193548387</v>
+        <v>1.752</v>
       </c>
       <c r="G24" t="n">
-        <v>60800.83333333334</v>
+        <v>60779.16666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1241,19 +1303,19 @@
         <v>62000</v>
       </c>
       <c r="C25" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="D25" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E25" t="n">
         <v>62000</v>
       </c>
       <c r="F25" t="n">
-        <v>21.3243</v>
+        <v>0.016193548387</v>
       </c>
       <c r="G25" t="n">
-        <v>60824.16666666666</v>
+        <v>60800.83333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1325,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1339,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C26" t="n">
         <v>62100</v>
       </c>
-      <c r="C26" t="n">
-        <v>62500</v>
-      </c>
       <c r="D26" t="n">
-        <v>62500</v>
+        <v>62100</v>
       </c>
       <c r="E26" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>21.3243</v>
       </c>
       <c r="G26" t="n">
-        <v>60854.16666666666</v>
+        <v>60824.16666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1364,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="C27" t="n">
         <v>62500</v>
@@ -1317,13 +1387,13 @@
         <v>62500</v>
       </c>
       <c r="E27" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="F27" t="n">
-        <v>18.4972</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>60884.16666666666</v>
+        <v>60854.16666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1403,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1420,7 @@
         <v>62400</v>
       </c>
       <c r="C28" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D28" t="n">
         <v>62500</v>
@@ -1355,10 +1429,10 @@
         <v>62400</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>18.4972</v>
       </c>
       <c r="G28" t="n">
-        <v>60912.5</v>
+        <v>60884.16666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1442,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,54 +1459,56 @@
         <v>62400</v>
       </c>
       <c r="C29" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="D29" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E29" t="n">
         <v>62400</v>
       </c>
-      <c r="E29" t="n">
-        <v>62300</v>
-      </c>
       <c r="F29" t="n">
-        <v>23.9828</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>60939.16666666666</v>
+        <v>60912.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="C30" t="n">
         <v>62300</v>
       </c>
       <c r="D30" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E30" t="n">
         <v>62300</v>
       </c>
       <c r="F30" t="n">
-        <v>22.821027287319</v>
+        <v>23.9828</v>
       </c>
       <c r="G30" t="n">
-        <v>60965.83333333334</v>
+        <v>60939.16666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1528,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="C31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="D31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="E31" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8080000000000001</v>
+        <v>22.821027287319</v>
       </c>
       <c r="G31" t="n">
-        <v>60991.66666666666</v>
+        <v>60965.83333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1563,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="C32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="D32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="E32" t="n">
-        <v>62500</v>
+        <v>62250</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>61021.66666666666</v>
+        <v>60991.66666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1598,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="C33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="D33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="E33" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="F33" t="n">
-        <v>69</v>
+        <v>7.5</v>
       </c>
       <c r="G33" t="n">
-        <v>61050.83333333334</v>
+        <v>61021.66666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1645,10 @@
         <v>62450</v>
       </c>
       <c r="F34" t="n">
-        <v>14.8128</v>
+        <v>69</v>
       </c>
       <c r="G34" t="n">
-        <v>61080</v>
+        <v>61050.83333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1671,19 @@
         <v>62450</v>
       </c>
       <c r="C35" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="D35" t="n">
         <v>62450</v>
       </c>
       <c r="E35" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="F35" t="n">
-        <v>11.2203</v>
+        <v>14.8128</v>
       </c>
       <c r="G35" t="n">
-        <v>61108.33333333334</v>
+        <v>61080</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1703,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>62250</v>
+        <v>62450</v>
       </c>
       <c r="C36" t="n">
         <v>62400</v>
       </c>
       <c r="D36" t="n">
+        <v>62450</v>
+      </c>
+      <c r="E36" t="n">
         <v>62400</v>
       </c>
-      <c r="E36" t="n">
-        <v>62250</v>
-      </c>
       <c r="F36" t="n">
-        <v>7.67</v>
+        <v>11.2203</v>
       </c>
       <c r="G36" t="n">
-        <v>61136.66666666666</v>
+        <v>61108.33333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1738,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>62400</v>
+        <v>62250</v>
       </c>
       <c r="C37" t="n">
         <v>62400</v>
@@ -1667,13 +1747,13 @@
         <v>62400</v>
       </c>
       <c r="E37" t="n">
-        <v>62400</v>
+        <v>62250</v>
       </c>
       <c r="F37" t="n">
-        <v>15</v>
+        <v>7.67</v>
       </c>
       <c r="G37" t="n">
-        <v>61165</v>
+        <v>61136.66666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1773,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="C38" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="D38" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E38" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="F38" t="n">
-        <v>197.4966</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>61186.66666666666</v>
+        <v>61165</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1811,19 @@
         <v>62300</v>
       </c>
       <c r="C39" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="D39" t="n">
         <v>62300</v>
       </c>
       <c r="E39" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="F39" t="n">
-        <v>22.5</v>
+        <v>197.4966</v>
       </c>
       <c r="G39" t="n">
-        <v>61211.66666666666</v>
+        <v>61186.66666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,10 +1843,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C40" t="n">
         <v>62200</v>
-      </c>
-      <c r="C40" t="n">
-        <v>62300</v>
       </c>
       <c r="D40" t="n">
         <v>62300</v>
@@ -1775,10 +1855,10 @@
         <v>62200</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G40" t="n">
-        <v>61238.33333333334</v>
+        <v>61211.66666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="C41" t="n">
         <v>62300</v>
@@ -1807,13 +1887,13 @@
         <v>62300</v>
       </c>
       <c r="E41" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="F41" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>61265</v>
+        <v>61238.33333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1925,10 @@
         <v>62300</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="G42" t="n">
-        <v>61291.66666666666</v>
+        <v>61265</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1960,10 @@
         <v>62300</v>
       </c>
       <c r="F43" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>61319.16666666666</v>
+        <v>61291.66666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1995,10 @@
         <v>62300</v>
       </c>
       <c r="F44" t="n">
-        <v>2.159</v>
+        <v>22.5</v>
       </c>
       <c r="G44" t="n">
-        <v>61346.66666666666</v>
+        <v>61319.16666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +2018,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="C45" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="D45" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="E45" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>2.159</v>
       </c>
       <c r="G45" t="n">
-        <v>61380.83333333334</v>
+        <v>61346.66666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +2053,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="C46" t="n">
         <v>62700</v>
@@ -1982,13 +2062,13 @@
         <v>62700</v>
       </c>
       <c r="E46" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="F46" t="n">
-        <v>7.3046</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>61415</v>
+        <v>61380.83333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,28 +2088,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D47" t="n">
-        <v>63000</v>
+        <v>62700</v>
       </c>
       <c r="E47" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F47" t="n">
-        <v>125.1333</v>
+        <v>7.3046</v>
       </c>
       <c r="G47" t="n">
-        <v>61450.83333333334</v>
+        <v>61415</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2046,25 +2126,25 @@
         <v>62800</v>
       </c>
       <c r="C48" t="n">
-        <v>62350</v>
+        <v>62800</v>
       </c>
       <c r="D48" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E48" t="n">
         <v>62800</v>
       </c>
-      <c r="E48" t="n">
-        <v>62300</v>
-      </c>
       <c r="F48" t="n">
-        <v>135.7442</v>
+        <v>125.1333</v>
       </c>
       <c r="G48" t="n">
-        <v>61479.16666666666</v>
+        <v>61450.83333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2078,28 +2158,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C49" t="n">
         <v>62350</v>
       </c>
-      <c r="C49" t="n">
-        <v>62700</v>
-      </c>
       <c r="D49" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E49" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="F49" t="n">
-        <v>25.2082</v>
+        <v>135.7442</v>
       </c>
       <c r="G49" t="n">
-        <v>61513.33333333334</v>
+        <v>61479.16666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2113,28 +2193,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>62500</v>
+        <v>62350</v>
       </c>
       <c r="C50" t="n">
-        <v>62400</v>
+        <v>62700</v>
       </c>
       <c r="D50" t="n">
-        <v>62500</v>
+        <v>62700</v>
       </c>
       <c r="E50" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F50" t="n">
-        <v>214.4083</v>
+        <v>25.2082</v>
       </c>
       <c r="G50" t="n">
-        <v>61542.5</v>
+        <v>61513.33333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2148,22 +2228,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="C51" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="D51" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="E51" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1591</v>
+        <v>214.4083</v>
       </c>
       <c r="G51" t="n">
-        <v>61570.83333333334</v>
+        <v>61542.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2275,10 @@
         <v>62350</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2256</v>
+        <v>0.1591</v>
       </c>
       <c r="G52" t="n">
-        <v>61599.16666666666</v>
+        <v>61570.83333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2301,19 @@
         <v>62350</v>
       </c>
       <c r="C53" t="n">
-        <v>61450</v>
+        <v>62350</v>
       </c>
       <c r="D53" t="n">
         <v>62350</v>
       </c>
       <c r="E53" t="n">
-        <v>61450</v>
+        <v>62350</v>
       </c>
       <c r="F53" t="n">
-        <v>163.5817</v>
+        <v>0.2256</v>
       </c>
       <c r="G53" t="n">
-        <v>61612.5</v>
+        <v>61599.16666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2333,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="C54" t="n">
-        <v>62100</v>
+        <v>61450</v>
       </c>
       <c r="D54" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E54" t="n">
-        <v>62100</v>
+        <v>61450</v>
       </c>
       <c r="F54" t="n">
-        <v>40.1363</v>
+        <v>163.5817</v>
       </c>
       <c r="G54" t="n">
-        <v>61636.66666666666</v>
+        <v>61612.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2368,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C55" t="n">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="D55" t="n">
-        <v>62050</v>
+        <v>62400</v>
       </c>
       <c r="E55" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="F55" t="n">
-        <v>184.5</v>
+        <v>40.1363</v>
       </c>
       <c r="G55" t="n">
-        <v>61659.16666666666</v>
+        <v>61636.66666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2403,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="C56" t="n">
-        <v>61750</v>
+        <v>62000</v>
       </c>
       <c r="D56" t="n">
-        <v>61950</v>
+        <v>62050</v>
       </c>
       <c r="E56" t="n">
-        <v>61750</v>
+        <v>61900</v>
       </c>
       <c r="F56" t="n">
-        <v>13.0321</v>
+        <v>184.5</v>
       </c>
       <c r="G56" t="n">
-        <v>61677.5</v>
+        <v>61659.16666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2438,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="C57" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="D57" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="E57" t="n">
-        <v>61800</v>
+        <v>61750</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>13.0321</v>
       </c>
       <c r="G57" t="n">
-        <v>61696.66666666666</v>
+        <v>61677.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2473,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E58" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F58" t="n">
-        <v>5.2434</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>61720.83333333334</v>
+        <v>61696.66666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2508,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>62050</v>
+        <v>62100</v>
       </c>
       <c r="C59" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="D59" t="n">
         <v>62100</v>
       </c>
       <c r="E59" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="F59" t="n">
-        <v>145.6844</v>
+        <v>5.2434</v>
       </c>
       <c r="G59" t="n">
-        <v>61741.66666666666</v>
+        <v>61720.83333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2543,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>61750</v>
+        <v>62050</v>
       </c>
       <c r="C60" t="n">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="D60" t="n">
-        <v>61750</v>
+        <v>62100</v>
       </c>
       <c r="E60" t="n">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="F60" t="n">
-        <v>103</v>
+        <v>145.6844</v>
       </c>
       <c r="G60" t="n">
-        <v>61759.16666666666</v>
+        <v>61741.66666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>62000</v>
+        <v>61750</v>
       </c>
       <c r="C61" t="n">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="D61" t="n">
-        <v>62000</v>
+        <v>61750</v>
       </c>
       <c r="E61" t="n">
-        <v>62000</v>
+        <v>61700</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5049</v>
+        <v>103</v>
       </c>
       <c r="G61" t="n">
-        <v>61781.66666666666</v>
+        <v>61759.16666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2613,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="C62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="D62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="E62" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>0.5049</v>
       </c>
       <c r="G62" t="n">
-        <v>61800.83333333334</v>
+        <v>61781.66666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2648,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E63" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F63" t="n">
-        <v>1.8</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>61825</v>
+        <v>61800.83333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,7 +2683,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>61850</v>
+        <v>62100</v>
       </c>
       <c r="C64" t="n">
         <v>62100</v>
@@ -2612,13 +2692,13 @@
         <v>62100</v>
       </c>
       <c r="E64" t="n">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="F64" t="n">
-        <v>121.2541</v>
+        <v>1.8</v>
       </c>
       <c r="G64" t="n">
-        <v>61849.16666666666</v>
+        <v>61825</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2718,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62250</v>
+        <v>61850</v>
       </c>
       <c r="C65" t="n">
-        <v>62250</v>
+        <v>62100</v>
       </c>
       <c r="D65" t="n">
-        <v>62250</v>
+        <v>62100</v>
       </c>
       <c r="E65" t="n">
-        <v>62250</v>
+        <v>61800</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>121.2541</v>
       </c>
       <c r="G65" t="n">
-        <v>61875</v>
+        <v>61849.16666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2753,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="C66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="D66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="E66" t="n">
-        <v>62350</v>
+        <v>62250</v>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>61905.83333333334</v>
+        <v>61875</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2800,10 @@
         <v>62350</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>61936.66666666666</v>
+        <v>61905.83333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2758,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>61967.5</v>
+        <v>61936.66666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2858,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="D69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="E69" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="F69" t="n">
-        <v>1.4583</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>61998.33333333334</v>
+        <v>61967.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2905,10 @@
         <v>62300</v>
       </c>
       <c r="F70" t="n">
-        <v>3.5417</v>
+        <v>1.4583</v>
       </c>
       <c r="G70" t="n">
-        <v>62030</v>
+        <v>61998.33333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2940,10 @@
         <v>62300</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>3.5417</v>
       </c>
       <c r="G71" t="n">
-        <v>62059.16666666666</v>
+        <v>62030</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2898,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>62090.83333333334</v>
+        <v>62059.16666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +3010,10 @@
         <v>62300</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>62120.83333333334</v>
+        <v>62090.83333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +3036,19 @@
         <v>62300</v>
       </c>
       <c r="C74" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D74" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E74" t="n">
         <v>62300</v>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>62145.83333333334</v>
+        <v>62120.83333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3068,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>61850</v>
+        <v>62300</v>
       </c>
       <c r="C75" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="D75" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="E75" t="n">
-        <v>61850</v>
+        <v>62300</v>
       </c>
       <c r="F75" t="n">
-        <v>15.7817</v>
+        <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>62159.16666666666</v>
+        <v>62145.83333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3103,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="D76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="E76" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="F76" t="n">
-        <v>11.976</v>
+        <v>15.7817</v>
       </c>
       <c r="G76" t="n">
-        <v>62171.66666666666</v>
+        <v>62159.16666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,35 +3138,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="C77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="D77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="E77" t="n">
-        <v>62100</v>
+        <v>61800</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9504</v>
+        <v>11.976</v>
       </c>
       <c r="G77" t="n">
-        <v>62188.33333333334</v>
+        <v>62171.66666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K77" t="n">
-        <v>61800</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3097,40 +3173,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="C78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="D78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="E78" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="F78" t="n">
-        <v>3.3776</v>
+        <v>0.9504</v>
       </c>
       <c r="G78" t="n">
-        <v>62202.5</v>
+        <v>62188.33333333334</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>62100</v>
-      </c>
-      <c r="K78" t="n">
-        <v>61800</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,40 +3208,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="C79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="D79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="E79" t="n">
-        <v>62350</v>
+        <v>62200</v>
       </c>
       <c r="F79" t="n">
-        <v>7.1841</v>
+        <v>3.3776</v>
       </c>
       <c r="G79" t="n">
-        <v>62211.66666666666</v>
+        <v>62202.5</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K79" t="n">
-        <v>61800</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3183,22 +3243,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="C80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="D80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E80" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F80" t="n">
-        <v>17.3054</v>
+        <v>7.1841</v>
       </c>
       <c r="G80" t="n">
-        <v>62224.16666666666</v>
+        <v>62211.66666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,22 +3278,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62650</v>
+        <v>62400</v>
       </c>
       <c r="C81" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="D81" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="E81" t="n">
-        <v>62650</v>
+        <v>62400</v>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>17.3054</v>
       </c>
       <c r="G81" t="n">
-        <v>62237.5</v>
+        <v>62224.16666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3253,22 +3313,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C82" t="n">
         <v>62700</v>
       </c>
-      <c r="C82" t="n">
-        <v>62750</v>
-      </c>
       <c r="D82" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="E82" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="F82" t="n">
-        <v>18.2309</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>62250.83333333334</v>
+        <v>62237.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3288,22 +3348,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62550</v>
+        <v>62700</v>
       </c>
       <c r="C83" t="n">
-        <v>62550</v>
+        <v>62750</v>
       </c>
       <c r="D83" t="n">
-        <v>62550</v>
+        <v>62750</v>
       </c>
       <c r="E83" t="n">
-        <v>62550</v>
+        <v>62700</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>18.2309</v>
       </c>
       <c r="G83" t="n">
-        <v>62261.66666666666</v>
+        <v>62250.83333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3323,22 +3383,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="C84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="D84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="E84" t="n">
-        <v>63000</v>
+        <v>62550</v>
       </c>
       <c r="F84" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>62278.33333333334</v>
+        <v>62261.66666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3358,7 +3418,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C85" t="n">
         <v>63000</v>
@@ -3367,13 +3427,13 @@
         <v>63000</v>
       </c>
       <c r="E85" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="F85" t="n">
-        <v>83.06570000000001</v>
+        <v>4.5</v>
       </c>
       <c r="G85" t="n">
-        <v>62293.33333333334</v>
+        <v>62278.33333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3393,22 +3453,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="C86" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="D86" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="E86" t="n">
-        <v>62600</v>
+        <v>62300</v>
       </c>
       <c r="F86" t="n">
-        <v>7.5</v>
+        <v>83.06570000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>62295</v>
+        <v>62293.33333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3431,19 +3491,19 @@
         <v>62600</v>
       </c>
       <c r="C87" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="D87" t="n">
         <v>62600</v>
       </c>
       <c r="E87" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="F87" t="n">
-        <v>7.67</v>
+        <v>7.5</v>
       </c>
       <c r="G87" t="n">
-        <v>62291.66666666666</v>
+        <v>62295</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3463,19 +3523,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="C88" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D88" t="n">
-        <v>62900</v>
+        <v>62600</v>
       </c>
       <c r="E88" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F88" t="n">
-        <v>33.9</v>
+        <v>7.67</v>
       </c>
       <c r="G88" t="n">
         <v>62291.66666666666</v>
@@ -3498,22 +3558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C89" t="n">
         <v>62400</v>
       </c>
       <c r="D89" t="n">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="E89" t="n">
         <v>62400</v>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>33.9</v>
       </c>
       <c r="G89" t="n">
-        <v>62293.33333333334</v>
+        <v>62291.66666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3533,22 +3593,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>62900</v>
+        <v>62400</v>
       </c>
       <c r="C90" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="D90" t="n">
-        <v>62900</v>
+        <v>62400</v>
       </c>
       <c r="E90" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="F90" t="n">
-        <v>21.3</v>
+        <v>40</v>
       </c>
       <c r="G90" t="n">
-        <v>62297.5</v>
+        <v>62293.33333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3568,22 +3628,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C91" t="n">
-        <v>62500</v>
+        <v>62550</v>
       </c>
       <c r="D91" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="E91" t="n">
         <v>62500</v>
       </c>
       <c r="F91" t="n">
-        <v>13.45</v>
+        <v>21.3</v>
       </c>
       <c r="G91" t="n">
-        <v>62301.66666666666</v>
+        <v>62297.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3603,22 +3663,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>62450</v>
+        <v>62800</v>
       </c>
       <c r="C92" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="D92" t="n">
-        <v>62450</v>
+        <v>62850</v>
       </c>
       <c r="E92" t="n">
-        <v>62450</v>
+        <v>62500</v>
       </c>
       <c r="F92" t="n">
-        <v>16</v>
+        <v>13.45</v>
       </c>
       <c r="G92" t="n">
-        <v>62300.83333333334</v>
+        <v>62301.66666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3638,22 +3698,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="C93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="D93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="E93" t="n">
-        <v>63050</v>
+        <v>62450</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G93" t="n">
-        <v>62310.83333333334</v>
+        <v>62300.83333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3673,19 +3733,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="C94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="D94" t="n">
         <v>63050</v>
       </c>
       <c r="E94" t="n">
-        <v>62450</v>
+        <v>63050</v>
       </c>
       <c r="F94" t="n">
-        <v>66.8172</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
         <v>62310.83333333334</v>
@@ -3708,28 +3768,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="C95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="D95" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E95" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>66.8172</v>
       </c>
       <c r="G95" t="n">
-        <v>62320</v>
+        <v>62310.83333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3743,22 +3803,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="C96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="D96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="E96" t="n">
-        <v>62450</v>
+        <v>62950</v>
       </c>
       <c r="F96" t="n">
-        <v>10.8528</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>62320.83333333334</v>
+        <v>62320</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3778,19 +3838,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="C97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="D97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="E97" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="F97" t="n">
-        <v>10.8259</v>
+        <v>10.8528</v>
       </c>
       <c r="G97" t="n">
         <v>62320.83333333334</v>
@@ -3813,22 +3873,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="C98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="D98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="E98" t="n">
-        <v>62550</v>
+        <v>62400</v>
       </c>
       <c r="F98" t="n">
-        <v>6.9763</v>
+        <v>10.8259</v>
       </c>
       <c r="G98" t="n">
-        <v>62330</v>
+        <v>62320.83333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3848,22 +3908,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="C99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="D99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="E99" t="n">
-        <v>62450</v>
+        <v>62550</v>
       </c>
       <c r="F99" t="n">
-        <v>7.9188</v>
+        <v>6.9763</v>
       </c>
       <c r="G99" t="n">
-        <v>62334.16666666666</v>
+        <v>62330</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3895,10 +3955,10 @@
         <v>62450</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>7.9188</v>
       </c>
       <c r="G100" t="n">
-        <v>62336.66666666666</v>
+        <v>62334.16666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3930,10 +3990,10 @@
         <v>62450</v>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>62339.16666666666</v>
+        <v>62336.66666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3965,10 +4025,10 @@
         <v>62450</v>
       </c>
       <c r="F102" t="n">
-        <v>47.6103</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>62341.66666666666</v>
+        <v>62339.16666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,22 +4048,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="C103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="D103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="E103" t="n">
-        <v>62950</v>
+        <v>62450</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>47.6103</v>
       </c>
       <c r="G103" t="n">
-        <v>62352.5</v>
+        <v>62341.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4038,7 +4098,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>62363.33333333334</v>
+        <v>62352.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4073,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>62367.5</v>
+        <v>62363.33333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4108,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>62371.66666666666</v>
+        <v>62367.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4140,10 +4200,10 @@
         <v>62950</v>
       </c>
       <c r="F107" t="n">
-        <v>0.509</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>62374.16666666666</v>
+        <v>62371.66666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4175,10 +4235,10 @@
         <v>62950</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01</v>
+        <v>0.509</v>
       </c>
       <c r="G108" t="n">
-        <v>62384.16666666666</v>
+        <v>62374.16666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4210,10 +4270,10 @@
         <v>62950</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G109" t="n">
-        <v>62388.33333333334</v>
+        <v>62384.16666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4233,22 +4293,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="C110" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="D110" t="n">
-        <v>62600</v>
+        <v>62950</v>
       </c>
       <c r="E110" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="F110" t="n">
-        <v>332.9113</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>62386.66666666666</v>
+        <v>62388.33333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4268,22 +4328,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="C111" t="n">
         <v>62300</v>
       </c>
       <c r="D111" t="n">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="E111" t="n">
         <v>62300</v>
       </c>
       <c r="F111" t="n">
-        <v>137.1211</v>
+        <v>332.9113</v>
       </c>
       <c r="G111" t="n">
-        <v>62385.83333333334</v>
+        <v>62386.66666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4303,22 +4363,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="C112" t="n">
         <v>62300</v>
       </c>
       <c r="D112" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="E112" t="n">
         <v>62300</v>
       </c>
       <c r="F112" t="n">
-        <v>7.5</v>
+        <v>137.1211</v>
       </c>
       <c r="G112" t="n">
-        <v>62385</v>
+        <v>62385.83333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4350,10 +4410,10 @@
         <v>62300</v>
       </c>
       <c r="F113" t="n">
-        <v>10.1298</v>
+        <v>7.5</v>
       </c>
       <c r="G113" t="n">
-        <v>62399.16666666666</v>
+        <v>62385</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4385,10 +4445,10 @@
         <v>62300</v>
       </c>
       <c r="F114" t="n">
-        <v>14.7757</v>
+        <v>10.1298</v>
       </c>
       <c r="G114" t="n">
-        <v>62402.5</v>
+        <v>62399.16666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4408,22 +4468,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="C115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="D115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="E115" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="F115" t="n">
-        <v>4.5919</v>
+        <v>14.7757</v>
       </c>
       <c r="G115" t="n">
-        <v>62410.83333333334</v>
+        <v>62402.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,10 +4515,10 @@
         <v>62500</v>
       </c>
       <c r="F116" t="n">
-        <v>7.5</v>
+        <v>4.5919</v>
       </c>
       <c r="G116" t="n">
-        <v>62423.33333333334</v>
+        <v>62410.83333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,22 +4538,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E117" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="G117" t="n">
-        <v>62433.33333333334</v>
+        <v>62423.33333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4525,10 +4585,10 @@
         <v>62400</v>
       </c>
       <c r="F118" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>62438.33333333334</v>
+        <v>62433.33333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4560,10 +4620,10 @@
         <v>62400</v>
       </c>
       <c r="F119" t="n">
-        <v>6.3243</v>
+        <v>9</v>
       </c>
       <c r="G119" t="n">
-        <v>62446.66666666666</v>
+        <v>62438.33333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4592,13 +4652,13 @@
         <v>62400</v>
       </c>
       <c r="E120" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="F120" t="n">
-        <v>159.0675</v>
+        <v>6.3243</v>
       </c>
       <c r="G120" t="n">
-        <v>62458.33333333334</v>
+        <v>62446.66666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4627,13 +4687,13 @@
         <v>62400</v>
       </c>
       <c r="E121" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F121" t="n">
-        <v>7.1015</v>
+        <v>159.0675</v>
       </c>
       <c r="G121" t="n">
-        <v>62465</v>
+        <v>62458.33333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4653,7 +4713,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="C122" t="n">
         <v>62400</v>
@@ -4662,13 +4722,13 @@
         <v>62400</v>
       </c>
       <c r="E122" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F122" t="n">
-        <v>15</v>
+        <v>7.1015</v>
       </c>
       <c r="G122" t="n">
-        <v>62475</v>
+        <v>62465</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4688,22 +4748,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="C123" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="D123" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E123" t="n">
-        <v>62300</v>
+        <v>62350</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G123" t="n">
-        <v>62478.33333333334</v>
+        <v>62475</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4723,22 +4783,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="C124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="D124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E124" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0452</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>62480</v>
+        <v>62478.33333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4770,10 +4830,10 @@
         <v>62200</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2548</v>
+        <v>0.0452</v>
       </c>
       <c r="G125" t="n">
-        <v>62479.16666666666</v>
+        <v>62480</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4793,22 +4853,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="C126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="D126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="E126" t="n">
-        <v>62150</v>
+        <v>62200</v>
       </c>
       <c r="F126" t="n">
-        <v>1.0523</v>
+        <v>0.2548</v>
       </c>
       <c r="G126" t="n">
-        <v>62475.83333333334</v>
+        <v>62479.16666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4828,22 +4888,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="C127" t="n">
-        <v>61800</v>
+        <v>62150</v>
       </c>
       <c r="D127" t="n">
-        <v>62000</v>
+        <v>62150</v>
       </c>
       <c r="E127" t="n">
-        <v>61800</v>
+        <v>62150</v>
       </c>
       <c r="F127" t="n">
-        <v>32.21</v>
+        <v>1.0523</v>
       </c>
       <c r="G127" t="n">
-        <v>62466.66666666666</v>
+        <v>62475.83333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4866,19 +4926,19 @@
         <v>62000</v>
       </c>
       <c r="C128" t="n">
-        <v>62000</v>
+        <v>61800</v>
       </c>
       <c r="D128" t="n">
         <v>62000</v>
       </c>
       <c r="E128" t="n">
-        <v>62000</v>
+        <v>61800</v>
       </c>
       <c r="F128" t="n">
-        <v>7.5</v>
+        <v>32.21</v>
       </c>
       <c r="G128" t="n">
-        <v>62460.83333333334</v>
+        <v>62466.66666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4913,7 +4973,7 @@
         <v>7.5</v>
       </c>
       <c r="G129" t="n">
-        <v>62455.83333333334</v>
+        <v>62460.83333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4945,10 +5005,10 @@
         <v>62000</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G130" t="n">
-        <v>62450.83333333334</v>
+        <v>62455.83333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4968,22 +5028,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="C131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="D131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="E131" t="n">
-        <v>61950</v>
+        <v>62000</v>
       </c>
       <c r="F131" t="n">
-        <v>5.5015</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>62445</v>
+        <v>62450.83333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5003,22 +5063,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="C132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="D132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="E132" t="n">
-        <v>61700</v>
+        <v>61950</v>
       </c>
       <c r="F132" t="n">
-        <v>1.995</v>
+        <v>5.5015</v>
       </c>
       <c r="G132" t="n">
-        <v>62435</v>
+        <v>62445</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5038,22 +5098,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="C133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="D133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="E133" t="n">
-        <v>61650</v>
+        <v>61700</v>
       </c>
       <c r="F133" t="n">
-        <v>4.5283</v>
+        <v>1.995</v>
       </c>
       <c r="G133" t="n">
-        <v>62424.16666666666</v>
+        <v>62435</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5073,22 +5133,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="C134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="D134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="E134" t="n">
-        <v>61600</v>
+        <v>61650</v>
       </c>
       <c r="F134" t="n">
-        <v>10.826</v>
+        <v>4.5283</v>
       </c>
       <c r="G134" t="n">
-        <v>62410.83333333334</v>
+        <v>62424.16666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5108,22 +5168,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="C135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="D135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="E135" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="F135" t="n">
-        <v>8.1426</v>
+        <v>10.826</v>
       </c>
       <c r="G135" t="n">
-        <v>62407.5</v>
+        <v>62410.83333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5143,22 +5203,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="C136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="D136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="E136" t="n">
-        <v>61700</v>
+        <v>61650</v>
       </c>
       <c r="F136" t="n">
-        <v>7.5</v>
+        <v>8.1426</v>
       </c>
       <c r="G136" t="n">
-        <v>62405.83333333334</v>
+        <v>62407.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5190,10 +5250,10 @@
         <v>61700</v>
       </c>
       <c r="F137" t="n">
-        <v>8.8405</v>
+        <v>7.5</v>
       </c>
       <c r="G137" t="n">
-        <v>62399.16666666666</v>
+        <v>62405.83333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5213,35 +5273,31 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="C138" t="n">
-        <v>61950</v>
+        <v>61700</v>
       </c>
       <c r="D138" t="n">
-        <v>61950</v>
+        <v>61700</v>
       </c>
       <c r="E138" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="F138" t="n">
-        <v>7.705896607431</v>
+        <v>8.8405</v>
       </c>
       <c r="G138" t="n">
-        <v>62395</v>
+        <v>62399.16666666666</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>61700</v>
-      </c>
-      <c r="K138" t="n">
-        <v>61700</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
@@ -5255,37 +5311,29 @@
         <v>61900</v>
       </c>
       <c r="C139" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D139" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="E139" t="n">
         <v>61900</v>
       </c>
       <c r="F139" t="n">
-        <v>1.2716</v>
+        <v>7.705896607431</v>
       </c>
       <c r="G139" t="n">
-        <v>62387.5</v>
+        <v>62395</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K139" t="n">
-        <v>61700</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5295,40 +5343,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="C140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="D140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="E140" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="F140" t="n">
-        <v>7.582703392569</v>
+        <v>1.2716</v>
       </c>
       <c r="G140" t="n">
-        <v>62380</v>
+        <v>62387.5</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>61900</v>
-      </c>
-      <c r="K140" t="n">
-        <v>61700</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5338,35 +5378,31 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="C141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="D141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="E141" t="n">
-        <v>62150</v>
+        <v>61950</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2</v>
+        <v>7.582703392569</v>
       </c>
       <c r="G141" t="n">
-        <v>62370.83333333334</v>
+        <v>62380</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K141" t="n">
-        <v>61950</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
@@ -5380,37 +5416,29 @@
         <v>62150</v>
       </c>
       <c r="C142" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="D142" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="E142" t="n">
         <v>62150</v>
       </c>
       <c r="F142" t="n">
-        <v>40</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="n">
-        <v>62361.66666666666</v>
+        <v>62370.83333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>62150</v>
-      </c>
-      <c r="K142" t="n">
-        <v>61950</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5420,7 +5448,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="C143" t="n">
         <v>62200</v>
@@ -5429,31 +5457,23 @@
         <v>62200</v>
       </c>
       <c r="E143" t="n">
-        <v>62200</v>
+        <v>62150</v>
       </c>
       <c r="F143" t="n">
-        <v>0.98</v>
+        <v>40</v>
       </c>
       <c r="G143" t="n">
-        <v>62355.83333333334</v>
+        <v>62361.66666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K143" t="n">
-        <v>61950</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5475,23 +5495,19 @@
         <v>62200</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>0.98</v>
       </c>
       <c r="G144" t="n">
-        <v>62342.5</v>
+        <v>62355.83333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K144" t="n">
-        <v>62200</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5502,22 +5518,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="C145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="D145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="E145" t="n">
-        <v>61950</v>
+        <v>62200</v>
       </c>
       <c r="F145" t="n">
-        <v>23.770996607431</v>
+        <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>62325</v>
+        <v>62342.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5526,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5543,40 +5553,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="C146" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="D146" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="E146" t="n">
-        <v>62200</v>
+        <v>61950</v>
       </c>
       <c r="F146" t="n">
-        <v>77.13200000000001</v>
+        <v>23.770996607431</v>
       </c>
       <c r="G146" t="n">
-        <v>62321.66666666666</v>
+        <v>62325</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K146" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5586,40 +5588,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>62200</v>
+      </c>
+      <c r="C147" t="n">
         <v>62400</v>
       </c>
-      <c r="C147" t="n">
-        <v>62500</v>
-      </c>
       <c r="D147" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="E147" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="F147" t="n">
-        <v>100</v>
+        <v>77.13200000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>62325</v>
+        <v>62321.66666666666</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K147" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5629,40 +5623,32 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="C148" t="n">
-        <v>62800</v>
+        <v>62500</v>
       </c>
       <c r="D148" t="n">
-        <v>62800</v>
+        <v>62500</v>
       </c>
       <c r="E148" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="F148" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>62331.66666666666</v>
+        <v>62325</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>62500</v>
-      </c>
-      <c r="K148" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5672,40 +5658,32 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="C149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="D149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="E149" t="n">
-        <v>62850</v>
+        <v>62800</v>
       </c>
       <c r="F149" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G149" t="n">
-        <v>62339.16666666666</v>
+        <v>62331.66666666666</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K149" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5715,22 +5693,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="C150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="D150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="E150" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="G150" t="n">
-        <v>62345.83333333334</v>
+        <v>62339.16666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5739,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5768,10 +5740,10 @@
         <v>62950</v>
       </c>
       <c r="F151" t="n">
-        <v>72.5</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>62353.33333333334</v>
+        <v>62345.83333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5780,14 +5752,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5797,22 +5763,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C152" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="D152" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E152" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F152" t="n">
-        <v>23</v>
+        <v>72.5</v>
       </c>
       <c r="G152" t="n">
-        <v>62364.16666666666</v>
+        <v>62353.33333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5821,14 +5787,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5838,22 +5798,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C153" t="n">
         <v>63100</v>
       </c>
-      <c r="C153" t="n">
-        <v>63300</v>
-      </c>
       <c r="D153" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="E153" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F153" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G153" t="n">
-        <v>62368.33333333334</v>
+        <v>62364.16666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5862,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5879,7 +5833,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="C154" t="n">
         <v>63300</v>
@@ -5888,13 +5842,13 @@
         <v>63300</v>
       </c>
       <c r="E154" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="F154" t="n">
-        <v>1.9746</v>
+        <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>62382.5</v>
+        <v>62368.33333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5903,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5920,38 +5868,32 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E155" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F155" t="n">
-        <v>7.7075</v>
+        <v>1.9746</v>
       </c>
       <c r="G155" t="n">
-        <v>62390</v>
+        <v>62382.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5973,26 +5915,20 @@
         <v>63400</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>7.7075</v>
       </c>
       <c r="G156" t="n">
-        <v>62405.83333333334</v>
+        <v>62390</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6014,28 +5950,22 @@
         <v>63400</v>
       </c>
       <c r="F157" t="n">
-        <v>13.2522</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>62422.5</v>
+        <v>62405.83333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>1.014292604501608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6055,16 +5985,16 @@
         <v>63400</v>
       </c>
       <c r="F158" t="n">
-        <v>2.8422</v>
+        <v>13.2522</v>
       </c>
       <c r="G158" t="n">
-        <v>62436.66666666666</v>
+        <v>62422.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6078,28 +6008,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D159" t="n">
-        <v>63450</v>
+        <v>63400</v>
       </c>
       <c r="E159" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="F159" t="n">
-        <v>26.155</v>
+        <v>2.8422</v>
       </c>
       <c r="G159" t="n">
-        <v>62450.83333333334</v>
+        <v>62436.66666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6119,22 +6049,22 @@
         <v>63300</v>
       </c>
       <c r="D160" t="n">
-        <v>63300</v>
+        <v>63450</v>
       </c>
       <c r="E160" t="n">
         <v>63300</v>
       </c>
       <c r="F160" t="n">
-        <v>1.0963</v>
+        <v>26.155</v>
       </c>
       <c r="G160" t="n">
-        <v>62465</v>
+        <v>62450.83333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6160,16 +6090,16 @@
         <v>63300</v>
       </c>
       <c r="F161" t="n">
-        <v>3.1237</v>
+        <v>1.0963</v>
       </c>
       <c r="G161" t="n">
-        <v>62479.16666666666</v>
+        <v>62465</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6195,10 +6125,10 @@
         <v>63300</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7</v>
+        <v>3.1237</v>
       </c>
       <c r="G162" t="n">
-        <v>62493.33333333334</v>
+        <v>62479.16666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6230,10 +6160,10 @@
         <v>63300</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9173</v>
+        <v>0.7</v>
       </c>
       <c r="G163" t="n">
-        <v>62499.16666666666</v>
+        <v>62493.33333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6253,28 +6183,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="C164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="D164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="E164" t="n">
-        <v>63450</v>
+        <v>63300</v>
       </c>
       <c r="F164" t="n">
-        <v>6.009</v>
+        <v>0.9173</v>
       </c>
       <c r="G164" t="n">
-        <v>62507.5</v>
+        <v>62499.16666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6288,28 +6218,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="C165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="D165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="E165" t="n">
-        <v>63400</v>
+        <v>63450</v>
       </c>
       <c r="F165" t="n">
-        <v>33.5</v>
+        <v>6.009</v>
       </c>
       <c r="G165" t="n">
-        <v>62515</v>
+        <v>62507.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6323,28 +6253,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E166" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="F166" t="n">
-        <v>2.8351</v>
+        <v>33.5</v>
       </c>
       <c r="G166" t="n">
-        <v>62520.83333333334</v>
+        <v>62515</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6370,16 +6300,16 @@
         <v>63300</v>
       </c>
       <c r="F167" t="n">
-        <v>6.009</v>
+        <v>2.8351</v>
       </c>
       <c r="G167" t="n">
-        <v>62526.66666666666</v>
+        <v>62520.83333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6393,22 +6323,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E168" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4468</v>
+        <v>6.009</v>
       </c>
       <c r="G168" t="n">
-        <v>62534.16666666666</v>
+        <v>62526.66666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6423,6 +6353,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>63400</v>
+      </c>
+      <c r="C169" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D169" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.4468</v>
+      </c>
+      <c r="G169" t="n">
+        <v>62534.16666666666</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>16</v>
       </c>
       <c r="G2" t="n">
+        <v>60650</v>
+      </c>
+      <c r="H2" t="n">
         <v>60637.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>16</v>
       </c>
       <c r="G3" t="n">
+        <v>60650</v>
+      </c>
+      <c r="H3" t="n">
         <v>60640</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>16</v>
       </c>
       <c r="G4" t="n">
+        <v>60650</v>
+      </c>
+      <c r="H4" t="n">
         <v>60644.16666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>16</v>
       </c>
       <c r="G5" t="n">
+        <v>60650</v>
+      </c>
+      <c r="H5" t="n">
         <v>60648.33333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -591,15 +628,26 @@
         <v>60653.33333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>60653.33333333334</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>60650</v>
+      </c>
+      <c r="L6" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>16</v>
       </c>
       <c r="G7" t="n">
+        <v>60643.33333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>60655</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60700</v>
+      </c>
+      <c r="L7" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>41.8262</v>
       </c>
       <c r="G8" t="n">
+        <v>60633.33333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>60653.33333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,29 @@
         <v>9</v>
       </c>
       <c r="G9" t="n">
+        <v>60623.33333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>60651.66666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L9" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,24 +809,29 @@
         <v>34103.92198485342</v>
       </c>
       <c r="G10" t="n">
+        <v>60610</v>
+      </c>
+      <c r="H10" t="n">
         <v>60650.83333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>60500</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,22 +855,27 @@
         <v>903.058</v>
       </c>
       <c r="G11" t="n">
+        <v>60593.33333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>60650.83333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -808,22 +899,27 @@
         <v>0.966</v>
       </c>
       <c r="G12" t="n">
+        <v>60586.66666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>60653.33333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -847,22 +943,27 @@
         <v>12.2482</v>
       </c>
       <c r="G13" t="n">
+        <v>60570</v>
+      </c>
+      <c r="H13" t="n">
         <v>60653.33333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,22 +987,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>60560</v>
+      </c>
+      <c r="H14" t="n">
         <v>60651.66666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -925,22 +1031,27 @@
         <v>0.3</v>
       </c>
       <c r="G15" t="n">
+        <v>60576.66666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>60654.16666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,22 +1075,27 @@
         <v>0.4095</v>
       </c>
       <c r="G16" t="n">
+        <v>60603.33333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>60660</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,22 +1119,27 @@
         <v>0.6001</v>
       </c>
       <c r="G17" t="n">
+        <v>60630</v>
+      </c>
+      <c r="H17" t="n">
         <v>60665.83333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,22 +1163,27 @@
         <v>114.7688</v>
       </c>
       <c r="G18" t="n">
+        <v>60660</v>
+      </c>
+      <c r="H18" t="n">
         <v>60672.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1081,22 +1207,27 @@
         <v>12</v>
       </c>
       <c r="G19" t="n">
+        <v>60706.66666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>60683.33333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,22 +1251,27 @@
         <v>138.28704158576</v>
       </c>
       <c r="G20" t="n">
+        <v>60783.33333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>60701.66666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1159,22 +1295,27 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="G21" t="n">
+        <v>60846.66666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>60717.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,22 +1339,27 @@
         <v>122.4285</v>
       </c>
       <c r="G22" t="n">
+        <v>60940</v>
+      </c>
+      <c r="H22" t="n">
         <v>60737.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,22 +1383,27 @@
         <v>91.858704681194</v>
       </c>
       <c r="G23" t="n">
+        <v>61036.66666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>60758.33333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,22 +1427,27 @@
         <v>1.752</v>
       </c>
       <c r="G24" t="n">
+        <v>61130</v>
+      </c>
+      <c r="H24" t="n">
         <v>60779.16666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,22 +1471,27 @@
         <v>0.016193548387</v>
       </c>
       <c r="G25" t="n">
+        <v>61233.33333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>60800.83333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1354,22 +1515,27 @@
         <v>21.3243</v>
       </c>
       <c r="G26" t="n">
+        <v>61346.66666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>60824.16666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,22 +1559,27 @@
         <v>30</v>
       </c>
       <c r="G27" t="n">
+        <v>61476.66666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>60854.16666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,22 +1603,27 @@
         <v>18.4972</v>
       </c>
       <c r="G28" t="n">
+        <v>61616.66666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>60884.16666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1471,22 +1647,29 @@
         <v>30</v>
       </c>
       <c r="G29" t="n">
+        <v>61743.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>60912.5</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,18 +1691,27 @@
         <v>23.9828</v>
       </c>
       <c r="G30" t="n">
+        <v>61836.66666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>60939.16666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,18 +1735,27 @@
         <v>22.821027287319</v>
       </c>
       <c r="G31" t="n">
+        <v>61920</v>
+      </c>
+      <c r="H31" t="n">
         <v>60965.83333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,18 +1779,27 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>62000</v>
+      </c>
+      <c r="H32" t="n">
         <v>60991.66666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,18 +1823,27 @@
         <v>7.5</v>
       </c>
       <c r="G33" t="n">
+        <v>62093.33333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>61021.66666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,18 +1867,27 @@
         <v>69</v>
       </c>
       <c r="G34" t="n">
+        <v>62166.66666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>61050.83333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1683,18 +1911,27 @@
         <v>14.8128</v>
       </c>
       <c r="G35" t="n">
+        <v>62210</v>
+      </c>
+      <c r="H35" t="n">
         <v>61080</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,18 +1955,27 @@
         <v>11.2203</v>
       </c>
       <c r="G36" t="n">
+        <v>62260</v>
+      </c>
+      <c r="H36" t="n">
         <v>61108.33333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,18 +1999,27 @@
         <v>7.67</v>
       </c>
       <c r="G37" t="n">
+        <v>62293.33333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>61136.66666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,18 +2043,27 @@
         <v>15</v>
       </c>
       <c r="G38" t="n">
+        <v>62323.33333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>61165</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,18 +2087,27 @@
         <v>197.4966</v>
       </c>
       <c r="G39" t="n">
+        <v>62330</v>
+      </c>
+      <c r="H39" t="n">
         <v>61186.66666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,18 +2131,27 @@
         <v>22.5</v>
       </c>
       <c r="G40" t="n">
+        <v>62343.33333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>61211.66666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,18 +2175,27 @@
         <v>15</v>
       </c>
       <c r="G41" t="n">
+        <v>62356.66666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>61238.33333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,18 +2219,27 @@
         <v>22.5</v>
       </c>
       <c r="G42" t="n">
+        <v>62343.33333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>61265</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,18 +2263,27 @@
         <v>30</v>
       </c>
       <c r="G43" t="n">
+        <v>62330</v>
+      </c>
+      <c r="H43" t="n">
         <v>61291.66666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,18 +2307,27 @@
         <v>22.5</v>
       </c>
       <c r="G44" t="n">
+        <v>62323.33333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>61319.16666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,18 +2351,27 @@
         <v>2.159</v>
       </c>
       <c r="G45" t="n">
+        <v>62323.33333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>61346.66666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,18 +2395,27 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
+        <v>62350</v>
+      </c>
+      <c r="H46" t="n">
         <v>61380.83333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2103,18 +2439,27 @@
         <v>7.3046</v>
       </c>
       <c r="G47" t="n">
+        <v>62380</v>
+      </c>
+      <c r="H47" t="n">
         <v>61415</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,18 +2483,27 @@
         <v>125.1333</v>
       </c>
       <c r="G48" t="n">
+        <v>62400</v>
+      </c>
+      <c r="H48" t="n">
         <v>61450.83333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2173,18 +2527,27 @@
         <v>135.7442</v>
       </c>
       <c r="G49" t="n">
+        <v>62393.33333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>61479.16666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,18 +2571,27 @@
         <v>25.2082</v>
       </c>
       <c r="G50" t="n">
+        <v>62410</v>
+      </c>
+      <c r="H50" t="n">
         <v>61513.33333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,18 +2615,27 @@
         <v>214.4083</v>
       </c>
       <c r="G51" t="n">
+        <v>62410</v>
+      </c>
+      <c r="H51" t="n">
         <v>61542.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,18 +2659,27 @@
         <v>0.1591</v>
       </c>
       <c r="G52" t="n">
+        <v>62406.66666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>61570.83333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,18 +2703,27 @@
         <v>0.2256</v>
       </c>
       <c r="G53" t="n">
+        <v>62403.33333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>61599.16666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2348,18 +2747,27 @@
         <v>163.5817</v>
       </c>
       <c r="G54" t="n">
+        <v>62366.66666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>61612.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,18 +2791,27 @@
         <v>40.1363</v>
       </c>
       <c r="G55" t="n">
+        <v>62360</v>
+      </c>
+      <c r="H55" t="n">
         <v>61636.66666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,18 +2835,27 @@
         <v>184.5</v>
       </c>
       <c r="G56" t="n">
+        <v>62340</v>
+      </c>
+      <c r="H56" t="n">
         <v>61659.16666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,18 +2879,27 @@
         <v>13.0321</v>
       </c>
       <c r="G57" t="n">
+        <v>62303.33333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>61677.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,18 +2923,27 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
+        <v>62270</v>
+      </c>
+      <c r="H58" t="n">
         <v>61696.66666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,18 +2967,27 @@
         <v>5.2434</v>
       </c>
       <c r="G59" t="n">
+        <v>62256.66666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>61720.83333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,18 +3011,27 @@
         <v>145.6844</v>
       </c>
       <c r="G60" t="n">
+        <v>62230</v>
+      </c>
+      <c r="H60" t="n">
         <v>61741.66666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,18 +3055,27 @@
         <v>103</v>
       </c>
       <c r="G61" t="n">
+        <v>62163.33333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>61759.16666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,18 +3099,27 @@
         <v>0.5049</v>
       </c>
       <c r="G62" t="n">
+        <v>62116.66666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>61781.66666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2663,18 +3143,27 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
+        <v>62050</v>
+      </c>
+      <c r="H63" t="n">
         <v>61800.83333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,18 +3187,27 @@
         <v>1.8</v>
       </c>
       <c r="G64" t="n">
+        <v>62033.33333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>61825</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,18 +3231,27 @@
         <v>121.2541</v>
       </c>
       <c r="G65" t="n">
+        <v>61993.33333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>61849.16666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,18 +3275,27 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
+        <v>61983.33333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>61875</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,18 +3319,27 @@
         <v>7</v>
       </c>
       <c r="G67" t="n">
+        <v>61983.33333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>61905.83333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,18 +3363,27 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
+        <v>61983.33333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>61936.66666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2873,18 +3407,27 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
+        <v>62043.33333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>61967.5</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,18 +3451,27 @@
         <v>1.4583</v>
       </c>
       <c r="G70" t="n">
+        <v>62056.66666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>61998.33333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,18 +3495,27 @@
         <v>3.5417</v>
       </c>
       <c r="G71" t="n">
+        <v>62076.66666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>62030</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,18 +3539,27 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
+        <v>62113.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>62059.16666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,18 +3583,27 @@
         <v>6</v>
       </c>
       <c r="G73" t="n">
+        <v>62146.66666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>62090.83333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,18 +3627,27 @@
         <v>5</v>
       </c>
       <c r="G74" t="n">
+        <v>62160</v>
+      </c>
+      <c r="H74" t="n">
         <v>62120.83333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3083,18 +3671,27 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
+        <v>62193.33333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>62145.83333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,18 +3715,27 @@
         <v>15.7817</v>
       </c>
       <c r="G76" t="n">
+        <v>62203.33333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>62159.16666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,18 +3759,27 @@
         <v>11.976</v>
       </c>
       <c r="G77" t="n">
+        <v>62190</v>
+      </c>
+      <c r="H77" t="n">
         <v>62171.66666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,18 +3803,27 @@
         <v>0.9504</v>
       </c>
       <c r="G78" t="n">
+        <v>62210</v>
+      </c>
+      <c r="H78" t="n">
         <v>62188.33333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,18 +3847,27 @@
         <v>3.3776</v>
       </c>
       <c r="G79" t="n">
+        <v>62216.66666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>62202.5</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,18 +3891,27 @@
         <v>7.1841</v>
       </c>
       <c r="G80" t="n">
+        <v>62233.33333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>62211.66666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,18 +3935,27 @@
         <v>17.3054</v>
       </c>
       <c r="G81" t="n">
+        <v>62243.33333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>62224.16666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,18 +3979,27 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
+        <v>62266.66666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>62237.5</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,18 +4023,27 @@
         <v>18.2309</v>
       </c>
       <c r="G83" t="n">
+        <v>62293.33333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>62250.83333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,18 +4067,27 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
+        <v>62306.66666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>62261.66666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,18 +4111,27 @@
         <v>4.5</v>
       </c>
       <c r="G85" t="n">
+        <v>62353.33333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>62278.33333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,18 +4155,27 @@
         <v>83.06570000000001</v>
       </c>
       <c r="G86" t="n">
+        <v>62400</v>
+      </c>
+      <c r="H86" t="n">
         <v>62293.33333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,18 +4199,27 @@
         <v>7.5</v>
       </c>
       <c r="G87" t="n">
+        <v>62420</v>
+      </c>
+      <c r="H87" t="n">
         <v>62295</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,18 +4243,27 @@
         <v>7.67</v>
       </c>
       <c r="G88" t="n">
+        <v>62420</v>
+      </c>
+      <c r="H88" t="n">
         <v>62291.66666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,18 +4287,27 @@
         <v>33.9</v>
       </c>
       <c r="G89" t="n">
+        <v>62426.66666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>62291.66666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,18 +4331,27 @@
         <v>40</v>
       </c>
       <c r="G90" t="n">
+        <v>62426.66666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>62293.33333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,18 +4375,27 @@
         <v>21.3</v>
       </c>
       <c r="G91" t="n">
+        <v>62473.33333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>62297.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,18 +4419,27 @@
         <v>13.45</v>
       </c>
       <c r="G92" t="n">
+        <v>62520</v>
+      </c>
+      <c r="H92" t="n">
         <v>62301.66666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,18 +4463,27 @@
         <v>16</v>
       </c>
       <c r="G93" t="n">
+        <v>62543.33333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>62300.83333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,18 +4507,27 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
+        <v>62600</v>
+      </c>
+      <c r="H94" t="n">
         <v>62310.83333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3783,18 +4551,27 @@
         <v>66.8172</v>
       </c>
       <c r="G95" t="n">
+        <v>62606.66666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>62310.83333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,18 +4595,27 @@
         <v>6</v>
       </c>
       <c r="G96" t="n">
+        <v>62643.33333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>62320</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,18 +4639,27 @@
         <v>10.8528</v>
       </c>
       <c r="G97" t="n">
+        <v>62626.66666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>62320.83333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,18 +4683,27 @@
         <v>10.8259</v>
       </c>
       <c r="G98" t="n">
+        <v>62603.33333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>62320.83333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,18 +4727,27 @@
         <v>6.9763</v>
       </c>
       <c r="G99" t="n">
+        <v>62603.33333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>62330</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,18 +4771,27 @@
         <v>7.9188</v>
       </c>
       <c r="G100" t="n">
+        <v>62566.66666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>62334.16666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3993,18 +4815,27 @@
         <v>30</v>
       </c>
       <c r="G101" t="n">
+        <v>62530</v>
+      </c>
+      <c r="H101" t="n">
         <v>62336.66666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,18 +4859,27 @@
         <v>5</v>
       </c>
       <c r="G102" t="n">
+        <v>62520</v>
+      </c>
+      <c r="H102" t="n">
         <v>62339.16666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,18 +4903,27 @@
         <v>47.6103</v>
       </c>
       <c r="G103" t="n">
+        <v>62530</v>
+      </c>
+      <c r="H103" t="n">
         <v>62341.66666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,18 +4947,27 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>62566.66666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>62352.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4133,18 +4991,27 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
+        <v>62603.33333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>62363.33333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,18 +5035,27 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>62630</v>
+      </c>
+      <c r="H106" t="n">
         <v>62367.5</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,18 +5079,27 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>62660</v>
+      </c>
+      <c r="H107" t="n">
         <v>62371.66666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,18 +5123,27 @@
         <v>0.509</v>
       </c>
       <c r="G108" t="n">
+        <v>62693.33333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>62374.16666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,18 +5167,27 @@
         <v>0.01</v>
       </c>
       <c r="G109" t="n">
+        <v>62686.66666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>62384.16666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,18 +5211,27 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
+        <v>62720</v>
+      </c>
+      <c r="H110" t="n">
         <v>62388.33333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4343,18 +5255,27 @@
         <v>332.9113</v>
       </c>
       <c r="G111" t="n">
+        <v>62676.66666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>62386.66666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,18 +5299,27 @@
         <v>137.1211</v>
       </c>
       <c r="G112" t="n">
+        <v>62666.66666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>62385.83333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,18 +5343,27 @@
         <v>7.5</v>
       </c>
       <c r="G113" t="n">
+        <v>62660</v>
+      </c>
+      <c r="H113" t="n">
         <v>62385</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,18 +5387,27 @@
         <v>10.1298</v>
       </c>
       <c r="G114" t="n">
+        <v>62643.33333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>62399.16666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4483,18 +5431,27 @@
         <v>14.7757</v>
       </c>
       <c r="G115" t="n">
+        <v>62633.33333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>62402.5</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,18 +5475,27 @@
         <v>4.5919</v>
       </c>
       <c r="G116" t="n">
+        <v>62636.66666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>62410.83333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,18 +5519,27 @@
         <v>7.5</v>
       </c>
       <c r="G117" t="n">
+        <v>62640</v>
+      </c>
+      <c r="H117" t="n">
         <v>62423.33333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,18 +5563,27 @@
         <v>20</v>
       </c>
       <c r="G118" t="n">
+        <v>62636.66666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>62433.33333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,18 +5607,27 @@
         <v>9</v>
       </c>
       <c r="G119" t="n">
+        <v>62600</v>
+      </c>
+      <c r="H119" t="n">
         <v>62438.33333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,18 +5651,27 @@
         <v>6.3243</v>
       </c>
       <c r="G120" t="n">
+        <v>62563.33333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>62446.66666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4693,18 +5695,27 @@
         <v>159.0675</v>
       </c>
       <c r="G121" t="n">
+        <v>62526.66666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>62458.33333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,18 +5739,27 @@
         <v>7.1015</v>
       </c>
       <c r="G122" t="n">
+        <v>62490</v>
+      </c>
+      <c r="H122" t="n">
         <v>62465</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,18 +5783,27 @@
         <v>15</v>
       </c>
       <c r="G123" t="n">
+        <v>62453.33333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>62475</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,18 +5827,27 @@
         <v>4</v>
       </c>
       <c r="G124" t="n">
+        <v>62410</v>
+      </c>
+      <c r="H124" t="n">
         <v>62478.33333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4833,18 +5871,27 @@
         <v>0.0452</v>
       </c>
       <c r="G125" t="n">
+        <v>62360</v>
+      </c>
+      <c r="H125" t="n">
         <v>62480</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,18 +5915,27 @@
         <v>0.2548</v>
       </c>
       <c r="G126" t="n">
+        <v>62353.33333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>62479.16666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,18 +5959,27 @@
         <v>1.0523</v>
       </c>
       <c r="G127" t="n">
+        <v>62343.33333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>62475.83333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,18 +6003,27 @@
         <v>32.21</v>
       </c>
       <c r="G128" t="n">
+        <v>62310</v>
+      </c>
+      <c r="H128" t="n">
         <v>62466.66666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,18 +6047,27 @@
         <v>7.5</v>
       </c>
       <c r="G129" t="n">
+        <v>62290</v>
+      </c>
+      <c r="H129" t="n">
         <v>62460.83333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5008,18 +6091,27 @@
         <v>7.5</v>
       </c>
       <c r="G130" t="n">
+        <v>62270</v>
+      </c>
+      <c r="H130" t="n">
         <v>62455.83333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5043,18 +6135,27 @@
         <v>5</v>
       </c>
       <c r="G131" t="n">
+        <v>62236.66666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>62450.83333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,18 +6179,27 @@
         <v>5.5015</v>
       </c>
       <c r="G132" t="n">
+        <v>62200</v>
+      </c>
+      <c r="H132" t="n">
         <v>62445</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,18 +6223,27 @@
         <v>1.995</v>
       </c>
       <c r="G133" t="n">
+        <v>62153.33333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>62435</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,18 +6267,27 @@
         <v>4.5283</v>
       </c>
       <c r="G134" t="n">
+        <v>62103.33333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>62424.16666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,18 +6311,27 @@
         <v>10.826</v>
       </c>
       <c r="G135" t="n">
+        <v>62050</v>
+      </c>
+      <c r="H135" t="n">
         <v>62410.83333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5218,18 +6355,27 @@
         <v>8.1426</v>
       </c>
       <c r="G136" t="n">
+        <v>62000</v>
+      </c>
+      <c r="H136" t="n">
         <v>62407.5</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5253,18 +6399,27 @@
         <v>7.5</v>
       </c>
       <c r="G137" t="n">
+        <v>61953.33333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>62405.83333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,18 +6443,27 @@
         <v>8.8405</v>
       </c>
       <c r="G138" t="n">
+        <v>61906.66666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>62399.16666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,18 +6487,27 @@
         <v>7.705896607431</v>
       </c>
       <c r="G139" t="n">
+        <v>61883.33333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>62395</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,18 +6531,27 @@
         <v>1.2716</v>
       </c>
       <c r="G140" t="n">
+        <v>61863.33333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>62387.5</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,18 +6575,27 @@
         <v>7.582703392569</v>
       </c>
       <c r="G141" t="n">
+        <v>61846.66666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>62380</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,18 +6619,27 @@
         <v>0.2</v>
       </c>
       <c r="G142" t="n">
+        <v>61846.66666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>62370.83333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,18 +6663,27 @@
         <v>40</v>
       </c>
       <c r="G143" t="n">
+        <v>61873.33333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>62361.66666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,18 +6707,27 @@
         <v>0.98</v>
       </c>
       <c r="G144" t="n">
+        <v>61886.66666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>62355.83333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,18 +6751,27 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
+        <v>61900</v>
+      </c>
+      <c r="H145" t="n">
         <v>62342.5</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,18 +6795,27 @@
         <v>23.770996607431</v>
       </c>
       <c r="G146" t="n">
+        <v>61896.66666666666</v>
+      </c>
+      <c r="H146" t="n">
         <v>62325</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5603,18 +6839,27 @@
         <v>77.13200000000001</v>
       </c>
       <c r="G147" t="n">
+        <v>61926.66666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>62321.66666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,18 +6883,27 @@
         <v>100</v>
       </c>
       <c r="G148" t="n">
+        <v>61980</v>
+      </c>
+      <c r="H148" t="n">
         <v>62325</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5673,18 +6927,27 @@
         <v>125</v>
       </c>
       <c r="G149" t="n">
+        <v>62056.66666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>62331.66666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,18 +6971,27 @@
         <v>107</v>
       </c>
       <c r="G150" t="n">
+        <v>62140</v>
+      </c>
+      <c r="H150" t="n">
         <v>62339.16666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,18 +7015,27 @@
         <v>3</v>
       </c>
       <c r="G151" t="n">
+        <v>62226.66666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>62345.83333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,18 +7059,27 @@
         <v>72.5</v>
       </c>
       <c r="G152" t="n">
+        <v>62310</v>
+      </c>
+      <c r="H152" t="n">
         <v>62353.33333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5813,18 +7103,27 @@
         <v>23</v>
       </c>
       <c r="G153" t="n">
+        <v>62403.33333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>62364.16666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,18 +7147,27 @@
         <v>100</v>
       </c>
       <c r="G154" t="n">
+        <v>62493.33333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>62368.33333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,18 +7191,27 @@
         <v>1.9746</v>
       </c>
       <c r="G155" t="n">
+        <v>62586.66666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>62382.5</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,18 +7235,27 @@
         <v>7.7075</v>
       </c>
       <c r="G156" t="n">
+        <v>62683.33333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>62390</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,18 +7279,27 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
+        <v>62766.66666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>62405.83333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,18 +7323,27 @@
         <v>13.2522</v>
       </c>
       <c r="G158" t="n">
+        <v>62846.66666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>62422.5</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,18 +7367,27 @@
         <v>2.8422</v>
       </c>
       <c r="G159" t="n">
+        <v>62926.66666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>62436.66666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,18 +7411,27 @@
         <v>26.155</v>
       </c>
       <c r="G160" t="n">
+        <v>63000</v>
+      </c>
+      <c r="H160" t="n">
         <v>62450.83333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6093,18 +7455,27 @@
         <v>1.0963</v>
       </c>
       <c r="G161" t="n">
+        <v>63090</v>
+      </c>
+      <c r="H161" t="n">
         <v>62465</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,18 +7499,27 @@
         <v>3.1237</v>
       </c>
       <c r="G162" t="n">
+        <v>63150</v>
+      </c>
+      <c r="H162" t="n">
         <v>62479.16666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6163,18 +7543,27 @@
         <v>0.7</v>
       </c>
       <c r="G163" t="n">
+        <v>63203.33333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>62493.33333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6198,18 +7587,27 @@
         <v>0.9173</v>
       </c>
       <c r="G164" t="n">
+        <v>63236.66666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>62499.16666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6233,19 +7631,28 @@
         <v>6.009</v>
       </c>
       <c r="G165" t="n">
+        <v>63276.66666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>62507.5</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
+      <c r="L165" t="n">
+        <v>60650</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1.041166529266282</v>
       </c>
     </row>
     <row r="166">
@@ -6268,18 +7675,21 @@
         <v>33.5</v>
       </c>
       <c r="G166" t="n">
+        <v>63306.66666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>62515</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6303,18 +7713,21 @@
         <v>2.8351</v>
       </c>
       <c r="G167" t="n">
+        <v>63330</v>
+      </c>
+      <c r="H167" t="n">
         <v>62520.83333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,18 +7751,21 @@
         <v>6.009</v>
       </c>
       <c r="G168" t="n">
+        <v>63343.33333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>62526.66666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,18 +7789,401 @@
         <v>0.4468</v>
       </c>
       <c r="G169" t="n">
+        <v>63350</v>
+      </c>
+      <c r="H169" t="n">
         <v>62534.16666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>63400</v>
+      </c>
+      <c r="C170" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D170" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E170" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1516</v>
+      </c>
+      <c r="G170" t="n">
+        <v>63356.66666666666</v>
+      </c>
+      <c r="H170" t="n">
+        <v>62541.66666666666</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>63450</v>
+      </c>
+      <c r="C171" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D171" t="n">
+        <v>63450</v>
+      </c>
+      <c r="E171" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.1025</v>
+      </c>
+      <c r="G171" t="n">
+        <v>63356.66666666666</v>
+      </c>
+      <c r="H171" t="n">
+        <v>62560</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>63450</v>
+      </c>
+      <c r="C172" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D172" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E172" t="n">
+        <v>63450</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G172" t="n">
+        <v>63363.33333333334</v>
+      </c>
+      <c r="H172" t="n">
+        <v>62580</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>63450</v>
+      </c>
+      <c r="C173" t="n">
+        <v>63450</v>
+      </c>
+      <c r="D173" t="n">
+        <v>63450</v>
+      </c>
+      <c r="E173" t="n">
+        <v>63450</v>
+      </c>
+      <c r="F173" t="n">
+        <v>11.212</v>
+      </c>
+      <c r="G173" t="n">
+        <v>63366.66666666666</v>
+      </c>
+      <c r="H173" t="n">
+        <v>62599.16666666666</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C174" t="n">
+        <v>63050</v>
+      </c>
+      <c r="D174" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>63050</v>
+      </c>
+      <c r="F174" t="n">
+        <v>89.836</v>
+      </c>
+      <c r="G174" t="n">
+        <v>63343.33333333334</v>
+      </c>
+      <c r="H174" t="n">
+        <v>62611.66666666666</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C175" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D175" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E175" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1837</v>
+      </c>
+      <c r="G175" t="n">
+        <v>63316.66666666666</v>
+      </c>
+      <c r="H175" t="n">
+        <v>62621.66666666666</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C176" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D176" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E176" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F176" t="n">
+        <v>14.0943</v>
+      </c>
+      <c r="G176" t="n">
+        <v>63296.66666666666</v>
+      </c>
+      <c r="H176" t="n">
+        <v>62630</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>62350</v>
+      </c>
+      <c r="C177" t="n">
+        <v>62350</v>
+      </c>
+      <c r="D177" t="n">
+        <v>62350</v>
+      </c>
+      <c r="E177" t="n">
+        <v>62350</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.3363</v>
+      </c>
+      <c r="G177" t="n">
+        <v>63233.33333333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>62627.5</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C178" t="n">
+        <v>62600</v>
+      </c>
+      <c r="D178" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E178" t="n">
+        <v>62600</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.5577</v>
+      </c>
+      <c r="G178" t="n">
+        <v>63186.66666666666</v>
+      </c>
+      <c r="H178" t="n">
+        <v>62630.83333333334</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C179" t="n">
+        <v>62650</v>
+      </c>
+      <c r="D179" t="n">
+        <v>62650</v>
+      </c>
+      <c r="E179" t="n">
+        <v>62600</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4.5111</v>
+      </c>
+      <c r="G179" t="n">
+        <v>63143.33333333334</v>
+      </c>
+      <c r="H179" t="n">
+        <v>62635</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="C2" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="D2" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="E2" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1042.747473747723</v>
+        <v>-34002.25771110569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,63 +467,69 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="C3" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="D3" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="E3" t="n">
-        <v>60200</v>
+        <v>61050</v>
       </c>
       <c r="F3" t="n">
-        <v>16.3578</v>
+        <v>0.4095</v>
       </c>
       <c r="G3" t="n">
-        <v>1042.747473747723</v>
+        <v>-34001.84821110569</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>60900</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60900</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="C4" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="D4" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="E4" t="n">
-        <v>60650</v>
+        <v>61050</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>0.6001</v>
       </c>
       <c r="G4" t="n">
-        <v>1042.747473747723</v>
+        <v>-34001.84821110569</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -527,33 +538,40 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>60900</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="C5" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="D5" t="n">
-        <v>60700</v>
+        <v>61550</v>
       </c>
       <c r="E5" t="n">
-        <v>60700</v>
+        <v>61050</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>114.7688</v>
       </c>
       <c r="G5" t="n">
-        <v>1042.747473747723</v>
+        <v>-33887.07941110569</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,33 +580,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>60900</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60700</v>
+        <v>60600</v>
       </c>
       <c r="C6" t="n">
-        <v>60700</v>
+        <v>61350</v>
       </c>
       <c r="D6" t="n">
-        <v>60700</v>
+        <v>61400</v>
       </c>
       <c r="E6" t="n">
-        <v>60700</v>
+        <v>60600</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1042.747473747723</v>
+        <v>-33875.07941110569</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +627,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60700</v>
+        <v>61550</v>
       </c>
       <c r="C7" t="n">
-        <v>60700</v>
+        <v>61800</v>
       </c>
       <c r="D7" t="n">
-        <v>60700</v>
+        <v>61800</v>
       </c>
       <c r="E7" t="n">
-        <v>60700</v>
+        <v>61550</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>138.28704158576</v>
       </c>
       <c r="G7" t="n">
-        <v>1042.747473747723</v>
+        <v>-33736.79236951993</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +663,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60700</v>
+        <v>61650</v>
       </c>
       <c r="C8" t="n">
-        <v>60700</v>
+        <v>61650</v>
       </c>
       <c r="D8" t="n">
-        <v>60700</v>
+        <v>61650</v>
       </c>
       <c r="E8" t="n">
-        <v>60700</v>
+        <v>61650</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1042.747473747723</v>
+        <v>-33737.60036951993</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,133 +699,155 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60700</v>
+        <v>61700</v>
       </c>
       <c r="C9" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="D9" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="E9" t="n">
-        <v>60700</v>
+        <v>61700</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>122.4285</v>
       </c>
       <c r="G9" t="n">
-        <v>1042.747473747723</v>
+        <v>-33615.17186951992</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>61650</v>
+      </c>
+      <c r="K9" t="n">
+        <v>61650</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="C10" t="n">
-        <v>60700</v>
+        <v>61950</v>
       </c>
       <c r="D10" t="n">
-        <v>60700</v>
+        <v>61950</v>
       </c>
       <c r="E10" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>91.858704681194</v>
       </c>
       <c r="G10" t="n">
-        <v>1042.747473747723</v>
+        <v>-33523.31316483873</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>61900</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61650</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="C11" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="D11" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="E11" t="n">
-        <v>60700</v>
+        <v>61900</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>1.752</v>
       </c>
       <c r="G11" t="n">
-        <v>1042.747473747723</v>
+        <v>-33525.06516483873</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>61650</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="C12" t="n">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="D12" t="n">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="E12" t="n">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>0.016193548387</v>
       </c>
       <c r="G12" t="n">
-        <v>1042.747473747723</v>
+        <v>-33525.04897129034</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +861,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="C13" t="n">
-        <v>60650</v>
+        <v>62100</v>
       </c>
       <c r="D13" t="n">
-        <v>60700</v>
+        <v>62100</v>
       </c>
       <c r="E13" t="n">
-        <v>60150</v>
+        <v>62000</v>
       </c>
       <c r="F13" t="n">
-        <v>28.043</v>
+        <v>21.3243</v>
       </c>
       <c r="G13" t="n">
-        <v>1014.704473747723</v>
+        <v>-33503.72467129034</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +897,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>60650</v>
+        <v>62100</v>
       </c>
       <c r="C14" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="D14" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="E14" t="n">
-        <v>60650</v>
+        <v>62100</v>
       </c>
       <c r="F14" t="n">
-        <v>16.978</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>1014.704473747723</v>
+        <v>-33473.72467129034</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +933,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="C15" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="D15" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="E15" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>18.4972</v>
       </c>
       <c r="G15" t="n">
-        <v>1014.704473747723</v>
+        <v>-33473.72467129034</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +969,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="C16" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="D16" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="E16" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>1014.704473747723</v>
+        <v>-33503.72467129034</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +1005,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="C17" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D17" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="E17" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>23.9828</v>
       </c>
       <c r="G17" t="n">
-        <v>1014.704473747723</v>
+        <v>-33527.70747129034</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1041,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C18" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D18" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E18" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>22.821027287319</v>
       </c>
       <c r="G18" t="n">
-        <v>1014.704473747723</v>
+        <v>-33527.70747129034</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1077,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="C19" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="D19" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="E19" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>1014.704473747723</v>
+        <v>-33528.51547129034</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1113,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="C20" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="D20" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="E20" t="n">
-        <v>60650</v>
+        <v>62500</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1014.704473747723</v>
+        <v>-33521.01547129034</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1149,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="C21" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="D21" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="E21" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G21" t="n">
-        <v>1014.704473747723</v>
+        <v>-33590.01547129034</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1185,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="C22" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="D22" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="E22" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>14.8128</v>
       </c>
       <c r="G22" t="n">
-        <v>1014.704473747723</v>
+        <v>-33590.01547129034</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1221,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="C23" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="D23" t="n">
-        <v>60650</v>
+        <v>62450</v>
       </c>
       <c r="E23" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>11.2203</v>
       </c>
       <c r="G23" t="n">
-        <v>1014.704473747723</v>
+        <v>-33601.23577129034</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1257,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="C24" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="D24" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="E24" t="n">
-        <v>60650</v>
+        <v>62250</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>7.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1014.704473747723</v>
+        <v>-33601.23577129034</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,28 +1293,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="C25" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="D25" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="E25" t="n">
-        <v>60650</v>
+        <v>62400</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>1014.704473747723</v>
+        <v>-33601.23577129034</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1329,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C26" t="n">
-        <v>60650</v>
+        <v>62000</v>
       </c>
       <c r="D26" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E26" t="n">
-        <v>60650</v>
+        <v>62000</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>197.4966</v>
       </c>
       <c r="G26" t="n">
-        <v>1014.704473747723</v>
+        <v>-33798.73237129034</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1365,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C27" t="n">
-        <v>60650</v>
+        <v>62200</v>
       </c>
       <c r="D27" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E27" t="n">
-        <v>60650</v>
+        <v>62200</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1014.704473747723</v>
+        <v>-33776.23237129034</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1401,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>60650</v>
+        <v>62200</v>
       </c>
       <c r="C28" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D28" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E28" t="n">
-        <v>60650</v>
+        <v>62200</v>
       </c>
       <c r="F28" t="n">
-        <v>17.2</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>1014.704473747723</v>
+        <v>-33761.23237129034</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1437,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C29" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D29" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E29" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1014.704473747723</v>
+        <v>-33761.23237129034</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1473,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C30" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D30" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E30" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>1014.704473747723</v>
+        <v>-33761.23237129034</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1509,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C31" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D31" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E31" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="G31" t="n">
-        <v>1014.704473747723</v>
+        <v>-33761.23237129034</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1545,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="C32" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="D32" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="E32" t="n">
-        <v>60650</v>
+        <v>62300</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>2.159</v>
       </c>
       <c r="G32" t="n">
-        <v>1014.704473747723</v>
+        <v>-33761.23237129034</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1581,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>60650</v>
+        <v>62650</v>
       </c>
       <c r="C33" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="D33" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="E33" t="n">
-        <v>60650</v>
+        <v>62650</v>
       </c>
       <c r="F33" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>1014.704473747723</v>
+        <v>-33661.23237129034</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1617,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="C34" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="D34" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="E34" t="n">
-        <v>60650</v>
+        <v>62700</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>7.3046</v>
       </c>
       <c r="G34" t="n">
-        <v>1014.704473747723</v>
+        <v>-33661.23237129034</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1653,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>60650</v>
+        <v>62800</v>
       </c>
       <c r="C35" t="n">
-        <v>60700</v>
+        <v>62800</v>
       </c>
       <c r="D35" t="n">
-        <v>60700</v>
+        <v>63000</v>
       </c>
       <c r="E35" t="n">
-        <v>60650</v>
+        <v>62800</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>125.1333</v>
       </c>
       <c r="G35" t="n">
-        <v>1030.704473747723</v>
+        <v>-33536.09907129034</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1689,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>60700</v>
+        <v>62800</v>
       </c>
       <c r="C36" t="n">
-        <v>60500</v>
+        <v>62350</v>
       </c>
       <c r="D36" t="n">
-        <v>60700</v>
+        <v>62800</v>
       </c>
       <c r="E36" t="n">
-        <v>60400</v>
+        <v>62300</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>135.7442</v>
       </c>
       <c r="G36" t="n">
-        <v>1014.704473747723</v>
+        <v>-33671.84327129034</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1725,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>60500</v>
+        <v>62350</v>
       </c>
       <c r="C37" t="n">
-        <v>60500</v>
+        <v>62700</v>
       </c>
       <c r="D37" t="n">
-        <v>60500</v>
+        <v>62700</v>
       </c>
       <c r="E37" t="n">
-        <v>60500</v>
+        <v>62350</v>
       </c>
       <c r="F37" t="n">
-        <v>41.8262</v>
+        <v>25.2082</v>
       </c>
       <c r="G37" t="n">
-        <v>1014.704473747723</v>
+        <v>-33646.63507129034</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1761,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>60500</v>
+        <v>62500</v>
       </c>
       <c r="C38" t="n">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="D38" t="n">
-        <v>60500</v>
+        <v>62500</v>
       </c>
       <c r="E38" t="n">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>214.4083</v>
       </c>
       <c r="G38" t="n">
-        <v>1014.704473747723</v>
+        <v>-33861.04337129034</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1797,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>60600</v>
+        <v>62350</v>
       </c>
       <c r="C39" t="n">
-        <v>60450</v>
+        <v>62350</v>
       </c>
       <c r="D39" t="n">
-        <v>61400</v>
+        <v>62350</v>
       </c>
       <c r="E39" t="n">
-        <v>60400</v>
+        <v>62350</v>
       </c>
       <c r="F39" t="n">
-        <v>34103.92198485342</v>
+        <v>0.1591</v>
       </c>
       <c r="G39" t="n">
-        <v>-33089.21751110569</v>
+        <v>-33861.20247129034</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1833,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>60550</v>
+        <v>62350</v>
       </c>
       <c r="C40" t="n">
-        <v>60400</v>
+        <v>62350</v>
       </c>
       <c r="D40" t="n">
-        <v>60550</v>
+        <v>62350</v>
       </c>
       <c r="E40" t="n">
-        <v>60400</v>
+        <v>62350</v>
       </c>
       <c r="F40" t="n">
-        <v>903.058</v>
+        <v>0.2256</v>
       </c>
       <c r="G40" t="n">
-        <v>-33992.27551110569</v>
+        <v>-33861.20247129034</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1869,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>60550</v>
+        <v>62350</v>
       </c>
       <c r="C41" t="n">
-        <v>60550</v>
+        <v>61450</v>
       </c>
       <c r="D41" t="n">
-        <v>60550</v>
+        <v>62350</v>
       </c>
       <c r="E41" t="n">
-        <v>60550</v>
+        <v>61450</v>
       </c>
       <c r="F41" t="n">
-        <v>0.966</v>
+        <v>163.5817</v>
       </c>
       <c r="G41" t="n">
-        <v>-33991.30951110569</v>
+        <v>-34024.78417129034</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,28 +1905,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>60400</v>
+        <v>62100</v>
       </c>
       <c r="C42" t="n">
-        <v>60400</v>
+        <v>62100</v>
       </c>
       <c r="D42" t="n">
-        <v>60400</v>
+        <v>62400</v>
       </c>
       <c r="E42" t="n">
-        <v>60400</v>
+        <v>62100</v>
       </c>
       <c r="F42" t="n">
-        <v>12.2482</v>
+        <v>40.1363</v>
       </c>
       <c r="G42" t="n">
-        <v>-34003.55771110569</v>
+        <v>-33984.64787129034</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,34 +1941,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>60500</v>
+        <v>62050</v>
       </c>
       <c r="C43" t="n">
-        <v>60500</v>
+        <v>62000</v>
       </c>
       <c r="D43" t="n">
-        <v>60500</v>
+        <v>62050</v>
       </c>
       <c r="E43" t="n">
-        <v>60500</v>
+        <v>61900</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>184.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-34002.55771110569</v>
+        <v>-34169.14787129034</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1977,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>60900</v>
+        <v>61950</v>
       </c>
       <c r="C44" t="n">
-        <v>60900</v>
+        <v>61750</v>
       </c>
       <c r="D44" t="n">
-        <v>60900</v>
+        <v>61950</v>
       </c>
       <c r="E44" t="n">
-        <v>60900</v>
+        <v>61750</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3</v>
+        <v>13.0321</v>
       </c>
       <c r="G44" t="n">
-        <v>-34002.25771110569</v>
+        <v>-34182.17997129034</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2013,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>61050</v>
+        <v>61800</v>
       </c>
       <c r="C45" t="n">
-        <v>61050</v>
+        <v>61800</v>
       </c>
       <c r="D45" t="n">
-        <v>61050</v>
+        <v>61800</v>
       </c>
       <c r="E45" t="n">
-        <v>61050</v>
+        <v>61800</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4095</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>-34001.84821110569</v>
+        <v>-34082.17997129034</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2049,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61050</v>
+        <v>62100</v>
       </c>
       <c r="C46" t="n">
-        <v>61050</v>
+        <v>62100</v>
       </c>
       <c r="D46" t="n">
-        <v>61050</v>
+        <v>62100</v>
       </c>
       <c r="E46" t="n">
-        <v>61050</v>
+        <v>62100</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6001</v>
+        <v>5.2434</v>
       </c>
       <c r="G46" t="n">
-        <v>-34001.84821110569</v>
+        <v>-34076.93657129034</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2085,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>61100</v>
+        <v>62050</v>
       </c>
       <c r="C47" t="n">
-        <v>61100</v>
+        <v>61900</v>
       </c>
       <c r="D47" t="n">
-        <v>61550</v>
+        <v>62100</v>
       </c>
       <c r="E47" t="n">
-        <v>61050</v>
+        <v>61900</v>
       </c>
       <c r="F47" t="n">
-        <v>114.7688</v>
+        <v>145.6844</v>
       </c>
       <c r="G47" t="n">
-        <v>-33887.07941110569</v>
+        <v>-34222.62097129034</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2121,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>60600</v>
+        <v>61750</v>
       </c>
       <c r="C48" t="n">
-        <v>61350</v>
+        <v>61700</v>
       </c>
       <c r="D48" t="n">
-        <v>61400</v>
+        <v>61750</v>
       </c>
       <c r="E48" t="n">
-        <v>60600</v>
+        <v>61700</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G48" t="n">
-        <v>-33875.07941110569</v>
+        <v>-34325.62097129034</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,28 +2157,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>61550</v>
+        <v>62000</v>
       </c>
       <c r="C49" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="D49" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="E49" t="n">
-        <v>61550</v>
+        <v>62000</v>
       </c>
       <c r="F49" t="n">
-        <v>138.28704158576</v>
+        <v>0.5049</v>
       </c>
       <c r="G49" t="n">
-        <v>-33736.79236951993</v>
+        <v>-34325.11607129034</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2193,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="C50" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="D50" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="E50" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8080000000000001</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>-33737.60036951993</v>
+        <v>-34425.11607129034</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2229,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>61700</v>
+        <v>62100</v>
       </c>
       <c r="C51" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="D51" t="n">
-        <v>61900</v>
+        <v>62100</v>
       </c>
       <c r="E51" t="n">
-        <v>61700</v>
+        <v>62100</v>
       </c>
       <c r="F51" t="n">
-        <v>122.4285</v>
+        <v>1.8</v>
       </c>
       <c r="G51" t="n">
-        <v>-33615.17186951992</v>
+        <v>-34423.31607129033</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2265,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="C52" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="D52" t="n">
-        <v>61950</v>
+        <v>62100</v>
       </c>
       <c r="E52" t="n">
-        <v>61900</v>
+        <v>61800</v>
       </c>
       <c r="F52" t="n">
-        <v>91.858704681194</v>
+        <v>121.2541</v>
       </c>
       <c r="G52" t="n">
-        <v>-33523.31316483873</v>
+        <v>-34423.31607129033</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2301,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>61900</v>
+        <v>62250</v>
       </c>
       <c r="C53" t="n">
-        <v>61900</v>
+        <v>62250</v>
       </c>
       <c r="D53" t="n">
-        <v>61900</v>
+        <v>62250</v>
       </c>
       <c r="E53" t="n">
-        <v>61900</v>
+        <v>62250</v>
       </c>
       <c r="F53" t="n">
-        <v>1.752</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-33525.06516483873</v>
+        <v>-34422.31607129033</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2337,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="C54" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="D54" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="E54" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="F54" t="n">
-        <v>0.016193548387</v>
+        <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>-33525.04897129034</v>
+        <v>-34415.31607129033</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2373,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="C55" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="D55" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="E55" t="n">
-        <v>62000</v>
+        <v>62350</v>
       </c>
       <c r="F55" t="n">
-        <v>21.3243</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-33503.72467129034</v>
+        <v>-34415.31607129033</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2409,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="C56" t="n">
-        <v>62500</v>
+        <v>62350</v>
       </c>
       <c r="D56" t="n">
-        <v>62500</v>
+        <v>62350</v>
       </c>
       <c r="E56" t="n">
-        <v>62100</v>
+        <v>62350</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-33473.72467129034</v>
+        <v>-34415.31607129033</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,34 +2445,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="C57" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="D57" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="E57" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F57" t="n">
-        <v>18.4972</v>
+        <v>1.4583</v>
       </c>
       <c r="G57" t="n">
-        <v>-33473.72467129034</v>
+        <v>-34416.77437129033</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2481,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="C58" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="D58" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="E58" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="F58" t="n">
-        <v>30</v>
+        <v>3.5417</v>
       </c>
       <c r="G58" t="n">
-        <v>-33503.72467129034</v>
+        <v>-34416.77437129033</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2517,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="C59" t="n">
         <v>62300</v>
       </c>
       <c r="D59" t="n">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E59" t="n">
         <v>62300</v>
       </c>
       <c r="F59" t="n">
-        <v>23.9828</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>-33527.70747129034</v>
+        <v>-34416.77437129033</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,6 +2553,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2475,10 +2572,10 @@
         <v>62300</v>
       </c>
       <c r="F60" t="n">
-        <v>22.821027287319</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>-33527.70747129034</v>
+        <v>-34416.77437129033</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2589,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="C61" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="D61" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="E61" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8080000000000001</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>-33528.51547129034</v>
+        <v>-34416.77437129033</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2625,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="C62" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="D62" t="n">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="E62" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="F62" t="n">
-        <v>7.5</v>
+        <v>150</v>
       </c>
       <c r="G62" t="n">
-        <v>-33521.01547129034</v>
+        <v>-34266.77437129033</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2661,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>62450</v>
+        <v>61850</v>
       </c>
       <c r="C63" t="n">
-        <v>62450</v>
+        <v>61850</v>
       </c>
       <c r="D63" t="n">
-        <v>62450</v>
+        <v>61850</v>
       </c>
       <c r="E63" t="n">
-        <v>62450</v>
+        <v>61850</v>
       </c>
       <c r="F63" t="n">
-        <v>69</v>
+        <v>15.7817</v>
       </c>
       <c r="G63" t="n">
-        <v>-33590.01547129034</v>
+        <v>-34282.55607129033</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2697,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62450</v>
+        <v>61800</v>
       </c>
       <c r="C64" t="n">
-        <v>62450</v>
+        <v>61800</v>
       </c>
       <c r="D64" t="n">
-        <v>62450</v>
+        <v>61800</v>
       </c>
       <c r="E64" t="n">
-        <v>62450</v>
+        <v>61800</v>
       </c>
       <c r="F64" t="n">
-        <v>14.8128</v>
+        <v>11.976</v>
       </c>
       <c r="G64" t="n">
-        <v>-33590.01547129034</v>
+        <v>-34294.53207129033</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2733,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62450</v>
+        <v>62100</v>
       </c>
       <c r="C65" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="D65" t="n">
-        <v>62450</v>
+        <v>62100</v>
       </c>
       <c r="E65" t="n">
-        <v>62400</v>
+        <v>62100</v>
       </c>
       <c r="F65" t="n">
-        <v>11.2203</v>
+        <v>0.9504</v>
       </c>
       <c r="G65" t="n">
-        <v>-33601.23577129034</v>
+        <v>-34293.58167129033</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,34 +2769,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62250</v>
+        <v>62200</v>
       </c>
       <c r="C66" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="D66" t="n">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="E66" t="n">
-        <v>62250</v>
+        <v>62200</v>
       </c>
       <c r="F66" t="n">
-        <v>7.67</v>
+        <v>3.3776</v>
       </c>
       <c r="G66" t="n">
-        <v>-33601.23577129034</v>
+        <v>-34290.20407129033</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2805,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="C67" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="D67" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="E67" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>7.1841</v>
       </c>
       <c r="G67" t="n">
-        <v>-33601.23577129034</v>
+        <v>-34283.01997129033</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2841,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="C68" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="D68" t="n">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="E68" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="F68" t="n">
-        <v>197.4966</v>
+        <v>17.3054</v>
       </c>
       <c r="G68" t="n">
-        <v>-33798.73237129034</v>
+        <v>-34265.71457129034</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2877,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62300</v>
+        <v>62650</v>
       </c>
       <c r="C69" t="n">
-        <v>62200</v>
+        <v>62700</v>
       </c>
       <c r="D69" t="n">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="E69" t="n">
-        <v>62200</v>
+        <v>62650</v>
       </c>
       <c r="F69" t="n">
-        <v>22.5</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>-33776.23237129034</v>
+        <v>-34165.71457129034</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2913,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>62200</v>
+        <v>62700</v>
       </c>
       <c r="C70" t="n">
-        <v>62300</v>
+        <v>62750</v>
       </c>
       <c r="D70" t="n">
-        <v>62300</v>
+        <v>62750</v>
       </c>
       <c r="E70" t="n">
-        <v>62200</v>
+        <v>62700</v>
       </c>
       <c r="F70" t="n">
-        <v>15</v>
+        <v>18.2309</v>
       </c>
       <c r="G70" t="n">
-        <v>-33761.23237129034</v>
+        <v>-34147.48367129033</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2949,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62300</v>
+        <v>62550</v>
       </c>
       <c r="C71" t="n">
-        <v>62300</v>
+        <v>62550</v>
       </c>
       <c r="D71" t="n">
-        <v>62300</v>
+        <v>62550</v>
       </c>
       <c r="E71" t="n">
-        <v>62300</v>
+        <v>62550</v>
       </c>
       <c r="F71" t="n">
-        <v>22.5</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>-33761.23237129034</v>
+        <v>-34149.48367129033</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2985,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="C72" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="D72" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="E72" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="G72" t="n">
-        <v>-33761.23237129034</v>
+        <v>-34144.98367129033</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3021,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>62300</v>
+        <v>62950</v>
       </c>
       <c r="C73" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="D73" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="E73" t="n">
         <v>62300</v>
       </c>
       <c r="F73" t="n">
-        <v>22.5</v>
+        <v>83.06570000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-33761.23237129034</v>
+        <v>-34144.98367129033</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3057,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="C74" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="D74" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="E74" t="n">
-        <v>62300</v>
+        <v>62600</v>
       </c>
       <c r="F74" t="n">
-        <v>2.159</v>
+        <v>7.5</v>
       </c>
       <c r="G74" t="n">
-        <v>-33761.23237129034</v>
+        <v>-34152.48367129033</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3093,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>62650</v>
+        <v>62600</v>
       </c>
       <c r="C75" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="D75" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="E75" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>7.67</v>
       </c>
       <c r="G75" t="n">
-        <v>-33661.23237129034</v>
+        <v>-34160.15367129033</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3129,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="C76" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="D76" t="n">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="E76" t="n">
-        <v>62700</v>
+        <v>62400</v>
       </c>
       <c r="F76" t="n">
-        <v>7.3046</v>
+        <v>33.9</v>
       </c>
       <c r="G76" t="n">
-        <v>-33661.23237129034</v>
+        <v>-34126.25367129033</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3165,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="C77" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="D77" t="n">
-        <v>63000</v>
+        <v>62400</v>
       </c>
       <c r="E77" t="n">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="F77" t="n">
-        <v>125.1333</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>-33536.09907129034</v>
+        <v>-34126.25367129033</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3201,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C78" t="n">
-        <v>62350</v>
+        <v>62550</v>
       </c>
       <c r="D78" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="E78" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F78" t="n">
-        <v>135.7442</v>
+        <v>21.3</v>
       </c>
       <c r="G78" t="n">
-        <v>-33671.84327129034</v>
+        <v>-34104.95367129033</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3237,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>62350</v>
+        <v>62800</v>
       </c>
       <c r="C79" t="n">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="D79" t="n">
-        <v>62700</v>
+        <v>62850</v>
       </c>
       <c r="E79" t="n">
-        <v>62350</v>
+        <v>62500</v>
       </c>
       <c r="F79" t="n">
-        <v>25.2082</v>
+        <v>13.45</v>
       </c>
       <c r="G79" t="n">
-        <v>-33646.63507129034</v>
+        <v>-34118.40367129033</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3273,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="C80" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="D80" t="n">
-        <v>62500</v>
+        <v>62450</v>
       </c>
       <c r="E80" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="F80" t="n">
-        <v>214.4083</v>
+        <v>16</v>
       </c>
       <c r="G80" t="n">
-        <v>-33861.04337129034</v>
+        <v>-34134.40367129033</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3309,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62350</v>
+        <v>63050</v>
       </c>
       <c r="C81" t="n">
-        <v>62350</v>
+        <v>63050</v>
       </c>
       <c r="D81" t="n">
-        <v>62350</v>
+        <v>63050</v>
       </c>
       <c r="E81" t="n">
-        <v>62350</v>
+        <v>63050</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1591</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-33861.20247129034</v>
+        <v>-34124.40367129033</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3345,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="C82" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="D82" t="n">
-        <v>62350</v>
+        <v>63050</v>
       </c>
       <c r="E82" t="n">
-        <v>62350</v>
+        <v>62450</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2256</v>
+        <v>66.8172</v>
       </c>
       <c r="G82" t="n">
-        <v>-33861.20247129034</v>
+        <v>-34191.22087129032</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,34 +3381,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="C83" t="n">
-        <v>61450</v>
+        <v>62950</v>
       </c>
       <c r="D83" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="E83" t="n">
-        <v>61450</v>
+        <v>62950</v>
       </c>
       <c r="F83" t="n">
-        <v>163.5817</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>-34024.78417129034</v>
+        <v>-34185.22087129032</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3417,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="C84" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="D84" t="n">
-        <v>62400</v>
+        <v>62450</v>
       </c>
       <c r="E84" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="F84" t="n">
-        <v>40.1363</v>
+        <v>10.8528</v>
       </c>
       <c r="G84" t="n">
-        <v>-33984.64787129034</v>
+        <v>-34196.07367129032</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3453,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>62050</v>
+        <v>62400</v>
       </c>
       <c r="C85" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="D85" t="n">
-        <v>62050</v>
+        <v>62400</v>
       </c>
       <c r="E85" t="n">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="F85" t="n">
-        <v>184.5</v>
+        <v>10.8259</v>
       </c>
       <c r="G85" t="n">
-        <v>-34169.14787129034</v>
+        <v>-34206.89957129033</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,28 +3489,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>61950</v>
+        <v>62550</v>
       </c>
       <c r="C86" t="n">
-        <v>61750</v>
+        <v>62550</v>
       </c>
       <c r="D86" t="n">
-        <v>61950</v>
+        <v>62550</v>
       </c>
       <c r="E86" t="n">
-        <v>61750</v>
+        <v>62550</v>
       </c>
       <c r="F86" t="n">
-        <v>13.0321</v>
+        <v>6.9763</v>
       </c>
       <c r="G86" t="n">
-        <v>-34182.17997129034</v>
+        <v>-34199.92327129032</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3525,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>61800</v>
+        <v>62450</v>
       </c>
       <c r="C87" t="n">
-        <v>61800</v>
+        <v>62450</v>
       </c>
       <c r="D87" t="n">
-        <v>61800</v>
+        <v>62450</v>
       </c>
       <c r="E87" t="n">
-        <v>61800</v>
+        <v>62450</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>7.9188</v>
       </c>
       <c r="G87" t="n">
-        <v>-34082.17997129034</v>
+        <v>-34207.84207129032</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3561,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="C88" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="D88" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="E88" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="F88" t="n">
-        <v>5.2434</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>-34076.93657129034</v>
+        <v>-34207.84207129032</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3597,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>62050</v>
+        <v>62450</v>
       </c>
       <c r="C89" t="n">
-        <v>61900</v>
+        <v>62450</v>
       </c>
       <c r="D89" t="n">
-        <v>62100</v>
+        <v>62450</v>
       </c>
       <c r="E89" t="n">
-        <v>61900</v>
+        <v>62450</v>
       </c>
       <c r="F89" t="n">
-        <v>145.6844</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>-34222.62097129034</v>
+        <v>-34207.84207129032</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3633,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>61750</v>
+        <v>62450</v>
       </c>
       <c r="C90" t="n">
-        <v>61700</v>
+        <v>62450</v>
       </c>
       <c r="D90" t="n">
-        <v>61750</v>
+        <v>62450</v>
       </c>
       <c r="E90" t="n">
-        <v>61700</v>
+        <v>62450</v>
       </c>
       <c r="F90" t="n">
-        <v>103</v>
+        <v>47.6103</v>
       </c>
       <c r="G90" t="n">
-        <v>-34325.62097129034</v>
+        <v>-34207.84207129032</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3669,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62000</v>
+        <v>62950</v>
       </c>
       <c r="C91" t="n">
-        <v>62000</v>
+        <v>62950</v>
       </c>
       <c r="D91" t="n">
-        <v>62000</v>
+        <v>62950</v>
       </c>
       <c r="E91" t="n">
-        <v>62000</v>
+        <v>62950</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5049</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-34325.11607129034</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3705,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>61800</v>
+        <v>62950</v>
       </c>
       <c r="C92" t="n">
-        <v>61800</v>
+        <v>62950</v>
       </c>
       <c r="D92" t="n">
-        <v>61800</v>
+        <v>62950</v>
       </c>
       <c r="E92" t="n">
-        <v>61800</v>
+        <v>62950</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-34425.11607129034</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,34 +3741,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="C93" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="D93" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="E93" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="F93" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>-34423.31607129033</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,34 +3777,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>61850</v>
+        <v>62950</v>
       </c>
       <c r="C94" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="D94" t="n">
-        <v>62100</v>
+        <v>62950</v>
       </c>
       <c r="E94" t="n">
-        <v>61800</v>
+        <v>62950</v>
       </c>
       <c r="F94" t="n">
-        <v>121.2541</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-34423.31607129033</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,34 +3813,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>62250</v>
+        <v>62950</v>
       </c>
       <c r="C95" t="n">
-        <v>62250</v>
+        <v>62950</v>
       </c>
       <c r="D95" t="n">
-        <v>62250</v>
+        <v>62950</v>
       </c>
       <c r="E95" t="n">
-        <v>62250</v>
+        <v>62950</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.509</v>
       </c>
       <c r="G95" t="n">
-        <v>-34422.31607129033</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,34 +3849,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="C96" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="D96" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="E96" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>0.01</v>
       </c>
       <c r="G96" t="n">
-        <v>-34415.31607129033</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,34 +3885,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="C97" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="D97" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="E97" t="n">
-        <v>62350</v>
+        <v>62950</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-34415.31607129033</v>
+        <v>-34197.84207129032</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,34 +3921,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62350</v>
+        <v>62600</v>
       </c>
       <c r="C98" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="D98" t="n">
-        <v>62350</v>
+        <v>62600</v>
       </c>
       <c r="E98" t="n">
-        <v>62350</v>
+        <v>62300</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>332.9113</v>
       </c>
       <c r="G98" t="n">
-        <v>-34415.31607129033</v>
+        <v>-34530.75337129032</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,34 +3957,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="C99" t="n">
         <v>62300</v>
       </c>
       <c r="D99" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="E99" t="n">
         <v>62300</v>
       </c>
       <c r="F99" t="n">
-        <v>1.4583</v>
+        <v>137.1211</v>
       </c>
       <c r="G99" t="n">
-        <v>-34416.77437129033</v>
+        <v>-34530.75337129032</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,6 +3993,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3875,16 +4012,16 @@
         <v>62300</v>
       </c>
       <c r="F100" t="n">
-        <v>3.5417</v>
+        <v>7.5</v>
       </c>
       <c r="G100" t="n">
-        <v>-34416.77437129033</v>
+        <v>-34530.75337129032</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3892,6 +4029,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3910,16 +4048,16 @@
         <v>62300</v>
       </c>
       <c r="F101" t="n">
-        <v>6</v>
+        <v>10.1298</v>
       </c>
       <c r="G101" t="n">
-        <v>-34416.77437129033</v>
+        <v>-34530.75337129032</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,6 +4065,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3945,16 +4084,16 @@
         <v>62300</v>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>14.7757</v>
       </c>
       <c r="G102" t="n">
-        <v>-34416.77437129033</v>
+        <v>-34530.75337129032</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3962,28 +4101,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="C103" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="D103" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="E103" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>4.5919</v>
       </c>
       <c r="G103" t="n">
-        <v>-34416.77437129033</v>
+        <v>-34526.16147129032</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,34 +4137,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="C104" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D104" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E104" t="n">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F104" t="n">
-        <v>150</v>
+        <v>7.5</v>
       </c>
       <c r="G104" t="n">
-        <v>-34266.77437129033</v>
+        <v>-34526.16147129032</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4032,34 +4173,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="C105" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="D105" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="E105" t="n">
-        <v>61850</v>
+        <v>62400</v>
       </c>
       <c r="F105" t="n">
-        <v>15.7817</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>-34282.55607129033</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4067,34 +4209,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>61800</v>
+        <v>62400</v>
       </c>
       <c r="C106" t="n">
-        <v>61800</v>
+        <v>62400</v>
       </c>
       <c r="D106" t="n">
-        <v>61800</v>
+        <v>62400</v>
       </c>
       <c r="E106" t="n">
-        <v>61800</v>
+        <v>62400</v>
       </c>
       <c r="F106" t="n">
-        <v>11.976</v>
+        <v>9</v>
       </c>
       <c r="G106" t="n">
-        <v>-34294.53207129033</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4102,34 +4245,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>62100</v>
+        <v>62400</v>
       </c>
       <c r="C107" t="n">
-        <v>62100</v>
+        <v>62400</v>
       </c>
       <c r="D107" t="n">
-        <v>62100</v>
+        <v>62400</v>
       </c>
       <c r="E107" t="n">
-        <v>62100</v>
+        <v>62400</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9504</v>
+        <v>6.3243</v>
       </c>
       <c r="G107" t="n">
-        <v>-34293.58167129033</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4137,34 +4281,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="C108" t="n">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="D108" t="n">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="E108" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="F108" t="n">
-        <v>3.3776</v>
+        <v>159.0675</v>
       </c>
       <c r="G108" t="n">
-        <v>-34290.20407129033</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4172,34 +4317,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="C109" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="D109" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="E109" t="n">
-        <v>62350</v>
+        <v>62400</v>
       </c>
       <c r="F109" t="n">
-        <v>7.1841</v>
+        <v>7.1015</v>
       </c>
       <c r="G109" t="n">
-        <v>-34283.01997129033</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4207,13 +4353,14 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="C110" t="n">
         <v>62400</v>
@@ -4222,19 +4369,19 @@
         <v>62400</v>
       </c>
       <c r="E110" t="n">
-        <v>62400</v>
+        <v>62350</v>
       </c>
       <c r="F110" t="n">
-        <v>17.3054</v>
+        <v>15</v>
       </c>
       <c r="G110" t="n">
-        <v>-34265.71457129034</v>
+        <v>-34546.16147129032</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4242,34 +4389,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="C111" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="D111" t="n">
-        <v>62700</v>
+        <v>62300</v>
       </c>
       <c r="E111" t="n">
-        <v>62650</v>
+        <v>62300</v>
       </c>
       <c r="F111" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>-34165.71457129034</v>
+        <v>-34550.16147129032</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4277,28 +4425,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>62700</v>
+        <v>62200</v>
       </c>
       <c r="C112" t="n">
-        <v>62750</v>
+        <v>62200</v>
       </c>
       <c r="D112" t="n">
-        <v>62750</v>
+        <v>62200</v>
       </c>
       <c r="E112" t="n">
-        <v>62700</v>
+        <v>62200</v>
       </c>
       <c r="F112" t="n">
-        <v>18.2309</v>
+        <v>0.0452</v>
       </c>
       <c r="G112" t="n">
-        <v>-34147.48367129033</v>
+        <v>-34550.20667129033</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4461,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>62550</v>
+        <v>62200</v>
       </c>
       <c r="C113" t="n">
-        <v>62550</v>
+        <v>62200</v>
       </c>
       <c r="D113" t="n">
-        <v>62550</v>
+        <v>62200</v>
       </c>
       <c r="E113" t="n">
-        <v>62550</v>
+        <v>62200</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>0.2548</v>
       </c>
       <c r="G113" t="n">
-        <v>-34149.48367129033</v>
+        <v>-34550.20667129033</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4497,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>63000</v>
+        <v>62150</v>
       </c>
       <c r="C114" t="n">
-        <v>63000</v>
+        <v>62150</v>
       </c>
       <c r="D114" t="n">
-        <v>63000</v>
+        <v>62150</v>
       </c>
       <c r="E114" t="n">
-        <v>63000</v>
+        <v>62150</v>
       </c>
       <c r="F114" t="n">
-        <v>4.5</v>
+        <v>1.0523</v>
       </c>
       <c r="G114" t="n">
-        <v>-34144.98367129033</v>
+        <v>-34551.25897129033</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4533,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>62950</v>
+        <v>62000</v>
       </c>
       <c r="C115" t="n">
-        <v>63000</v>
+        <v>61800</v>
       </c>
       <c r="D115" t="n">
-        <v>63000</v>
+        <v>62000</v>
       </c>
       <c r="E115" t="n">
-        <v>62300</v>
+        <v>61800</v>
       </c>
       <c r="F115" t="n">
-        <v>83.06570000000001</v>
+        <v>32.21</v>
       </c>
       <c r="G115" t="n">
-        <v>-34144.98367129033</v>
+        <v>-34583.46897129033</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4569,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="C116" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="D116" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="E116" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="F116" t="n">
         <v>7.5</v>
       </c>
       <c r="G116" t="n">
-        <v>-34152.48367129033</v>
+        <v>-34575.96897129033</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4605,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="C117" t="n">
-        <v>62300</v>
+        <v>62000</v>
       </c>
       <c r="D117" t="n">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="E117" t="n">
-        <v>62300</v>
+        <v>62000</v>
       </c>
       <c r="F117" t="n">
-        <v>7.67</v>
+        <v>7.5</v>
       </c>
       <c r="G117" t="n">
-        <v>-34160.15367129033</v>
+        <v>-34575.96897129033</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4641,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>62500</v>
+        <v>62000</v>
       </c>
       <c r="C118" t="n">
-        <v>62400</v>
+        <v>62000</v>
       </c>
       <c r="D118" t="n">
-        <v>62900</v>
+        <v>62000</v>
       </c>
       <c r="E118" t="n">
-        <v>62400</v>
+        <v>62000</v>
       </c>
       <c r="F118" t="n">
-        <v>33.9</v>
+        <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>-34126.25367129033</v>
+        <v>-34575.96897129033</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4677,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="C119" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="D119" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="E119" t="n">
-        <v>62400</v>
+        <v>61950</v>
       </c>
       <c r="F119" t="n">
-        <v>40</v>
+        <v>5.5015</v>
       </c>
       <c r="G119" t="n">
-        <v>-34126.25367129033</v>
+        <v>-34581.47047129033</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4713,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>62900</v>
+        <v>61700</v>
       </c>
       <c r="C120" t="n">
-        <v>62550</v>
+        <v>61700</v>
       </c>
       <c r="D120" t="n">
-        <v>62900</v>
+        <v>61700</v>
       </c>
       <c r="E120" t="n">
-        <v>62500</v>
+        <v>61700</v>
       </c>
       <c r="F120" t="n">
-        <v>21.3</v>
+        <v>1.995</v>
       </c>
       <c r="G120" t="n">
-        <v>-34104.95367129033</v>
+        <v>-34583.46547129033</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4749,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>62800</v>
+        <v>61650</v>
       </c>
       <c r="C121" t="n">
-        <v>62500</v>
+        <v>61650</v>
       </c>
       <c r="D121" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="E121" t="n">
-        <v>62500</v>
+        <v>61650</v>
       </c>
       <c r="F121" t="n">
-        <v>13.45</v>
+        <v>4.5283</v>
       </c>
       <c r="G121" t="n">
-        <v>-34118.40367129033</v>
+        <v>-34587.99377129033</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4785,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>62450</v>
+        <v>61600</v>
       </c>
       <c r="C122" t="n">
-        <v>62450</v>
+        <v>61600</v>
       </c>
       <c r="D122" t="n">
-        <v>62450</v>
+        <v>61600</v>
       </c>
       <c r="E122" t="n">
-        <v>62450</v>
+        <v>61600</v>
       </c>
       <c r="F122" t="n">
-        <v>16</v>
+        <v>10.826</v>
       </c>
       <c r="G122" t="n">
-        <v>-34134.40367129033</v>
+        <v>-34598.81977129033</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4821,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63050</v>
+        <v>61650</v>
       </c>
       <c r="C123" t="n">
-        <v>63050</v>
+        <v>61650</v>
       </c>
       <c r="D123" t="n">
-        <v>63050</v>
+        <v>61650</v>
       </c>
       <c r="E123" t="n">
-        <v>63050</v>
+        <v>61650</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>8.1426</v>
       </c>
       <c r="G123" t="n">
-        <v>-34124.40367129033</v>
+        <v>-34590.67717129033</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4857,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>62450</v>
+        <v>61700</v>
       </c>
       <c r="C124" t="n">
-        <v>62450</v>
+        <v>61700</v>
       </c>
       <c r="D124" t="n">
-        <v>63050</v>
+        <v>61700</v>
       </c>
       <c r="E124" t="n">
-        <v>62450</v>
+        <v>61700</v>
       </c>
       <c r="F124" t="n">
-        <v>66.8172</v>
+        <v>7.5</v>
       </c>
       <c r="G124" t="n">
-        <v>-34191.22087129032</v>
+        <v>-34583.17717129033</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4893,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>62950</v>
+        <v>61700</v>
       </c>
       <c r="C125" t="n">
-        <v>62950</v>
+        <v>61700</v>
       </c>
       <c r="D125" t="n">
-        <v>62950</v>
+        <v>61700</v>
       </c>
       <c r="E125" t="n">
-        <v>62950</v>
+        <v>61700</v>
       </c>
       <c r="F125" t="n">
-        <v>6</v>
+        <v>8.8405</v>
       </c>
       <c r="G125" t="n">
-        <v>-34185.22087129032</v>
+        <v>-34583.17717129033</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4929,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>62450</v>
+        <v>61900</v>
       </c>
       <c r="C126" t="n">
-        <v>62450</v>
+        <v>61950</v>
       </c>
       <c r="D126" t="n">
-        <v>62450</v>
+        <v>61950</v>
       </c>
       <c r="E126" t="n">
-        <v>62450</v>
+        <v>61900</v>
       </c>
       <c r="F126" t="n">
-        <v>10.8528</v>
+        <v>7.705896607431</v>
       </c>
       <c r="G126" t="n">
-        <v>-34196.07367129032</v>
+        <v>-34575.4712746829</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4965,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="C127" t="n">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="D127" t="n">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="E127" t="n">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="F127" t="n">
-        <v>10.8259</v>
+        <v>1.2716</v>
       </c>
       <c r="G127" t="n">
-        <v>-34206.89957129033</v>
+        <v>-34576.7428746829</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +5001,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>62550</v>
+        <v>61950</v>
       </c>
       <c r="C128" t="n">
-        <v>62550</v>
+        <v>61950</v>
       </c>
       <c r="D128" t="n">
-        <v>62550</v>
+        <v>61950</v>
       </c>
       <c r="E128" t="n">
-        <v>62550</v>
+        <v>61950</v>
       </c>
       <c r="F128" t="n">
-        <v>6.9763</v>
+        <v>7.582703392569</v>
       </c>
       <c r="G128" t="n">
-        <v>-34199.92327129032</v>
+        <v>-34569.16017129033</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5037,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="C129" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="D129" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="E129" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="F129" t="n">
-        <v>7.9188</v>
+        <v>0.2</v>
       </c>
       <c r="G129" t="n">
-        <v>-34207.84207129032</v>
+        <v>-34568.96017129033</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5073,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="C130" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="D130" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="E130" t="n">
-        <v>62450</v>
+        <v>62150</v>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G130" t="n">
-        <v>-34207.84207129032</v>
+        <v>-34528.96017129033</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5109,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="C131" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="D131" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="E131" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>0.98</v>
       </c>
       <c r="G131" t="n">
-        <v>-34207.84207129032</v>
+        <v>-34528.96017129033</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5145,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="C132" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="D132" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="E132" t="n">
-        <v>62450</v>
+        <v>62200</v>
       </c>
       <c r="F132" t="n">
-        <v>47.6103</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>-34207.84207129032</v>
+        <v>-34528.96017129033</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5181,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>62950</v>
+        <v>61950</v>
       </c>
       <c r="C133" t="n">
-        <v>62950</v>
+        <v>61950</v>
       </c>
       <c r="D133" t="n">
-        <v>62950</v>
+        <v>61950</v>
       </c>
       <c r="E133" t="n">
-        <v>62950</v>
+        <v>61950</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>23.770996607431</v>
       </c>
       <c r="G133" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34552.73116789776</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5217,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>62950</v>
+        <v>62200</v>
       </c>
       <c r="C134" t="n">
-        <v>62950</v>
+        <v>62400</v>
       </c>
       <c r="D134" t="n">
-        <v>62950</v>
+        <v>62400</v>
       </c>
       <c r="E134" t="n">
-        <v>62950</v>
+        <v>62200</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>77.13200000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34475.59916789777</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5253,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>62950</v>
+        <v>62400</v>
       </c>
       <c r="C135" t="n">
-        <v>62950</v>
+        <v>62500</v>
       </c>
       <c r="D135" t="n">
-        <v>62950</v>
+        <v>62500</v>
       </c>
       <c r="E135" t="n">
-        <v>62950</v>
+        <v>62400</v>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34375.59916789777</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5289,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="C136" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="D136" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="E136" t="n">
-        <v>62950</v>
+        <v>62800</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G136" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34250.59916789777</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5325,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="C137" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="D137" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="E137" t="n">
-        <v>62950</v>
+        <v>62850</v>
       </c>
       <c r="F137" t="n">
-        <v>0.509</v>
+        <v>107</v>
       </c>
       <c r="G137" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34143.59916789777</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,6 +5361,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5205,10 +5380,10 @@
         <v>62950</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34140.59916789777</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,6 +5397,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5240,10 +5416,10 @@
         <v>62950</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="G139" t="n">
-        <v>-34197.84207129032</v>
+        <v>-34140.59916789777</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,34 +5433,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="C140" t="n">
-        <v>62300</v>
+        <v>63100</v>
       </c>
       <c r="D140" t="n">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="E140" t="n">
-        <v>62300</v>
+        <v>63000</v>
       </c>
       <c r="F140" t="n">
-        <v>332.9113</v>
+        <v>23</v>
       </c>
       <c r="G140" t="n">
-        <v>-34530.75337129032</v>
+        <v>-34117.59916789777</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5292,34 +5469,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>62500</v>
+        <v>63100</v>
       </c>
       <c r="C141" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="D141" t="n">
-        <v>62500</v>
+        <v>63300</v>
       </c>
       <c r="E141" t="n">
-        <v>62300</v>
+        <v>63100</v>
       </c>
       <c r="F141" t="n">
-        <v>137.1211</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>-34530.75337129032</v>
+        <v>-34017.59916789777</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5327,34 +5505,35 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="C142" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="D142" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="E142" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="F142" t="n">
-        <v>7.5</v>
+        <v>1.9746</v>
       </c>
       <c r="G142" t="n">
-        <v>-34530.75337129032</v>
+        <v>-34017.59916789777</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5362,34 +5541,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="C143" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="D143" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="E143" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="F143" t="n">
-        <v>10.1298</v>
+        <v>7.7075</v>
       </c>
       <c r="G143" t="n">
-        <v>-34530.75337129032</v>
+        <v>-34009.89166789777</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5397,34 +5577,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="C144" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="D144" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="E144" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="F144" t="n">
-        <v>14.7757</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>-34530.75337129032</v>
+        <v>-34009.89166789777</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5432,34 +5613,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="C145" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="D145" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="E145" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="F145" t="n">
-        <v>4.5919</v>
+        <v>13.2522</v>
       </c>
       <c r="G145" t="n">
-        <v>-34526.16147129032</v>
+        <v>-34009.89166789777</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5467,34 +5649,35 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="C146" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="D146" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="E146" t="n">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="F146" t="n">
-        <v>7.5</v>
+        <v>2.8422</v>
       </c>
       <c r="G146" t="n">
-        <v>-34526.16147129032</v>
+        <v>-34009.89166789777</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5502,34 +5685,35 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="C147" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="D147" t="n">
-        <v>62400</v>
+        <v>63450</v>
       </c>
       <c r="E147" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>26.155</v>
       </c>
       <c r="G147" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34036.04666789777</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5537,34 +5721,35 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="C148" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="D148" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="E148" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="F148" t="n">
-        <v>9</v>
+        <v>1.0963</v>
       </c>
       <c r="G148" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34036.04666789777</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5572,34 +5757,35 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="C149" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="D149" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="E149" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="F149" t="n">
-        <v>6.3243</v>
+        <v>3.1237</v>
       </c>
       <c r="G149" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34036.04666789777</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -5607,34 +5793,35 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="C150" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="D150" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="E150" t="n">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="F150" t="n">
-        <v>159.0675</v>
+        <v>0.7</v>
       </c>
       <c r="G150" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34036.04666789777</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5642,34 +5829,35 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="C151" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="D151" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="E151" t="n">
-        <v>62400</v>
+        <v>63300</v>
       </c>
       <c r="F151" t="n">
-        <v>7.1015</v>
+        <v>0.9173</v>
       </c>
       <c r="G151" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34036.04666789777</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5677,34 +5865,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>62350</v>
+        <v>63450</v>
       </c>
       <c r="C152" t="n">
-        <v>62400</v>
+        <v>63450</v>
       </c>
       <c r="D152" t="n">
-        <v>62400</v>
+        <v>63450</v>
       </c>
       <c r="E152" t="n">
-        <v>62350</v>
+        <v>63450</v>
       </c>
       <c r="F152" t="n">
-        <v>15</v>
+        <v>6.009</v>
       </c>
       <c r="G152" t="n">
-        <v>-34546.16147129032</v>
+        <v>-34030.03766789777</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5712,34 +5901,35 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="C153" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="D153" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="E153" t="n">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="F153" t="n">
-        <v>4</v>
+        <v>33.5</v>
       </c>
       <c r="G153" t="n">
-        <v>-34550.16147129032</v>
+        <v>-34063.53766789777</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5747,34 +5937,35 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="C154" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="D154" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="E154" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0452</v>
+        <v>2.8351</v>
       </c>
       <c r="G154" t="n">
-        <v>-34550.20667129033</v>
+        <v>-34066.37276789777</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5782,34 +5973,35 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="C155" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="D155" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="E155" t="n">
-        <v>62200</v>
+        <v>63300</v>
       </c>
       <c r="F155" t="n">
-        <v>0.2548</v>
+        <v>6.009</v>
       </c>
       <c r="G155" t="n">
-        <v>-34550.20667129033</v>
+        <v>-34066.37276789777</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5817,34 +6009,35 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>62150</v>
+        <v>63400</v>
       </c>
       <c r="C156" t="n">
-        <v>62150</v>
+        <v>63400</v>
       </c>
       <c r="D156" t="n">
-        <v>62150</v>
+        <v>63400</v>
       </c>
       <c r="E156" t="n">
-        <v>62150</v>
+        <v>63400</v>
       </c>
       <c r="F156" t="n">
-        <v>1.0523</v>
+        <v>0.4468</v>
       </c>
       <c r="G156" t="n">
-        <v>-34551.25897129033</v>
+        <v>-34065.92596789777</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5852,34 +6045,35 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="C157" t="n">
-        <v>61800</v>
+        <v>63400</v>
       </c>
       <c r="D157" t="n">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="E157" t="n">
-        <v>61800</v>
+        <v>63400</v>
       </c>
       <c r="F157" t="n">
-        <v>32.21</v>
+        <v>0.1516</v>
       </c>
       <c r="G157" t="n">
-        <v>-34583.46897129033</v>
+        <v>-34065.92596789777</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5887,34 +6081,35 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="C158" t="n">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="D158" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="E158" t="n">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="F158" t="n">
-        <v>7.5</v>
+        <v>1.1025</v>
       </c>
       <c r="G158" t="n">
-        <v>-34575.96897129033</v>
+        <v>-34065.92596789777</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -5922,34 +6117,35 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="C159" t="n">
-        <v>62000</v>
+        <v>63500</v>
       </c>
       <c r="D159" t="n">
-        <v>62000</v>
+        <v>63500</v>
       </c>
       <c r="E159" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="F159" t="n">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="G159" t="n">
-        <v>-34575.96897129033</v>
+        <v>-33965.92596789777</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -5957,34 +6153,35 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="C160" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="D160" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="E160" t="n">
-        <v>62000</v>
+        <v>63450</v>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>11.212</v>
       </c>
       <c r="G160" t="n">
-        <v>-34575.96897129033</v>
+        <v>-33977.13796789777</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -5992,34 +6189,35 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>61950</v>
+        <v>63100</v>
       </c>
       <c r="C161" t="n">
-        <v>61950</v>
+        <v>63050</v>
       </c>
       <c r="D161" t="n">
-        <v>61950</v>
+        <v>63100</v>
       </c>
       <c r="E161" t="n">
-        <v>61950</v>
+        <v>63050</v>
       </c>
       <c r="F161" t="n">
-        <v>5.5015</v>
+        <v>89.836</v>
       </c>
       <c r="G161" t="n">
-        <v>-34581.47047129033</v>
+        <v>-34066.97396789777</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6027,34 +6225,35 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="C162" t="n">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="D162" t="n">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="E162" t="n">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="F162" t="n">
-        <v>1.995</v>
+        <v>0.1837</v>
       </c>
       <c r="G162" t="n">
-        <v>-34583.46547129033</v>
+        <v>-34067.15766789777</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6062,34 +6261,35 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>61650</v>
+        <v>62900</v>
       </c>
       <c r="C163" t="n">
-        <v>61650</v>
+        <v>63000</v>
       </c>
       <c r="D163" t="n">
-        <v>61650</v>
+        <v>63000</v>
       </c>
       <c r="E163" t="n">
-        <v>61650</v>
+        <v>62900</v>
       </c>
       <c r="F163" t="n">
-        <v>4.5283</v>
+        <v>14.0943</v>
       </c>
       <c r="G163" t="n">
-        <v>-34587.99377129033</v>
+        <v>-34053.06336789778</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6097,1677 +6297,115 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>61600</v>
+        <v>62350</v>
       </c>
       <c r="C164" t="n">
-        <v>61600</v>
+        <v>62350</v>
       </c>
       <c r="D164" t="n">
-        <v>61600</v>
+        <v>62350</v>
       </c>
       <c r="E164" t="n">
-        <v>61600</v>
+        <v>62350</v>
       </c>
       <c r="F164" t="n">
-        <v>10.826</v>
+        <v>2.3363</v>
       </c>
       <c r="G164" t="n">
-        <v>-34598.81977129033</v>
+        <v>-34055.39966789778</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>61650</v>
-      </c>
-      <c r="K164" t="n">
-        <v>61650</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>61650</v>
+        <v>62600</v>
       </c>
       <c r="C165" t="n">
-        <v>61650</v>
+        <v>62600</v>
       </c>
       <c r="D165" t="n">
-        <v>61650</v>
+        <v>62600</v>
       </c>
       <c r="E165" t="n">
-        <v>61650</v>
+        <v>62600</v>
       </c>
       <c r="F165" t="n">
-        <v>8.1426</v>
+        <v>3.5577</v>
       </c>
       <c r="G165" t="n">
-        <v>-34590.67717129033</v>
+        <v>-34051.84196789778</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K165" t="n">
-        <v>61650</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>61700</v>
+        <v>62600</v>
       </c>
       <c r="C166" t="n">
-        <v>61700</v>
+        <v>62650</v>
       </c>
       <c r="D166" t="n">
-        <v>61700</v>
+        <v>62650</v>
       </c>
       <c r="E166" t="n">
-        <v>61700</v>
+        <v>62600</v>
       </c>
       <c r="F166" t="n">
-        <v>7.5</v>
+        <v>4.5111</v>
       </c>
       <c r="G166" t="n">
-        <v>-34583.17717129033</v>
+        <v>-34047.33086789778</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>61650</v>
-      </c>
-      <c r="K166" t="n">
-        <v>61650</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="C167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="D167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="E167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="F167" t="n">
-        <v>8.8405</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-34583.17717129033</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="K167" t="n">
-        <v>61700</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>61900</v>
-      </c>
-      <c r="C168" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D168" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E168" t="n">
-        <v>61900</v>
-      </c>
-      <c r="F168" t="n">
-        <v>7.705896607431</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-34575.4712746829</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>61700</v>
-      </c>
-      <c r="K168" t="n">
-        <v>61700</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>61900</v>
-      </c>
-      <c r="C169" t="n">
-        <v>61900</v>
-      </c>
-      <c r="D169" t="n">
-        <v>61900</v>
-      </c>
-      <c r="E169" t="n">
-        <v>61900</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1.2716</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-34576.7428746829</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K169" t="n">
-        <v>61700</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>61950</v>
-      </c>
-      <c r="C170" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D170" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E170" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F170" t="n">
-        <v>7.582703392569</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-34569.16017129033</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>61900</v>
-      </c>
-      <c r="K170" t="n">
-        <v>61900</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>62150</v>
-      </c>
-      <c r="C171" t="n">
-        <v>62150</v>
-      </c>
-      <c r="D171" t="n">
-        <v>62150</v>
-      </c>
-      <c r="E171" t="n">
-        <v>62150</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-34568.96017129033</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K171" t="n">
-        <v>61900</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>62150</v>
-      </c>
-      <c r="C172" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D172" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E172" t="n">
-        <v>62150</v>
-      </c>
-      <c r="F172" t="n">
-        <v>40</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>62150</v>
-      </c>
-      <c r="K172" t="n">
-        <v>61900</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K173" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F174" t="n">
-        <v>5</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K174" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>61950</v>
-      </c>
-      <c r="C175" t="n">
-        <v>61950</v>
-      </c>
-      <c r="D175" t="n">
-        <v>61950</v>
-      </c>
-      <c r="E175" t="n">
-        <v>61950</v>
-      </c>
-      <c r="F175" t="n">
-        <v>23.770996607431</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-34552.73116789776</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>62200</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C176" t="n">
-        <v>62400</v>
-      </c>
-      <c r="D176" t="n">
-        <v>62400</v>
-      </c>
-      <c r="E176" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F176" t="n">
-        <v>77.13200000000001</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-34475.59916789777</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K176" t="n">
-        <v>61950</v>
-      </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>62400</v>
-      </c>
-      <c r="C177" t="n">
-        <v>62500</v>
-      </c>
-      <c r="D177" t="n">
-        <v>62500</v>
-      </c>
-      <c r="E177" t="n">
-        <v>62400</v>
-      </c>
-      <c r="F177" t="n">
-        <v>100</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-34375.59916789777</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>61950</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>62800</v>
-      </c>
-      <c r="C178" t="n">
-        <v>62800</v>
-      </c>
-      <c r="D178" t="n">
-        <v>62800</v>
-      </c>
-      <c r="E178" t="n">
-        <v>62800</v>
-      </c>
-      <c r="F178" t="n">
-        <v>125</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-34250.59916789777</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>62500</v>
-      </c>
-      <c r="K178" t="n">
-        <v>61950</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>62850</v>
-      </c>
-      <c r="C179" t="n">
-        <v>62850</v>
-      </c>
-      <c r="D179" t="n">
-        <v>62850</v>
-      </c>
-      <c r="E179" t="n">
-        <v>62850</v>
-      </c>
-      <c r="F179" t="n">
-        <v>107</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-34143.59916789777</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>62950</v>
-      </c>
-      <c r="C180" t="n">
-        <v>62950</v>
-      </c>
-      <c r="D180" t="n">
-        <v>62950</v>
-      </c>
-      <c r="E180" t="n">
-        <v>62950</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-34140.59916789777</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>62950</v>
-      </c>
-      <c r="C181" t="n">
-        <v>62950</v>
-      </c>
-      <c r="D181" t="n">
-        <v>62950</v>
-      </c>
-      <c r="E181" t="n">
-        <v>62950</v>
-      </c>
-      <c r="F181" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-34140.59916789777</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>63000</v>
-      </c>
-      <c r="C182" t="n">
-        <v>63100</v>
-      </c>
-      <c r="D182" t="n">
-        <v>63100</v>
-      </c>
-      <c r="E182" t="n">
-        <v>63000</v>
-      </c>
-      <c r="F182" t="n">
-        <v>23</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-34117.59916789777</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C183" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D183" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E183" t="n">
-        <v>63100</v>
-      </c>
-      <c r="F183" t="n">
-        <v>100</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-34017.59916789777</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C184" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D184" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E184" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.9746</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-34017.59916789777</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C185" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D185" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E185" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F185" t="n">
-        <v>7.7075</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C186" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D186" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E186" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C187" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D187" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E187" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F187" t="n">
-        <v>13.2522</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C188" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D188" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E188" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.8422</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C189" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D189" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E189" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F189" t="n">
-        <v>26.155</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C190" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D190" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E190" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1.0963</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C191" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D191" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E191" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3.1237</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C192" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D192" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E192" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C193" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D193" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E193" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.9173</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C194" t="n">
-        <v>63450</v>
-      </c>
-      <c r="D194" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E194" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6.009</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-34030.03766789777</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C195" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D195" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E195" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F195" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-34063.53766789777</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C196" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D196" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E196" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2.8351</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-34066.37276789777</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C197" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D197" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E197" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F197" t="n">
-        <v>6.009</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-34066.37276789777</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C198" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D198" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E198" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.4468</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>63400</v>
-      </c>
-      <c r="C199" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D199" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E199" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.1516</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C200" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D200" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E200" t="n">
-        <v>63400</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1.1025</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C201" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D201" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E201" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F201" t="n">
-        <v>100</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-33965.92596789777</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C202" t="n">
-        <v>63450</v>
-      </c>
-      <c r="D202" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E202" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F202" t="n">
-        <v>11.212</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-33977.13796789777</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C203" t="n">
-        <v>63050</v>
-      </c>
-      <c r="D203" t="n">
-        <v>63100</v>
-      </c>
-      <c r="E203" t="n">
-        <v>63050</v>
-      </c>
-      <c r="F203" t="n">
-        <v>89.836</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-34066.97396789777</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C204" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D204" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E204" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.1837</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-34067.15766789777</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C205" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D205" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E205" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F205" t="n">
-        <v>14.0943</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-34053.06336789778</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>62350</v>
-      </c>
-      <c r="C206" t="n">
-        <v>62350</v>
-      </c>
-      <c r="D206" t="n">
-        <v>62350</v>
-      </c>
-      <c r="E206" t="n">
-        <v>62350</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2.3363</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-34055.39966789778</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C207" t="n">
-        <v>62600</v>
-      </c>
-      <c r="D207" t="n">
-        <v>62600</v>
-      </c>
-      <c r="E207" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3.5577</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-34051.84196789778</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C208" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D208" t="n">
-        <v>62650</v>
-      </c>
-      <c r="E208" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4.5111</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-34047.33086789778</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,17 +781,11 @@
         <v>1086.779273747723</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>60400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -824,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -857,17 +847,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>60750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,17 +880,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -935,17 +913,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -978,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,17 +979,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,17 +1012,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1089,17 +1045,11 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1132,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1165,17 +1111,11 @@
         <v>1026.747473747723</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1204,17 +1144,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>60650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1243,17 +1177,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1282,17 +1210,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1321,17 +1243,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1360,17 +1276,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1401,15 +1311,9 @@
       <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>60700</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1440,15 +1344,9 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
-        <v>60700</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1479,15 +1377,9 @@
       <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>60700</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1516,15 +1408,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1553,15 +1441,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1590,15 +1474,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1627,15 +1507,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1664,15 +1540,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1701,15 +1573,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1740,15 +1608,9 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>60700</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1777,15 +1639,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1814,15 +1672,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1851,15 +1705,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1888,15 +1738,11 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1925,15 +1771,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1962,15 +1804,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1999,15 +1837,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2036,15 +1870,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2073,15 +1903,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2110,15 +1936,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2147,15 +1969,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2184,15 +2002,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2223,15 +2037,9 @@
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>60650</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,15 +2068,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2297,15 +2101,11 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2334,16 +2134,14 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
       <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2369,7 +2167,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2402,7 +2200,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2435,7 +2233,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2468,7 +2266,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2501,7 +2299,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2534,7 +2332,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2567,7 +2365,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2600,7 +2398,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2633,7 +2431,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2666,7 +2464,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2699,7 +2497,7 @@
         <v>1030.704473747723</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2732,7 +2530,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2765,7 +2563,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2798,7 +2596,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2831,7 +2629,7 @@
         <v>-33089.21751110569</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2864,7 +2662,7 @@
         <v>-33992.27551110569</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2897,7 +2695,7 @@
         <v>-33991.30951110569</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2930,7 +2728,7 @@
         <v>-34003.55771110569</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2996,14 +2794,10 @@
         <v>-34002.25771110569</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>60500</v>
-      </c>
-      <c r="J73" t="n">
-        <v>60500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -3033,19 +2827,11 @@
         <v>-34001.84821110569</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>60900</v>
-      </c>
-      <c r="J74" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3074,19 +2860,11 @@
         <v>-34001.84821110569</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>61050</v>
-      </c>
-      <c r="J75" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3115,19 +2893,11 @@
         <v>-33887.07941110569</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>61050</v>
-      </c>
-      <c r="J76" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3156,17 +2926,11 @@
         <v>-33875.07941110569</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3195,17 +2959,11 @@
         <v>-33736.79236951993</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3234,17 +2992,11 @@
         <v>-33737.60036951993</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3273,17 +3025,11 @@
         <v>-33615.17186951992</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3312,17 +3058,11 @@
         <v>-33523.31316483873</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3351,17 +3091,11 @@
         <v>-33525.06516483873</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3390,17 +3124,11 @@
         <v>-33525.04897129034</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3429,17 +3157,11 @@
         <v>-33503.72467129034</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3468,17 +3190,11 @@
         <v>-33473.72467129034</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3507,17 +3223,11 @@
         <v>-33473.72467129034</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3546,19 +3256,13 @@
         <v>-33503.72467129034</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.026404958677686</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3585,7 +3289,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3618,7 +3322,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3651,7 +3355,7 @@
         <v>-33528.51547129034</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3684,7 +3388,7 @@
         <v>-33521.01547129034</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3717,7 +3421,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3750,7 +3454,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3783,7 +3487,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3816,7 +3520,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3849,7 +3553,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3882,7 +3586,7 @@
         <v>-33798.73237129034</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3915,7 +3619,7 @@
         <v>-33776.23237129034</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4047,14 +3751,10 @@
         <v>-33761.23237129034</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J102" t="n">
-        <v>62300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -4087,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4723,10 +4411,14 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>61800</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4756,11 +4448,19 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J123" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4489,19 @@
         <v>-34422.31607129033</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J124" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +4530,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>62250</v>
+      </c>
+      <c r="J125" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4571,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J126" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4612,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J127" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4921,11 +4653,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J128" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4954,11 +4694,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J129" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4735,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J130" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5020,11 +4776,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J131" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5053,11 +4817,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J132" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5086,11 +4858,19 @@
         <v>-34266.77437129033</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J133" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5122,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4938,19 @@
         <v>-34294.53207129033</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J135" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +4979,19 @@
         <v>-34293.58167129033</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J136" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5221,8 +5023,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5101,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5320,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5353,8 +5179,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5386,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5419,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5452,8 +5296,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5485,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5518,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5551,8 +5413,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5584,8 +5452,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5617,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5650,8 +5530,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5683,8 +5569,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5716,8 +5608,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5749,8 +5647,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5782,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5815,8 +5725,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5848,8 +5764,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5881,8 +5803,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5914,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5947,8 +5881,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5980,8 +5920,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6013,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6046,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6079,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6112,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6145,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6178,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6211,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6244,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6277,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6310,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6343,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6376,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6475,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6508,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6541,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6574,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6607,8 +6661,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6640,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6673,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6706,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6739,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6772,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6805,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6838,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6871,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6904,8 +7012,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6937,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6970,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7003,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +7165,17 @@
         <v>-34587.99377129033</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7069,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7099,11 +7243,17 @@
         <v>-34590.67717129033</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7132,11 +7282,17 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7165,11 +7321,17 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7198,11 +7360,17 @@
         <v>-34575.4712746829</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7231,11 +7399,17 @@
         <v>-34576.7428746829</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7264,11 +7438,17 @@
         <v>-34569.16017129033</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7297,11 +7477,17 @@
         <v>-34568.96017129033</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7333,8 +7519,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7363,11 +7555,17 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7396,11 +7594,17 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +7633,17 @@
         <v>-34552.73116789776</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +7672,19 @@
         <v>-34475.59916789777</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>61950</v>
+      </c>
+      <c r="J205" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7495,11 +7713,17 @@
         <v>-34375.59916789777</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7528,11 +7752,17 @@
         <v>-34250.59916789777</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7564,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7630,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7663,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7696,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7729,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7762,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7795,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7828,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7861,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7894,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7927,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7960,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7993,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8026,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8059,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8092,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8125,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8158,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8191,8 +8535,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8224,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8257,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8290,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8323,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8356,8 +8730,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8389,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8422,8 +8808,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8455,8 +8847,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8488,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8521,14 +8925,20 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
       <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1087.779273747723</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1103.779273747723</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1026.747473747723</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1030.704473747723</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-33089.21751110569</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-33992.27551110569</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-34003.55771110569</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-33875.07941110569</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-33736.79236951993</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-33737.60036951993</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-33615.17186951992</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-33523.31316483873</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-33525.06516483873</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-33525.04897129034</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-33601.23577129034</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-33798.73237129034</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4411,14 +4411,10 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J122" t="n">
-        <v>61800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4448,19 +4444,11 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J123" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4489,19 +4477,11 @@
         <v>-34422.31607129033</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J124" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,19 +4510,11 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J125" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4571,19 +4543,11 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J126" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4612,19 +4576,11 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J127" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4653,19 +4609,11 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J128" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4694,19 +4642,11 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J129" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4735,19 +4675,11 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J130" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4708,11 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J131" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4817,19 +4741,11 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J132" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4858,19 +4774,11 @@
         <v>-34266.77437129033</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J133" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4902,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4938,19 +4840,11 @@
         <v>-34294.53207129033</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J135" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4979,19 +4873,11 @@
         <v>-34293.58167129033</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J136" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5179,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5218,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5257,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5296,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5452,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7090,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7168,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7207,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7243,17 +6787,15 @@
         <v>-34590.67717129033</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>61600</v>
+      </c>
       <c r="J194" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61600</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7286,11 +6828,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>61800</v>
+        <v>61600</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -7325,11 +6867,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>61800</v>
+        <v>61600</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -7360,17 +6902,15 @@
         <v>-34575.4712746829</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>61700</v>
+      </c>
       <c r="J197" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61700</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7403,11 +6943,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7442,11 +6982,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>61800</v>
+        <v>61700</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7480,14 +7020,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +7053,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7555,17 +7083,15 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>62200</v>
+      </c>
       <c r="J202" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>62200</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7124,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>61800</v>
+        <v>62200</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7633,15 +7159,17 @@
         <v>-34552.73116789776</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>62200</v>
+      </c>
       <c r="J204" t="n">
-        <v>61800</v>
+        <v>62200</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7678,13 +7206,9 @@
         <v>61950</v>
       </c>
       <c r="J205" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>61950</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7713,15 +7237,17 @@
         <v>-34375.59916789777</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>62400</v>
+      </c>
       <c r="J206" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7756,11 +7282,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>61800</v>
+        <v>61950</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7794,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7833,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7872,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7911,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7950,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7989,14 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8028,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8067,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8106,14 +7584,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8379,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8496,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8535,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8574,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8652,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8730,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8769,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8808,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8847,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8925,20 +8277,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
       <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -814,7 +814,7 @@
         <v>1103.779273747723</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1026.747473747723</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-33503.72467129034</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-33528.51547129034</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-33521.01547129034</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4411,10 +4411,14 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>61800</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4444,11 +4448,19 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J123" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4489,19 @@
         <v>-34422.31607129033</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J124" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4530,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>62250</v>
+      </c>
+      <c r="J125" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4571,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J126" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4612,19 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J127" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4653,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J128" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4694,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J129" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4735,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J130" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4776,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J131" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4817,19 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J132" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4858,19 @@
         <v>-34266.77437129033</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J133" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4899,19 @@
         <v>-34282.55607129033</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>62400</v>
+      </c>
+      <c r="J134" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4940,19 @@
         <v>-34294.53207129033</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>61850</v>
+      </c>
+      <c r="J135" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4981,19 @@
         <v>-34293.58167129033</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J136" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5022,19 @@
         <v>-34290.20407129033</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J137" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5063,19 @@
         <v>-34283.01997129033</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>62200</v>
+      </c>
+      <c r="J138" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5104,19 @@
         <v>-34265.71457129034</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J139" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5145,19 @@
         <v>-34165.71457129034</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>62400</v>
+      </c>
+      <c r="J140" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,13 +5342,19 @@
         <v>-34152.48367129033</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>61800</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>1.00794498381877</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -5434,7 +5612,7 @@
         <v>-34191.22087129032</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5645,7 @@
         <v>-34185.22087129032</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5678,7 @@
         <v>-34196.07367129032</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5764,7 +5942,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5975,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6008,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6041,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6074,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6193,7 +6371,7 @@
         <v>-34546.16147129032</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,10 +6404,14 @@
         <v>-34546.16147129032</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>62400</v>
+      </c>
+      <c r="J177" t="n">
+        <v>62400</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6262,8 +6444,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6483,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6522,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6561,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6600,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6639,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6678,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6714,19 @@
         <v>-34551.25897129033</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>62200</v>
+      </c>
+      <c r="J185" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6758,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6794,19 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J187" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6835,19 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J188" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6876,19 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J189" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6917,19 @@
         <v>-34581.47047129033</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J190" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6958,19 @@
         <v>-34583.46547129033</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>61950</v>
+      </c>
+      <c r="J191" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6999,19 @@
         <v>-34587.99377129033</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>61700</v>
+      </c>
+      <c r="J192" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7040,19 @@
         <v>-34598.81977129033</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>61650</v>
+      </c>
+      <c r="J193" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6793,9 +7087,13 @@
         <v>61600</v>
       </c>
       <c r="J194" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>62400</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,15 +7122,17 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>61650</v>
+      </c>
       <c r="J195" t="n">
-        <v>61600</v>
+        <v>62400</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6863,15 +7163,17 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>61700</v>
+      </c>
       <c r="J196" t="n">
-        <v>61600</v>
+        <v>62400</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6908,9 +7210,13 @@
         <v>61700</v>
       </c>
       <c r="J197" t="n">
-        <v>61700</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+        <v>62400</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6939,15 +7245,17 @@
         <v>-34576.7428746829</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>61950</v>
+      </c>
       <c r="J198" t="n">
-        <v>61700</v>
+        <v>62400</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -6978,15 +7286,17 @@
         <v>-34569.16017129033</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>61900</v>
+      </c>
       <c r="J199" t="n">
-        <v>61700</v>
+        <v>62400</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7017,11 +7327,19 @@
         <v>-34568.96017129033</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>61950</v>
+      </c>
+      <c r="J200" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +7368,19 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>62150</v>
+      </c>
+      <c r="J201" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7089,9 +7415,13 @@
         <v>62200</v>
       </c>
       <c r="J202" t="n">
-        <v>62200</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>62400</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +7454,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7165,11 +7495,11 @@
         <v>62200</v>
       </c>
       <c r="J204" t="n">
-        <v>62200</v>
+        <v>62400</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7206,9 +7536,13 @@
         <v>61950</v>
       </c>
       <c r="J205" t="n">
-        <v>61950</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+        <v>62400</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7243,11 +7577,11 @@
         <v>62400</v>
       </c>
       <c r="J206" t="n">
-        <v>61950</v>
+        <v>62400</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L206" t="n">
@@ -7282,11 +7616,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>61950</v>
+        <v>62400</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7320,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7350,13 +7690,19 @@
         <v>-34140.59916789777</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L209" t="n">
-        <v>1</v>
+        <v>1.003814102564103</v>
       </c>
       <c r="M209" t="inlineStr"/>
     </row>
@@ -7383,7 +7729,7 @@
         <v>-34140.59916789777</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7416,7 +7762,7 @@
         <v>-34117.59916789777</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7449,7 +7795,7 @@
         <v>-34017.59916789777</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7482,7 +7828,7 @@
         <v>-34017.59916789777</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7515,7 +7861,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7548,7 +7894,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7581,7 +7927,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7614,7 +7960,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7647,7 +7993,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7680,7 +8026,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7713,7 +8059,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7746,7 +8092,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7779,7 +8125,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7812,10 +8158,14 @@
         <v>-34030.03766789777</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>63300</v>
+      </c>
+      <c r="J223" t="n">
+        <v>63300</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7845,11 +8195,17 @@
         <v>-34063.53766789777</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +8234,19 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>63400</v>
+      </c>
+      <c r="J225" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7911,10 +8275,14 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>63300</v>
+      </c>
+      <c r="J226" t="n">
+        <v>63300</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7944,11 +8312,19 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>63300</v>
+      </c>
+      <c r="J227" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7977,11 +8353,17 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8010,7 +8392,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8043,10 +8425,14 @@
         <v>-33965.92596789777</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>63400</v>
+      </c>
+      <c r="J230" t="n">
+        <v>63400</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8076,11 +8462,17 @@
         <v>-33977.13796789777</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8109,11 +8501,17 @@
         <v>-34066.97396789777</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +8540,19 @@
         <v>-34067.15766789777</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>63050</v>
+      </c>
+      <c r="J233" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8175,11 +8581,19 @@
         <v>-34053.06336789778</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>62900</v>
+      </c>
+      <c r="J234" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +8622,19 @@
         <v>-34055.39966789778</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J235" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8241,11 +8663,19 @@
         <v>-34051.84196789778</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>62350</v>
+      </c>
+      <c r="J236" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +8704,19 @@
         <v>-34047.33086789778</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>62600</v>
+      </c>
+      <c r="J237" t="n">
+        <v>63400</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest XMR.xlsx
+++ b/BackTest/2019-10-16 BackTest XMR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>47</v>
       </c>
       <c r="G2" t="n">
-        <v>1087.779273747723</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>1087.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60400</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>1087.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>1087.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>1102.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,21 @@
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>1102.779273747723</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +657,21 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>1086.779273747723</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +693,21 @@
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>1070.779273747723</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +729,21 @@
         <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>1070.779273747723</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +765,21 @@
         <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>1070.779273747723</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +801,23 @@
         <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>1086.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +839,23 @@
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>1103.779273747723</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>60600</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +877,23 @@
         <v>51.0318</v>
       </c>
       <c r="G14" t="n">
-        <v>1052.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>60750</v>
+      </c>
+      <c r="I14" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +915,23 @@
         <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>1052.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I15" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +953,23 @@
         <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>1052.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I16" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +991,21 @@
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>1052.747473747723</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1027,21 @@
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>1052.747473747723</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1063,21 @@
         <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>1052.747473747723</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1099,21 @@
         <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>1052.747473747723</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1135,23 @@
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>1052.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I21" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1173,23 @@
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>1026.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I22" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1211,23 @@
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>1042.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I23" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1249,23 @@
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>1042.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1287,21 @@
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1323,21 @@
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1359,21 @@
         <v>28.2094</v>
       </c>
       <c r="G27" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1395,21 @@
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1431,21 @@
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1467,21 @@
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1503,21 @@
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1539,21 @@
         <v>16.3578</v>
       </c>
       <c r="G32" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1575,21 @@
         <v>16</v>
       </c>
       <c r="G33" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1611,21 @@
         <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1647,21 @@
         <v>16</v>
       </c>
       <c r="G35" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1683,21 @@
         <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1719,21 @@
         <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1755,21 @@
         <v>16</v>
       </c>
       <c r="G38" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1791,21 @@
         <v>16</v>
       </c>
       <c r="G39" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1827,21 @@
         <v>16</v>
       </c>
       <c r="G40" t="n">
-        <v>1042.747473747723</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1863,23 @@
         <v>16</v>
       </c>
       <c r="G41" t="n">
-        <v>1042.747473747723</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I41" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1901,23 @@
         <v>28.043</v>
       </c>
       <c r="G42" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I42" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1939,21 @@
         <v>16.978</v>
       </c>
       <c r="G43" t="n">
-        <v>1014.704473747723</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1975,21 @@
         <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>1014.704473747723</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2011,21 @@
         <v>16</v>
       </c>
       <c r="G45" t="n">
-        <v>1014.704473747723</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2047,23 @@
         <v>16</v>
       </c>
       <c r="G46" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2085,21 @@
         <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>1014.704473747723</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2121,23 @@
         <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I48" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2159,23 @@
         <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I49" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2197,23 @@
         <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I50" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2235,23 @@
         <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I51" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2273,23 @@
         <v>16</v>
       </c>
       <c r="G52" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2311,23 @@
         <v>16</v>
       </c>
       <c r="G53" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2349,23 @@
         <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I54" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2387,23 @@
         <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I55" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2425,23 @@
         <v>15</v>
       </c>
       <c r="G56" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I56" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2463,23 @@
         <v>17.2</v>
       </c>
       <c r="G57" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I57" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2501,23 @@
         <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I58" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2539,23 @@
         <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I59" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2577,23 @@
         <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I60" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2615,23 @@
         <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I61" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2653,23 @@
         <v>16</v>
       </c>
       <c r="G62" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2691,23 @@
         <v>16</v>
       </c>
       <c r="G63" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I63" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2729,23 @@
         <v>16</v>
       </c>
       <c r="G64" t="n">
-        <v>1030.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I64" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2767,23 @@
         <v>16</v>
       </c>
       <c r="G65" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I65" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2805,23 @@
         <v>41.8262</v>
       </c>
       <c r="G66" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I66" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2843,23 @@
         <v>9</v>
       </c>
       <c r="G67" t="n">
-        <v>1014.704473747723</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I67" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2881,23 @@
         <v>34103.92198485342</v>
       </c>
       <c r="G68" t="n">
-        <v>-33089.21751110569</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I68" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2919,23 @@
         <v>903.058</v>
       </c>
       <c r="G69" t="n">
-        <v>-33992.27551110569</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>60450</v>
+      </c>
+      <c r="I69" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2957,23 @@
         <v>0.966</v>
       </c>
       <c r="G70" t="n">
-        <v>-33991.30951110569</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2995,23 @@
         <v>12.2482</v>
       </c>
       <c r="G71" t="n">
-        <v>-34003.55771110569</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>60550</v>
+      </c>
+      <c r="I71" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +3033,23 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-34002.55771110569</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3071,23 @@
         <v>0.3</v>
       </c>
       <c r="G73" t="n">
-        <v>-34002.25771110569</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I73" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3109,23 @@
         <v>0.4095</v>
       </c>
       <c r="G74" t="n">
-        <v>-34001.84821110569</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>60900</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3147,21 @@
         <v>0.6001</v>
       </c>
       <c r="G75" t="n">
-        <v>-34001.84821110569</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3183,21 @@
         <v>114.7688</v>
       </c>
       <c r="G76" t="n">
-        <v>-33887.07941110569</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3219,21 @@
         <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>-33875.07941110569</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3255,21 @@
         <v>138.28704158576</v>
       </c>
       <c r="G78" t="n">
-        <v>-33736.79236951993</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3291,21 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-33737.60036951993</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3327,21 @@
         <v>122.4285</v>
       </c>
       <c r="G80" t="n">
-        <v>-33615.17186951992</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3363,21 @@
         <v>91.858704681194</v>
       </c>
       <c r="G81" t="n">
-        <v>-33523.31316483873</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3399,21 @@
         <v>1.752</v>
       </c>
       <c r="G82" t="n">
-        <v>-33525.06516483873</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3435,21 @@
         <v>0.016193548387</v>
       </c>
       <c r="G83" t="n">
-        <v>-33525.04897129034</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3471,21 @@
         <v>21.3243</v>
       </c>
       <c r="G84" t="n">
-        <v>-33503.72467129034</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3507,21 @@
         <v>30</v>
       </c>
       <c r="G85" t="n">
-        <v>-33473.72467129034</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3543,21 @@
         <v>18.4972</v>
       </c>
       <c r="G86" t="n">
-        <v>-33473.72467129034</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3579,21 @@
         <v>30</v>
       </c>
       <c r="G87" t="n">
-        <v>-33503.72467129034</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3615,21 @@
         <v>23.9828</v>
       </c>
       <c r="G88" t="n">
-        <v>-33527.70747129034</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3651,21 @@
         <v>22.821027287319</v>
       </c>
       <c r="G89" t="n">
-        <v>-33527.70747129034</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3687,21 @@
         <v>0.8080000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-33528.51547129034</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3723,21 @@
         <v>7.5</v>
       </c>
       <c r="G91" t="n">
-        <v>-33521.01547129034</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3759,21 @@
         <v>69</v>
       </c>
       <c r="G92" t="n">
-        <v>-33590.01547129034</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3795,21 @@
         <v>14.8128</v>
       </c>
       <c r="G93" t="n">
-        <v>-33590.01547129034</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3831,21 @@
         <v>11.2203</v>
       </c>
       <c r="G94" t="n">
-        <v>-33601.23577129034</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3867,21 @@
         <v>7.67</v>
       </c>
       <c r="G95" t="n">
-        <v>-33601.23577129034</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3903,21 @@
         <v>15</v>
       </c>
       <c r="G96" t="n">
-        <v>-33601.23577129034</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3939,21 @@
         <v>197.4966</v>
       </c>
       <c r="G97" t="n">
-        <v>-33798.73237129034</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3975,21 @@
         <v>22.5</v>
       </c>
       <c r="G98" t="n">
-        <v>-33776.23237129034</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +4011,21 @@
         <v>15</v>
       </c>
       <c r="G99" t="n">
-        <v>-33761.23237129034</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +4047,21 @@
         <v>22.5</v>
       </c>
       <c r="G100" t="n">
-        <v>-33761.23237129034</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4083,21 @@
         <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>-33761.23237129034</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4119,21 @@
         <v>22.5</v>
       </c>
       <c r="G102" t="n">
-        <v>-33761.23237129034</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4155,21 @@
         <v>2.159</v>
       </c>
       <c r="G103" t="n">
-        <v>-33761.23237129034</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4191,21 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>-33661.23237129034</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4227,21 @@
         <v>7.3046</v>
       </c>
       <c r="G105" t="n">
-        <v>-33661.23237129034</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4263,21 @@
         <v>125.1333</v>
       </c>
       <c r="G106" t="n">
-        <v>-33536.09907129034</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4299,21 @@
         <v>135.7442</v>
       </c>
       <c r="G107" t="n">
-        <v>-33671.84327129034</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4335,21 @@
         <v>25.2082</v>
       </c>
       <c r="G108" t="n">
-        <v>-33646.63507129034</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4371,21 @@
         <v>214.4083</v>
       </c>
       <c r="G109" t="n">
-        <v>-33861.04337129034</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4407,21 @@
         <v>0.1591</v>
       </c>
       <c r="G110" t="n">
-        <v>-33861.20247129034</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4443,21 @@
         <v>0.2256</v>
       </c>
       <c r="G111" t="n">
-        <v>-33861.20247129034</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4479,21 @@
         <v>163.5817</v>
       </c>
       <c r="G112" t="n">
-        <v>-34024.78417129034</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4515,21 @@
         <v>40.1363</v>
       </c>
       <c r="G113" t="n">
-        <v>-33984.64787129034</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4551,21 @@
         <v>184.5</v>
       </c>
       <c r="G114" t="n">
-        <v>-34169.14787129034</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4587,21 @@
         <v>13.0321</v>
       </c>
       <c r="G115" t="n">
-        <v>-34182.17997129034</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4623,21 @@
         <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>-34082.17997129034</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4659,21 @@
         <v>5.2434</v>
       </c>
       <c r="G117" t="n">
-        <v>-34076.93657129034</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4695,21 @@
         <v>145.6844</v>
       </c>
       <c r="G118" t="n">
-        <v>-34222.62097129034</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4731,21 @@
         <v>103</v>
       </c>
       <c r="G119" t="n">
-        <v>-34325.62097129034</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4767,21 @@
         <v>0.5049</v>
       </c>
       <c r="G120" t="n">
-        <v>-34325.11607129034</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4803,21 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>-34425.11607129034</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,22 +4839,21 @@
         <v>1.8</v>
       </c>
       <c r="G122" t="n">
-        <v>-34423.31607129033</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J122" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4445,26 +4875,21 @@
         <v>121.2541</v>
       </c>
       <c r="G123" t="n">
-        <v>-34423.31607129033</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J123" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4486,26 +4911,21 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>-34422.31607129033</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J124" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,26 +4947,21 @@
         <v>7</v>
       </c>
       <c r="G125" t="n">
-        <v>-34415.31607129033</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J125" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4568,26 +4983,21 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>-34415.31607129033</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J126" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4609,26 +5019,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>-34415.31607129033</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J127" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4650,26 +5055,21 @@
         <v>1.4583</v>
       </c>
       <c r="G128" t="n">
-        <v>-34416.77437129033</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J128" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4691,26 +5091,21 @@
         <v>3.5417</v>
       </c>
       <c r="G129" t="n">
-        <v>-34416.77437129033</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J129" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4732,26 +5127,21 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>-34416.77437129033</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J130" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4773,26 +5163,21 @@
         <v>6</v>
       </c>
       <c r="G131" t="n">
-        <v>-34416.77437129033</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J131" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4814,26 +5199,21 @@
         <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>-34416.77437129033</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J132" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4855,26 +5235,21 @@
         <v>150</v>
       </c>
       <c r="G133" t="n">
-        <v>-34266.77437129033</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J133" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4896,26 +5271,21 @@
         <v>15.7817</v>
       </c>
       <c r="G134" t="n">
-        <v>-34282.55607129033</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J134" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4937,26 +5307,21 @@
         <v>11.976</v>
       </c>
       <c r="G135" t="n">
-        <v>-34294.53207129033</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>61850</v>
-      </c>
-      <c r="J135" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4978,26 +5343,21 @@
         <v>0.9504</v>
       </c>
       <c r="G136" t="n">
-        <v>-34293.58167129033</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J136" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5019,26 +5379,21 @@
         <v>3.3776</v>
       </c>
       <c r="G137" t="n">
-        <v>-34290.20407129033</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J137" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5060,26 +5415,21 @@
         <v>7.1841</v>
       </c>
       <c r="G138" t="n">
-        <v>-34283.01997129033</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J138" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5101,26 +5451,21 @@
         <v>17.3054</v>
       </c>
       <c r="G139" t="n">
-        <v>-34265.71457129034</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J139" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5142,26 +5487,21 @@
         <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>-34165.71457129034</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J140" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5183,24 +5523,21 @@
         <v>18.2309</v>
       </c>
       <c r="G141" t="n">
-        <v>-34147.48367129033</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5222,24 +5559,21 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>-34149.48367129033</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5261,24 +5595,21 @@
         <v>4.5</v>
       </c>
       <c r="G143" t="n">
-        <v>-34144.98367129033</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5300,24 +5631,21 @@
         <v>83.06570000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-34144.98367129033</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5339,24 +5667,21 @@
         <v>7.5</v>
       </c>
       <c r="G145" t="n">
-        <v>-34152.48367129033</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>61800</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1.00794498381877</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5378,18 +5703,21 @@
         <v>7.67</v>
       </c>
       <c r="G146" t="n">
-        <v>-34160.15367129033</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5411,18 +5739,21 @@
         <v>33.9</v>
       </c>
       <c r="G147" t="n">
-        <v>-34126.25367129033</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5444,18 +5775,21 @@
         <v>40</v>
       </c>
       <c r="G148" t="n">
-        <v>-34126.25367129033</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5477,18 +5811,21 @@
         <v>21.3</v>
       </c>
       <c r="G149" t="n">
-        <v>-34104.95367129033</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5510,18 +5847,21 @@
         <v>13.45</v>
       </c>
       <c r="G150" t="n">
-        <v>-34118.40367129033</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5543,18 +5883,21 @@
         <v>16</v>
       </c>
       <c r="G151" t="n">
-        <v>-34134.40367129033</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5576,18 +5919,21 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>-34124.40367129033</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5609,18 +5955,21 @@
         <v>66.8172</v>
       </c>
       <c r="G153" t="n">
-        <v>-34191.22087129032</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5642,18 +5991,21 @@
         <v>6</v>
       </c>
       <c r="G154" t="n">
-        <v>-34185.22087129032</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5675,18 +6027,21 @@
         <v>10.8528</v>
       </c>
       <c r="G155" t="n">
-        <v>-34196.07367129032</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5708,18 +6063,21 @@
         <v>10.8259</v>
       </c>
       <c r="G156" t="n">
-        <v>-34206.89957129033</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5741,18 +6099,21 @@
         <v>6.9763</v>
       </c>
       <c r="G157" t="n">
-        <v>-34199.92327129032</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5774,18 +6135,21 @@
         <v>7.9188</v>
       </c>
       <c r="G158" t="n">
-        <v>-34207.84207129032</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5807,18 +6171,21 @@
         <v>30</v>
       </c>
       <c r="G159" t="n">
-        <v>-34207.84207129032</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5840,18 +6207,21 @@
         <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>-34207.84207129032</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5873,18 +6243,21 @@
         <v>47.6103</v>
       </c>
       <c r="G161" t="n">
-        <v>-34207.84207129032</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5906,18 +6279,21 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5939,18 +6315,21 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5972,18 +6351,21 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6005,18 +6387,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6038,18 +6423,21 @@
         <v>0.509</v>
       </c>
       <c r="G166" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6071,18 +6459,21 @@
         <v>0.01</v>
       </c>
       <c r="G167" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6104,18 +6495,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>-34197.84207129032</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6137,18 +6531,21 @@
         <v>332.9113</v>
       </c>
       <c r="G169" t="n">
-        <v>-34530.75337129032</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6170,18 +6567,21 @@
         <v>137.1211</v>
       </c>
       <c r="G170" t="n">
-        <v>-34530.75337129032</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6203,18 +6603,21 @@
         <v>7.5</v>
       </c>
       <c r="G171" t="n">
-        <v>-34530.75337129032</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6236,18 +6639,21 @@
         <v>10.1298</v>
       </c>
       <c r="G172" t="n">
-        <v>-34530.75337129032</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6269,18 +6675,21 @@
         <v>14.7757</v>
       </c>
       <c r="G173" t="n">
-        <v>-34530.75337129032</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6302,18 +6711,21 @@
         <v>4.5919</v>
       </c>
       <c r="G174" t="n">
-        <v>-34526.16147129032</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6335,18 +6747,21 @@
         <v>7.5</v>
       </c>
       <c r="G175" t="n">
-        <v>-34526.16147129032</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6368,18 +6783,21 @@
         <v>20</v>
       </c>
       <c r="G176" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6401,22 +6819,21 @@
         <v>9</v>
       </c>
       <c r="G177" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J177" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6438,24 +6855,21 @@
         <v>6.3243</v>
       </c>
       <c r="G178" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6477,24 +6891,21 @@
         <v>159.0675</v>
       </c>
       <c r="G179" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6516,24 +6927,21 @@
         <v>7.1015</v>
       </c>
       <c r="G180" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6555,24 +6963,21 @@
         <v>15</v>
       </c>
       <c r="G181" t="n">
-        <v>-34546.16147129032</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6594,24 +6999,21 @@
         <v>4</v>
       </c>
       <c r="G182" t="n">
-        <v>-34550.16147129032</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6633,24 +7035,21 @@
         <v>0.0452</v>
       </c>
       <c r="G183" t="n">
-        <v>-34550.20667129033</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6672,24 +7071,21 @@
         <v>0.2548</v>
       </c>
       <c r="G184" t="n">
-        <v>-34550.20667129033</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6711,26 +7107,21 @@
         <v>1.0523</v>
       </c>
       <c r="G185" t="n">
-        <v>-34551.25897129033</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J185" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6752,24 +7143,21 @@
         <v>32.21</v>
       </c>
       <c r="G186" t="n">
-        <v>-34583.46897129033</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6791,26 +7179,21 @@
         <v>7.5</v>
       </c>
       <c r="G187" t="n">
-        <v>-34575.96897129033</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J187" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6832,26 +7215,21 @@
         <v>7.5</v>
       </c>
       <c r="G188" t="n">
-        <v>-34575.96897129033</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J188" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6873,26 +7251,21 @@
         <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>-34575.96897129033</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J189" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6914,26 +7287,21 @@
         <v>5.5015</v>
       </c>
       <c r="G190" t="n">
-        <v>-34581.47047129033</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J190" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6955,26 +7323,21 @@
         <v>1.995</v>
       </c>
       <c r="G191" t="n">
-        <v>-34583.46547129033</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J191" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6996,26 +7359,21 @@
         <v>4.5283</v>
       </c>
       <c r="G192" t="n">
-        <v>-34587.99377129033</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J192" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7037,26 +7395,21 @@
         <v>10.826</v>
       </c>
       <c r="G193" t="n">
-        <v>-34598.81977129033</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J193" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7078,26 +7431,21 @@
         <v>8.1426</v>
       </c>
       <c r="G194" t="n">
-        <v>-34590.67717129033</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>61600</v>
-      </c>
-      <c r="J194" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7119,26 +7467,21 @@
         <v>7.5</v>
       </c>
       <c r="G195" t="n">
-        <v>-34583.17717129033</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>61650</v>
-      </c>
-      <c r="J195" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7160,26 +7503,21 @@
         <v>8.8405</v>
       </c>
       <c r="G196" t="n">
-        <v>-34583.17717129033</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J196" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7201,26 +7539,21 @@
         <v>7.705896607431</v>
       </c>
       <c r="G197" t="n">
-        <v>-34575.4712746829</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J197" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7242,26 +7575,21 @@
         <v>1.2716</v>
       </c>
       <c r="G198" t="n">
-        <v>-34576.7428746829</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J198" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7283,26 +7611,21 @@
         <v>7.582703392569</v>
       </c>
       <c r="G199" t="n">
-        <v>-34569.16017129033</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J199" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7324,26 +7647,21 @@
         <v>0.2</v>
       </c>
       <c r="G200" t="n">
-        <v>-34568.96017129033</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J200" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7365,26 +7683,21 @@
         <v>40</v>
       </c>
       <c r="G201" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>62150</v>
-      </c>
-      <c r="J201" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7406,26 +7719,21 @@
         <v>0.98</v>
       </c>
       <c r="G202" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J202" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7447,24 +7755,21 @@
         <v>5</v>
       </c>
       <c r="G203" t="n">
-        <v>-34528.96017129033</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7486,26 +7791,21 @@
         <v>23.770996607431</v>
       </c>
       <c r="G204" t="n">
-        <v>-34552.73116789776</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J204" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7527,26 +7827,21 @@
         <v>77.13200000000001</v>
       </c>
       <c r="G205" t="n">
-        <v>-34475.59916789777</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J205" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7568,26 +7863,21 @@
         <v>100</v>
       </c>
       <c r="G206" t="n">
-        <v>-34375.59916789777</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J206" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7609,24 +7899,21 @@
         <v>125</v>
       </c>
       <c r="G207" t="n">
-        <v>-34250.59916789777</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7648,24 +7935,21 @@
         <v>107</v>
       </c>
       <c r="G208" t="n">
-        <v>-34143.59916789777</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7687,24 +7971,21 @@
         <v>3</v>
       </c>
       <c r="G209" t="n">
-        <v>-34140.59916789777</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1.003814102564103</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7726,18 +8007,21 @@
         <v>72.5</v>
       </c>
       <c r="G210" t="n">
-        <v>-34140.59916789777</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7759,18 +8043,21 @@
         <v>23</v>
       </c>
       <c r="G211" t="n">
-        <v>-34117.59916789777</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7792,18 +8079,21 @@
         <v>100</v>
       </c>
       <c r="G212" t="n">
-        <v>-34017.59916789777</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7825,18 +8115,21 @@
         <v>1.9746</v>
       </c>
       <c r="G213" t="n">
-        <v>-34017.59916789777</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7858,18 +8151,21 @@
         <v>7.7075</v>
       </c>
       <c r="G214" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7891,18 +8187,21 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7924,18 +8223,21 @@
         <v>13.2522</v>
       </c>
       <c r="G216" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1.044668874172185</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7957,18 +8259,15 @@
         <v>2.8422</v>
       </c>
       <c r="G217" t="n">
-        <v>-34009.89166789777</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7990,18 +8289,15 @@
         <v>26.155</v>
       </c>
       <c r="G218" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8023,18 +8319,15 @@
         <v>1.0963</v>
       </c>
       <c r="G219" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8056,18 +8349,15 @@
         <v>3.1237</v>
       </c>
       <c r="G220" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8089,18 +8379,15 @@
         <v>0.7</v>
       </c>
       <c r="G221" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8122,18 +8409,15 @@
         <v>0.9173</v>
       </c>
       <c r="G222" t="n">
-        <v>-34036.04666789777</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8155,22 +8439,15 @@
         <v>6.009</v>
       </c>
       <c r="G223" t="n">
-        <v>-34030.03766789777</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J223" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8192,24 +8469,15 @@
         <v>33.5</v>
       </c>
       <c r="G224" t="n">
-        <v>-34063.53766789777</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8231,26 +8499,15 @@
         <v>2.8351</v>
       </c>
       <c r="G225" t="n">
-        <v>-34066.37276789777</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>63400</v>
-      </c>
-      <c r="J225" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8272,22 +8529,15 @@
         <v>6.009</v>
       </c>
       <c r="G226" t="n">
-        <v>-34066.37276789777</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J226" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8309,26 +8559,15 @@
         <v>0.4468</v>
       </c>
       <c r="G227" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J227" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8350,24 +8589,15 @@
         <v>0.1516</v>
       </c>
       <c r="G228" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H228" t="n">
         <v>2</v>
       </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8389,18 +8619,15 @@
         <v>1.1025</v>
       </c>
       <c r="G229" t="n">
-        <v>-34065.92596789777</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8422,22 +8649,15 @@
         <v>100</v>
       </c>
       <c r="G230" t="n">
-        <v>-33965.92596789777</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>63400</v>
-      </c>
-      <c r="J230" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8459,24 +8679,15 @@
         <v>11.212</v>
       </c>
       <c r="G231" t="n">
-        <v>-33977.13796789777</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8498,24 +8709,15 @@
         <v>89.836</v>
       </c>
       <c r="G232" t="n">
-        <v>-34066.97396789777</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8537,26 +8739,15 @@
         <v>0.1837</v>
       </c>
       <c r="G233" t="n">
-        <v>-34067.15766789777</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>63050</v>
-      </c>
-      <c r="J233" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8578,26 +8769,15 @@
         <v>14.0943</v>
       </c>
       <c r="G234" t="n">
-        <v>-34053.06336789778</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J234" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8619,26 +8799,15 @@
         <v>2.3363</v>
       </c>
       <c r="G235" t="n">
-        <v>-34055.39966789778</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>63000</v>
-      </c>
-      <c r="J235" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8660,26 +8829,15 @@
         <v>3.5577</v>
       </c>
       <c r="G236" t="n">
-        <v>-34051.84196789778</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J236" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8701,26 +8859,15 @@
         <v>4.5111</v>
       </c>
       <c r="G237" t="n">
-        <v>-34047.33086789778</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>62600</v>
-      </c>
-      <c r="J237" t="n">
-        <v>63400</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
